--- a/2021/ЛБ4_хтс_реактор/Лист Microsoft Excel.xlsx
+++ b/2021/ЛБ4_хтс_реактор/Лист Microsoft Excel.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FD3024-CAC2-460C-BC06-B5E0F5A7DFD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED62FD0-7DD8-4644-AC93-462AD745F26F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="thermodynamics_vs_kinetics" sheetId="2" r:id="rId2"/>
+    <sheet name="individual_properties" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="344">
   <si>
     <t>[</t>
   </si>
@@ -206,19 +209,976 @@
   </si>
   <si>
     <t>c[24]</t>
+  </si>
+  <si>
+    <t>P1 1 → N 11 + H 2</t>
+  </si>
+  <si>
+    <t>Reaction step</t>
+  </si>
+  <si>
+    <t>P 11 + H 2 → P 10 + P 1</t>
+  </si>
+  <si>
+    <t>P 11 + H 2 → P 9 + P 2</t>
+  </si>
+  <si>
+    <t>P 11 + H 2 → P 8 + P 3</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>P 11 + H 2 → P 7 + P 4</t>
+  </si>
+  <si>
+    <t>P 11 + H 2 → P 6 + P 5</t>
+  </si>
+  <si>
+    <t>P 10 → Nl 0 + H 2</t>
+  </si>
+  <si>
+    <t>P L0 + H 2 → P9 + P 1</t>
+  </si>
+  <si>
+    <t>P l0 + H 2 → P8 + P 2</t>
+  </si>
+  <si>
+    <t>P l0 + H 2 → P7 + P 3</t>
+  </si>
+  <si>
+    <t>P l0 + H 2 → P6 + P 4</t>
+  </si>
+  <si>
+    <t>P l0 + H 2 → 2P5</t>
+  </si>
+  <si>
+    <t>P 9 → N9 + H 2</t>
+  </si>
+  <si>
+    <t>P 9 + H2 → P 8 + P 1</t>
+  </si>
+  <si>
+    <t>P 9 + H2 → P 7 + P 2</t>
+  </si>
+  <si>
+    <t>P 9 + H2 → P 6 + P 3</t>
+  </si>
+  <si>
+    <t>P 9 + H2 → P 5 + P 4</t>
+  </si>
+  <si>
+    <t>P 8 → N8 + H 2</t>
+  </si>
+  <si>
+    <t>P 8 + H2 → P 7 + P 1</t>
+  </si>
+  <si>
+    <t>P 8 + H2 → P 6 + P 2</t>
+  </si>
+  <si>
+    <t>P 8 + H2 → P 5 + P 3</t>
+  </si>
+  <si>
+    <t>P 8 + H2 → 2P 4</t>
+  </si>
+  <si>
+    <t>P 7 → N7 + H 2</t>
+  </si>
+  <si>
+    <t>P 7 + H2 → P 6 + P 1</t>
+  </si>
+  <si>
+    <t>P7 + H 2 → P 5 + P 2</t>
+  </si>
+  <si>
+    <t>P7 + H 2 → P 4 + P 3</t>
+  </si>
+  <si>
+    <t>P6 → N 6 + H 2</t>
+  </si>
+  <si>
+    <t>P6 → MCP + H2</t>
+  </si>
+  <si>
+    <t>P6 + H 2 → P 5 + P 1</t>
+  </si>
+  <si>
+    <t>P6 + H 2 → P 4 + P 2</t>
+  </si>
+  <si>
+    <t>P6 + H 2 → 2P 3</t>
+  </si>
+  <si>
+    <t>P5 + H 2 → P 4 + P 1</t>
+  </si>
+  <si>
+    <t>P5 + H 2 → P 3 + P 2</t>
+  </si>
+  <si>
+    <t>N1 1 + H 2 → P 11</t>
+  </si>
+  <si>
+    <t>N1 1 → A 11 + 3H 2</t>
+  </si>
+  <si>
+    <t>N1 1 + H 2 → N1 0 + P 1</t>
+  </si>
+  <si>
+    <t>N1 1 + H 2 → N9 + P 2</t>
+  </si>
+  <si>
+    <t>N1 1 + H 2 → N8 + P 3</t>
+  </si>
+  <si>
+    <t>N1 0 + H 2 → P 10</t>
+  </si>
+  <si>
+    <t>N1 0 → A 10 + 3H 2</t>
+  </si>
+  <si>
+    <t>N1 0 + H 2 → N9 + P 1</t>
+  </si>
+  <si>
+    <t>N1 0 + H 2 → N8 + P 2</t>
+  </si>
+  <si>
+    <t>N1 0 + H 2 → N7 + P 3</t>
+  </si>
+  <si>
+    <t>N9 + H 2 → P 9</t>
+  </si>
+  <si>
+    <t>N9 → A 9 + 3H 2</t>
+  </si>
+  <si>
+    <t>N9 + H 2 → N8 + P 1</t>
+  </si>
+  <si>
+    <t>N9 + H 2 → N7 + P 2</t>
+  </si>
+  <si>
+    <t>N8 + H 2 → P 8</t>
+  </si>
+  <si>
+    <t>N 8 → A 8 + 3H 2</t>
+  </si>
+  <si>
+    <t>N 8 + H 2 → N7 + P 1</t>
+  </si>
+  <si>
+    <t>N 7 + H 2 → P 7</t>
+  </si>
+  <si>
+    <t>N 7 → A 7 + 3H 2</t>
+  </si>
+  <si>
+    <t>N 6 + H 2 → P 6</t>
+  </si>
+  <si>
+    <t>N 6 → A 6 + 3H 2</t>
+  </si>
+  <si>
+    <t>N 6 → MCP</t>
+  </si>
+  <si>
+    <t>MCP + H 2 → P6</t>
+  </si>
+  <si>
+    <t>MCP → N 6</t>
+  </si>
+  <si>
+    <t>A 11 + 4H 2 → P 11</t>
+  </si>
+  <si>
+    <t>A 11 + H 2 → A 10 + P 1</t>
+  </si>
+  <si>
+    <t>A 11 + H 2 → A 9 + P 2</t>
+  </si>
+  <si>
+    <t>A 10 + 4H 2 → P 10</t>
+  </si>
+  <si>
+    <t>A 10 + H 2 → A 9 + P 1</t>
+  </si>
+  <si>
+    <t>A 10 + H 2 → A 8 + P 2</t>
+  </si>
+  <si>
+    <t>A 10 + H 2 → A 7 + P 3</t>
+  </si>
+  <si>
+    <t>A 9 + 4H 2 → P 9</t>
+  </si>
+  <si>
+    <t>A 9 + H 2 → A 8 + P1</t>
+  </si>
+  <si>
+    <t>A 9 + H 2 → A 7 + P2</t>
+  </si>
+  <si>
+    <t>A 8 + 4H 2 → P 8</t>
+  </si>
+  <si>
+    <t>A 8 + H 2 → A 7 + P1</t>
+  </si>
+  <si>
+    <t>A 7 + 4H 2 → P 7</t>
+  </si>
+  <si>
+    <t>A 6 + 3H 2 → N 6</t>
+  </si>
+  <si>
+    <t>Ea, кДж / моль</t>
+  </si>
+  <si>
+    <r>
+      <t>k, ч</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (T = 763.15 K)</t>
+    </r>
+  </si>
+  <si>
+    <t>k0</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>188.4059973396,</t>
+  </si>
+  <si>
+    <t>230.2739967484,</t>
+  </si>
+  <si>
+    <t>125.6039982264,</t>
+  </si>
+  <si>
+    <t>167.4719976352,</t>
+  </si>
+  <si>
+    <t>125.6039982264</t>
+  </si>
+  <si>
+    <t>280266498527.927,</t>
+  </si>
+  <si>
+    <t>43349806375705.9,</t>
+  </si>
+  <si>
+    <t>57799741834274.5,</t>
+  </si>
+  <si>
+    <t>191305503208.669,</t>
+  </si>
+  <si>
+    <t>31211860590508.2,</t>
+  </si>
+  <si>
+    <t>92479586934839.2,</t>
+  </si>
+  <si>
+    <t>54909754742560.8,</t>
+  </si>
+  <si>
+    <t>393632722651.583,</t>
+  </si>
+  <si>
+    <t>17339922550282.4,</t>
+  </si>
+  <si>
+    <t>22541899315367.1,</t>
+  </si>
+  <si>
+    <t>39303824447306.7,</t>
+  </si>
+  <si>
+    <t>33523850263879.2,</t>
+  </si>
+  <si>
+    <t>209412608450.642,</t>
+  </si>
+  <si>
+    <t>10981950948512.2,</t>
+  </si>
+  <si>
+    <t>32367855427193.7,</t>
+  </si>
+  <si>
+    <t>19651912223653.3,</t>
+  </si>
+  <si>
+    <t>40459819283992.2,</t>
+  </si>
+  <si>
+    <t>59832173843.0406,</t>
+  </si>
+  <si>
+    <t>15605930295254.1,</t>
+  </si>
+  <si>
+    <t>10403953530169.4,</t>
+  </si>
+  <si>
+    <t>24853888988738,</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>33065148702.733,</t>
+  </si>
+  <si>
+    <t>9247958693483.92,</t>
+  </si>
+  <si>
+    <t>14449935458568.6,</t>
+  </si>
+  <si>
+    <t>12715943203540.4,</t>
+  </si>
+  <si>
+    <t>39363272265.1583,</t>
+  </si>
+  <si>
+    <t>266652176.674614,</t>
+  </si>
+  <si>
+    <t>77451654057927.9,</t>
+  </si>
+  <si>
+    <t>46239793467419.6,</t>
+  </si>
+  <si>
+    <t>42512334046.3709,</t>
+  </si>
+  <si>
+    <t>126558869.249839,</t>
+  </si>
+  <si>
+    <t>87261509.2857709,</t>
+  </si>
+  <si>
+    <t>73405672129528.6,</t>
+  </si>
+  <si>
+    <t>19681636132.5791,</t>
+  </si>
+  <si>
+    <t>85084918.3512052,</t>
+  </si>
+  <si>
+    <t>4045981928399.22,</t>
+  </si>
+  <si>
+    <t>14958043460.7601,</t>
+  </si>
+  <si>
+    <t>31184611.9352324,</t>
+  </si>
+  <si>
+    <t>160602150841.846,</t>
+  </si>
+  <si>
+    <t>54137752.6997436,</t>
+  </si>
+  <si>
+    <t>31490617812.1266,</t>
+  </si>
+  <si>
+    <t>6298123562.42533,</t>
+  </si>
+  <si>
+    <t>187369175982.153,</t>
+  </si>
+  <si>
+    <t>12596247124.8507,</t>
+  </si>
+  <si>
+    <t>174329179.355451,</t>
+  </si>
+  <si>
+    <t>145274316.129542,</t>
+  </si>
+  <si>
+    <t>8659919898.33482,</t>
+  </si>
+  <si>
+    <t>29054863.2259084,</t>
+  </si>
+  <si>
+    <t>593615.709427013</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>°, J / mol</t>
+    </r>
+  </si>
+  <si>
+    <t>156.313,</t>
+  </si>
+  <si>
+    <t>142.286,</t>
+  </si>
+  <si>
+    <t>128.259,</t>
+  </si>
+  <si>
+    <t>114.232,</t>
+  </si>
+  <si>
+    <t>100.205,</t>
+  </si>
+  <si>
+    <t>86.178,</t>
+  </si>
+  <si>
+    <t>72.151,</t>
+  </si>
+  <si>
+    <t>58.124,</t>
+  </si>
+  <si>
+    <t>44.094,</t>
+  </si>
+  <si>
+    <t>30.07,</t>
+  </si>
+  <si>
+    <t>16.043,</t>
+  </si>
+  <si>
+    <t>154.297,</t>
+  </si>
+  <si>
+    <t>140.26,</t>
+  </si>
+  <si>
+    <t>126.243,</t>
+  </si>
+  <si>
+    <t>112.216,</t>
+  </si>
+  <si>
+    <t>98.189,</t>
+  </si>
+  <si>
+    <t>84.162,</t>
+  </si>
+  <si>
+    <t>148.25,</t>
+  </si>
+  <si>
+    <t>134.222,</t>
+  </si>
+  <si>
+    <t>120.195,</t>
+  </si>
+  <si>
+    <t>106.168,</t>
+  </si>
+  <si>
+    <t>92.141,</t>
+  </si>
+  <si>
+    <t>78.114,</t>
+  </si>
+  <si>
+    <t>2.016</t>
+  </si>
+  <si>
+    <t>0.7439,</t>
+  </si>
+  <si>
+    <t>0.7342,</t>
+  </si>
+  <si>
+    <t>0.7217,</t>
+  </si>
+  <si>
+    <t>0.7068,</t>
+  </si>
+  <si>
+    <t>0.6882,</t>
+  </si>
+  <si>
+    <t>0.664,</t>
+  </si>
+  <si>
+    <t>0.631,</t>
+  </si>
+  <si>
+    <t>0.5844,</t>
+  </si>
+  <si>
+    <t>0.5077,</t>
+  </si>
+  <si>
+    <t>0.3564,</t>
+  </si>
+  <si>
+    <t>0.3,</t>
+  </si>
+  <si>
+    <t>0.8006,</t>
+  </si>
+  <si>
+    <t>0.8031,</t>
+  </si>
+  <si>
+    <t>0.7977,</t>
+  </si>
+  <si>
+    <t>0.7922,</t>
+  </si>
+  <si>
+    <t>0.774,</t>
+  </si>
+  <si>
+    <t>0.7834,</t>
+  </si>
+  <si>
+    <t>0.7536,</t>
+  </si>
+  <si>
+    <t>0.8624,</t>
+  </si>
+  <si>
+    <t>0.8646,</t>
+  </si>
+  <si>
+    <t>0.8665,</t>
+  </si>
+  <si>
+    <t>0.8718,</t>
+  </si>
+  <si>
+    <t>0.8844,</t>
+  </si>
+  <si>
+    <t>0.00009</t>
+  </si>
+  <si>
+    <t>∆H кДж / моль</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>°, kJ / mol</t>
+    </r>
+  </si>
+  <si>
+    <t>MCP</t>
+  </si>
+  <si>
+    <t>60.9,</t>
+  </si>
+  <si>
+    <t>-54.2,</t>
+  </si>
+  <si>
+    <t>-43.44,</t>
+  </si>
+  <si>
+    <t>-42,</t>
+  </si>
+  <si>
+    <t>-43.6,</t>
+  </si>
+  <si>
+    <t>-43.3,</t>
+  </si>
+  <si>
+    <t>36.5,</t>
+  </si>
+  <si>
+    <t>-54.3,</t>
+  </si>
+  <si>
+    <t>-43.54,</t>
+  </si>
+  <si>
+    <t>-43.7,</t>
+  </si>
+  <si>
+    <t>-43.2,</t>
+  </si>
+  <si>
+    <t>35.8,</t>
+  </si>
+  <si>
+    <t>-42.0000000000001,</t>
+  </si>
+  <si>
+    <t>-43.5,</t>
+  </si>
+  <si>
+    <t>36.7,</t>
+  </si>
+  <si>
+    <t>-41.8,</t>
+  </si>
+  <si>
+    <t>-43.8,</t>
+  </si>
+  <si>
+    <t>33,</t>
+  </si>
+  <si>
+    <t>-43.34,</t>
+  </si>
+  <si>
+    <t>-42.2,</t>
+  </si>
+  <si>
+    <t>44.1,</t>
+  </si>
+  <si>
+    <t>60.5,</t>
+  </si>
+  <si>
+    <t>-54.1,</t>
+  </si>
+  <si>
+    <t>-43.64,</t>
+  </si>
+  <si>
+    <t>-40.5,</t>
+  </si>
+  <si>
+    <t>-54.6,</t>
+  </si>
+  <si>
+    <t>-42.14,</t>
+  </si>
+  <si>
+    <t>-60.9,</t>
+  </si>
+  <si>
+    <t>175.8,</t>
+  </si>
+  <si>
+    <t>-78.6000000000001,</t>
+  </si>
+  <si>
+    <t>-68.54,</t>
+  </si>
+  <si>
+    <t>-66.2,</t>
+  </si>
+  <si>
+    <t>-36.5,</t>
+  </si>
+  <si>
+    <t>199.48,</t>
+  </si>
+  <si>
+    <t>-55,</t>
+  </si>
+  <si>
+    <t>-45.5,</t>
+  </si>
+  <si>
+    <t>-35.8,</t>
+  </si>
+  <si>
+    <t>201.23,</t>
+  </si>
+  <si>
+    <t>-53.4,</t>
+  </si>
+  <si>
+    <t>-46.24,</t>
+  </si>
+  <si>
+    <t>-36.7,</t>
+  </si>
+  <si>
+    <t>201.71,</t>
+  </si>
+  <si>
+    <t>-57.9,</t>
+  </si>
+  <si>
+    <t>-33,</t>
+  </si>
+  <si>
+    <t>204.93,</t>
+  </si>
+  <si>
+    <t>-44.1,</t>
+  </si>
+  <si>
+    <t>206.18,</t>
+  </si>
+  <si>
+    <t>16.4,</t>
+  </si>
+  <si>
+    <t>-60.5,</t>
+  </si>
+  <si>
+    <t>-16.4,</t>
+  </si>
+  <si>
+    <t>-236.7,</t>
+  </si>
+  <si>
+    <t>-54.92,</t>
+  </si>
+  <si>
+    <t>-43.11,</t>
+  </si>
+  <si>
+    <t>-235.98,</t>
+  </si>
+  <si>
+    <t>-53.25,</t>
+  </si>
+  <si>
+    <t>-41.11,</t>
+  </si>
+  <si>
+    <t>-40.05,</t>
+  </si>
+  <si>
+    <t>-237.03,</t>
+  </si>
+  <si>
+    <t>-52.92,</t>
+  </si>
+  <si>
+    <t>-42.54,</t>
+  </si>
+  <si>
+    <t>-238.41,</t>
+  </si>
+  <si>
+    <t>-54.68,</t>
+  </si>
+  <si>
+    <t>-237.93,</t>
+  </si>
+  <si>
+    <t>-206.18</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>0.77,</t>
+  </si>
+  <si>
+    <t>6.82,</t>
+  </si>
+  <si>
+    <t>8.57,</t>
+  </si>
+  <si>
+    <t>12.02,</t>
+  </si>
+  <si>
+    <t>12.41,</t>
+  </si>
+  <si>
+    <t>14.41,</t>
+  </si>
+  <si>
+    <t>9.26,</t>
+  </si>
+  <si>
+    <t>0.87,</t>
+  </si>
+  <si>
+    <t>3.56,</t>
+  </si>
+  <si>
+    <t>4.04,</t>
+  </si>
+  <si>
+    <t>5.95,</t>
+  </si>
+  <si>
+    <t>4.23,</t>
+  </si>
+  <si>
+    <t>0.64,</t>
+  </si>
+  <si>
+    <t>0.96,</t>
+  </si>
+  <si>
+    <t>1.34,</t>
+  </si>
+  <si>
+    <t>4.24,</t>
+  </si>
+  <si>
+    <t>5.77,</t>
+  </si>
+  <si>
+    <t>3.02,</t>
+  </si>
+  <si>
+    <t>1.12,</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,8 +1201,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -525,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R71"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,4 +5493,6181 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABE8CED-A87B-476C-B5D5-3A682AA434A7}">
+  <dimension ref="A1:BU146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:BU78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>3.56E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2/EXP(-D2*1000/(8.314*763.15))</f>
+        <v>280266498527.927</v>
+      </c>
+      <c r="F2" s="2">
+        <f>I14-I3</f>
+        <v>60.900000000000006</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(F2:G2)</f>
+        <v>60.9,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E66" si="0">C3/EXP(-D3*1000/(8.314*763.15))</f>
+        <v>43349806375705.891</v>
+      </c>
+      <c r="F3" s="2">
+        <f>I4+I13-I3</f>
+        <v>-54.200000000000045</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-270.5</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="1">_xlfn.CONCAT(F3:G3)</f>
+        <v>-54.2,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>57799741834274.523</v>
+      </c>
+      <c r="F4" s="2">
+        <f>I5+I12-I3</f>
+        <v>-43.44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-249.8</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.44,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>78029651476270.594</v>
+      </c>
+      <c r="F5" s="2">
+        <f>I6+I11-I3</f>
+        <v>-42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-229.2</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>-42,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>78029651476270.594</v>
+      </c>
+      <c r="F6" s="2">
+        <f>I7+I10-I3</f>
+        <v>-43.600000000000023</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-208.6</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.6,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>110397506903464.33</v>
+      </c>
+      <c r="F7" s="2">
+        <f>I8+I9-I3</f>
+        <v>-43.300000000000011</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-187.9</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.3,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>191305503208.66925</v>
+      </c>
+      <c r="F8" s="2">
+        <f>I15-I4</f>
+        <v>36.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-167.3</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>36.5,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>8669961275141.1777</v>
+      </c>
+      <c r="F9" s="2">
+        <f>I5+I13-I4</f>
+        <v>-54.300000000000011</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-146.5</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>-54.3,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>31211860590508.242</v>
+      </c>
+      <c r="F10" s="2">
+        <f>I6+I12-I4</f>
+        <v>-43.539999999999964</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-126.2</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.54,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>92479586934839.234</v>
+      </c>
+      <c r="F11" s="2">
+        <f>I7+I11-I4</f>
+        <v>-42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-103.9</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>-42,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>54909754742560.789</v>
+      </c>
+      <c r="F12" s="2">
+        <f>I8+I10-I4</f>
+        <v>-43.699999999999989</v>
+      </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-84.74</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.7,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>54909754742560.789</v>
+      </c>
+      <c r="F13">
+        <f>2*I9-I4</f>
+        <v>-43.199999999999989</v>
+      </c>
+      <c r="G13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-74.900000000000006</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.2,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>393632722651.58289</v>
+      </c>
+      <c r="F14" s="2">
+        <f>I16-I5</f>
+        <v>35.799999999999983</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-209.6</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>35.8,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>17339922550282.355</v>
+      </c>
+      <c r="F15" s="2">
+        <f>I6+I13-I5</f>
+        <v>-54.300000000000011</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-213.3</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>-54.3,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>22541899315367.063</v>
+      </c>
+      <c r="F16" s="2">
+        <f>I7+I12-I5</f>
+        <v>-43.44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-193.4</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.44,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>39303824447306.672</v>
+      </c>
+      <c r="F17" s="2">
+        <f>I8+I11-I5</f>
+        <v>-42.000000000000057</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-171.9</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>-42.0000000000001,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>33523850263879.219</v>
+      </c>
+      <c r="F18" s="2">
+        <f>I9+I10-I5</f>
+        <v>-43.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-154.9</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.5,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>209412608450.64206</v>
+      </c>
+      <c r="F19" s="2">
+        <f>I17-I6</f>
+        <v>36.699999999999989</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-123.2</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>36.7,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>10981950948512.158</v>
+      </c>
+      <c r="F20" s="2">
+        <f>I7+I13-I6</f>
+        <v>-54.200000000000017</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" t="s">
+        <v>255</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-106.8</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>-54.2,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>32367855427193.73</v>
+      </c>
+      <c r="F21" s="2">
+        <f>I8+I12-I6</f>
+        <v>-43.440000000000026</v>
+      </c>
+      <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.44,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>19651912223653.336</v>
+      </c>
+      <c r="F22" s="2">
+        <f>I9+I11-I6</f>
+        <v>-41.800000000000011</v>
+      </c>
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-13.82</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>-41.8,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>40459819283992.164</v>
+      </c>
+      <c r="F23">
+        <f>2*I10-I6</f>
+        <v>-43.800000000000011</v>
+      </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.8,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>59832173843.040596</v>
+      </c>
+      <c r="F24" s="2">
+        <f>I18-I7</f>
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="2">
+        <v>29.81</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>33,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>15605930295254.121</v>
+      </c>
+      <c r="F25" s="2">
+        <f>I8+I13-I7</f>
+        <v>-54.300000000000011</v>
+      </c>
+      <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="2">
+        <v>50.03</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>-54.3,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>10403953530169.414</v>
+      </c>
+      <c r="F26" s="2">
+        <f>I9+I12-I7</f>
+        <v>-43.34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="2">
+        <v>82.98</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.34,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>24853888988738.043</v>
+      </c>
+      <c r="F27" s="2">
+        <f>I10+I11-I7</f>
+        <v>-42.200000000000017</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>-42.2,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f>I19-I8</f>
+        <v>44.100000000000009</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>44.1,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>33065148702.73296</v>
+      </c>
+      <c r="F29" s="2">
+        <f>I20-I8</f>
+        <v>60.500000000000014</v>
+      </c>
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v>60.5,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>10403953530169.414</v>
+      </c>
+      <c r="F30" s="2">
+        <f>I9+I13-I8</f>
+        <v>-54.099999999999994</v>
+      </c>
+      <c r="G30" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v>-54.1,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>9247958693483.9238</v>
+      </c>
+      <c r="F31" s="2">
+        <f>I10+I12-I8</f>
+        <v>-43.639999999999986</v>
+      </c>
+      <c r="G31" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.64,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>14449935458568.631</v>
+      </c>
+      <c r="F32">
+        <f>2*I11-I8</f>
+        <v>-40.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>-40.5,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>10403953530169.414</v>
+      </c>
+      <c r="F33" s="2">
+        <f>I10+I13-I9</f>
+        <v>-54.600000000000023</v>
+      </c>
+      <c r="G33" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>-54.6,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>12715943203540.395</v>
+      </c>
+      <c r="F34" s="2">
+        <f>I11+I12-I9</f>
+        <v>-42.139999999999986</v>
+      </c>
+      <c r="G34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v>-42.14,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>39363272265.158287</v>
+      </c>
+      <c r="F35" s="2">
+        <f>I3-I14</f>
+        <v>-60.900000000000006</v>
+      </c>
+      <c r="G35" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>-60.9,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36">
+        <v>0.67379999999999995</v>
+      </c>
+      <c r="D36" s="2">
+        <v>125.60399822640001</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>266652176.67461428</v>
+      </c>
+      <c r="F36" s="2">
+        <f>I21-I14</f>
+        <v>175.8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>175.8,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37">
+        <v>1.34E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>77451654057927.859</v>
+      </c>
+      <c r="F37" s="2">
+        <f>I15+I13-I14</f>
+        <v>-78.600000000000051</v>
+      </c>
+      <c r="G37" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>-78.6000000000001,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>1.34E-2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>77451654057927.859</v>
+      </c>
+      <c r="F38" s="2">
+        <f>I16+I12-I14</f>
+        <v>-68.539999999999992</v>
+      </c>
+      <c r="G38" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v>-68.54,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>46239793467419.617</v>
+      </c>
+      <c r="F39" s="2">
+        <f>I17+I11-I14</f>
+        <v>-66.200000000000017</v>
+      </c>
+      <c r="G39" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>-66.2,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>42512334046.370949</v>
+      </c>
+      <c r="F40" s="2">
+        <f>I4-I15</f>
+        <v>-36.5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>-36.5,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="D41" s="2">
+        <v>125.60399822640001</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>126558869.24983919</v>
+      </c>
+      <c r="F41" s="2">
+        <f>I22-I15</f>
+        <v>199.48000000000002</v>
+      </c>
+      <c r="G41" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>199.48,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42">
+        <v>1.34E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>77451654057927.859</v>
+      </c>
+      <c r="F42" s="2">
+        <f>I16+I13-I15</f>
+        <v>-55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>-55,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43">
+        <v>1.34E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>77451654057927.859</v>
+      </c>
+      <c r="F43" s="2">
+        <f>I17+I12-I15</f>
+        <v>-43.339999999999975</v>
+      </c>
+      <c r="G43" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.34,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>46239793467419.617</v>
+      </c>
+      <c r="F44" s="2">
+        <f>I18+I11-I15</f>
+        <v>-45.5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>138</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>-45.5,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="0"/>
+        <v>42512334046.370949</v>
+      </c>
+      <c r="F45" s="2">
+        <f>I5-I16</f>
+        <v>-35.799999999999983</v>
+      </c>
+      <c r="G45" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="1"/>
+        <v>-35.8,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46">
+        <v>0.2205</v>
+      </c>
+      <c r="D46" s="2">
+        <v>125.60399822640001</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>87261509.285770938</v>
+      </c>
+      <c r="F46" s="2">
+        <f>I23-I16</f>
+        <v>201.23000000000002</v>
+      </c>
+      <c r="G46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>201.23,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="0"/>
+        <v>73405672129528.641</v>
+      </c>
+      <c r="F47" s="2">
+        <f>I17+I13-I16</f>
+        <v>-53.400000000000006</v>
+      </c>
+      <c r="G47" t="s">
+        <v>138</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>-53.4,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="0"/>
+        <v>73405672129528.641</v>
+      </c>
+      <c r="F48" s="2">
+        <f>I18+I12-I16</f>
+        <v>-46.239999999999981</v>
+      </c>
+      <c r="G48" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>-46.24,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="0"/>
+        <v>19681636132.579144</v>
+      </c>
+      <c r="F49" s="2">
+        <f>I6-I17</f>
+        <v>-36.699999999999989</v>
+      </c>
+      <c r="G49" t="s">
+        <v>138</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>-36.7,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50">
+        <v>0.215</v>
+      </c>
+      <c r="D50" s="2">
+        <v>125.60399822640001</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="0"/>
+        <v>85084918.351205215</v>
+      </c>
+      <c r="F50" s="2">
+        <f>I24-I17</f>
+        <v>201.71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>138</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>201.71,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>230.27399674840001</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="0"/>
+        <v>4045981928399.2163</v>
+      </c>
+      <c r="F51" s="2">
+        <f>I18+I13-I17</f>
+        <v>-57.900000000000006</v>
+      </c>
+      <c r="G51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>-57.9,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="0"/>
+        <v>14958043460.760149</v>
+      </c>
+      <c r="F52" s="2">
+        <f>I7-I18</f>
+        <v>-33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>138</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="1"/>
+        <v>-33,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>125.60399822640001</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="0"/>
+        <v>31184611.93523242</v>
+      </c>
+      <c r="F53" s="2">
+        <f>I25-I18</f>
+        <v>204.93</v>
+      </c>
+      <c r="G53" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v>204.93,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="0"/>
+        <v>160602150841.84583</v>
+      </c>
+      <c r="F54" s="2">
+        <f>I8-I19</f>
+        <v>-44.100000000000009</v>
+      </c>
+      <c r="G54" t="s">
+        <v>138</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="1"/>
+        <v>-44.1,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55">
+        <v>0.1368</v>
+      </c>
+      <c r="D55" s="2">
+        <v>125.60399822640001</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="0"/>
+        <v>54137752.699743599</v>
+      </c>
+      <c r="F55" s="2">
+        <f>I26-I19</f>
+        <v>206.18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>138</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>206.18,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="0"/>
+        <v>31490617812.126629</v>
+      </c>
+      <c r="F56" s="2">
+        <f>I20-I19</f>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="G56" t="s">
+        <v>138</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>16.4,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="0"/>
+        <v>6298123562.4253263</v>
+      </c>
+      <c r="F57" s="2">
+        <f>I8-I20</f>
+        <v>-60.500000000000014</v>
+      </c>
+      <c r="G57" t="s">
+        <v>138</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>-60.5,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="0"/>
+        <v>187369175982.15344</v>
+      </c>
+      <c r="F58" s="2">
+        <f>I19-I20</f>
+        <v>-16.400000000000006</v>
+      </c>
+      <c r="G58" t="s">
+        <v>138</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>-16.4,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D59" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="0"/>
+        <v>12596247124.850653</v>
+      </c>
+      <c r="F59" s="2">
+        <f>I3-I21</f>
+        <v>-236.7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>138</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="1"/>
+        <v>-236.7,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>167.47199763520001</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="0"/>
+        <v>174329179.35545066</v>
+      </c>
+      <c r="F60" s="2">
+        <f>I22+I13-I21</f>
+        <v>-54.92</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>-54.92,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>167.47199763520001</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="0"/>
+        <v>174329179.35545066</v>
+      </c>
+      <c r="F61" s="2">
+        <f>I23+I12-I21</f>
+        <v>-43.11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>138</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
+        <v>-43.11,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="0"/>
+        <v>12596247124.850653</v>
+      </c>
+      <c r="F62" s="2">
+        <f>I4-I22</f>
+        <v>-235.98000000000002</v>
+      </c>
+      <c r="G62" t="s">
+        <v>138</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="1"/>
+        <v>-235.98,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>167.47199763520001</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="0"/>
+        <v>174329179.35545066</v>
+      </c>
+      <c r="F63" s="2">
+        <f>I23+I13-I22</f>
+        <v>-53.250000000000007</v>
+      </c>
+      <c r="G63" t="s">
+        <v>138</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="1"/>
+        <v>-53.25,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>167.47199763520001</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="0"/>
+        <v>174329179.35545066</v>
+      </c>
+      <c r="F64" s="2">
+        <f>I24+I12-I22</f>
+        <v>-41.109999999999992</v>
+      </c>
+      <c r="G64" t="s">
+        <v>138</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="1"/>
+        <v>-41.11,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>167.47199763520001</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <f>I25+I11-I22</f>
+        <v>-40.050000000000004</v>
+      </c>
+      <c r="G65" t="s">
+        <v>138</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="1"/>
+        <v>-40.05,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D66" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="0"/>
+        <v>12596247124.850653</v>
+      </c>
+      <c r="F66" s="2">
+        <f>I5-I23</f>
+        <v>-237.03</v>
+      </c>
+      <c r="G66" t="s">
+        <v>138</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="1"/>
+        <v>-237.03,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D67" s="2">
+        <v>167.47199763520001</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ref="E67:E72" si="2">C67/EXP(-D67*1000/(8.314*763.15))</f>
+        <v>145274316.12954223</v>
+      </c>
+      <c r="F67" s="2">
+        <f>I24+I13-I23</f>
+        <v>-52.92</v>
+      </c>
+      <c r="G67" t="s">
+        <v>138</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J72" si="3">_xlfn.CONCAT(F67:G67)</f>
+        <v>-52.92,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D68" s="2">
+        <v>167.47199763520001</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="2"/>
+        <v>145274316.12954223</v>
+      </c>
+      <c r="F68" s="2">
+        <f>I25+I12-I23</f>
+        <v>-42.539999999999992</v>
+      </c>
+      <c r="G68" t="s">
+        <v>138</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="3"/>
+        <v>-42.54,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D69" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="2"/>
+        <v>8659919898.3348236</v>
+      </c>
+      <c r="F69" s="2">
+        <f>I6-I24</f>
+        <v>-238.41</v>
+      </c>
+      <c r="G69" t="s">
+        <v>138</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="3"/>
+        <v>-238.41,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70">
+        <v>1E-4</v>
+      </c>
+      <c r="D70" s="2">
+        <v>167.47199763520001</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="2"/>
+        <v>29054863.225908447</v>
+      </c>
+      <c r="F70" s="2">
+        <f>I25+I13-I24</f>
+        <v>-54.680000000000007</v>
+      </c>
+      <c r="G70" t="s">
+        <v>138</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="3"/>
+        <v>-54.68,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D71" s="2">
+        <v>188.40599733960002</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="2"/>
+        <v>12596247124.850653</v>
+      </c>
+      <c r="F71" s="2">
+        <f>I7-I25</f>
+        <v>-237.93</v>
+      </c>
+      <c r="G71" t="s">
+        <v>138</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="3"/>
+        <v>-237.93,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D72" s="2">
+        <v>125.60399822640001</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="2"/>
+        <v>593615.70942701318</v>
+      </c>
+      <c r="F72" s="2">
+        <f>I19-I26</f>
+        <v>-206.18</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="3"/>
+        <v>-206.18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="I76" t="s">
+        <v>139</v>
+      </c>
+      <c r="K76" t="s">
+        <v>140</v>
+      </c>
+      <c r="L76" t="s">
+        <v>140</v>
+      </c>
+      <c r="M76" t="s">
+        <v>140</v>
+      </c>
+      <c r="N76" t="s">
+        <v>140</v>
+      </c>
+      <c r="O76" t="s">
+        <v>139</v>
+      </c>
+      <c r="P76" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>140</v>
+      </c>
+      <c r="R76" t="s">
+        <v>140</v>
+      </c>
+      <c r="S76" t="s">
+        <v>140</v>
+      </c>
+      <c r="T76" t="s">
+        <v>139</v>
+      </c>
+      <c r="U76" t="s">
+        <v>140</v>
+      </c>
+      <c r="V76" t="s">
+        <v>140</v>
+      </c>
+      <c r="W76" t="s">
+        <v>140</v>
+      </c>
+      <c r="X76" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI76" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ76" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL76" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM76" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN76" t="s">
+        <v>142</v>
+      </c>
+      <c r="BO76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP76" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ76" t="s">
+        <v>142</v>
+      </c>
+      <c r="BR76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS76" t="s">
+        <v>142</v>
+      </c>
+      <c r="BT76" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" t="s">
+        <v>147</v>
+      </c>
+      <c r="K77" t="s">
+        <v>148</v>
+      </c>
+      <c r="L77" t="s">
+        <v>149</v>
+      </c>
+      <c r="M77" t="s">
+        <v>150</v>
+      </c>
+      <c r="N77" t="s">
+        <v>150</v>
+      </c>
+      <c r="O77" t="s">
+        <v>151</v>
+      </c>
+      <c r="P77" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>153</v>
+      </c>
+      <c r="R77" t="s">
+        <v>154</v>
+      </c>
+      <c r="S77" t="s">
+        <v>155</v>
+      </c>
+      <c r="T77" t="s">
+        <v>156</v>
+      </c>
+      <c r="U77" t="s">
+        <v>157</v>
+      </c>
+      <c r="V77" t="s">
+        <v>158</v>
+      </c>
+      <c r="W77" t="s">
+        <v>159</v>
+      </c>
+      <c r="X77" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA77" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB77" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC77" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD77" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE77" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF77" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG77" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH77" t="s">
+        <v>188</v>
+      </c>
+      <c r="BI77" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ77" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK77" t="s">
+        <v>188</v>
+      </c>
+      <c r="BL77" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM77" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN77" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO77" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP77" t="s">
+        <v>190</v>
+      </c>
+      <c r="BQ77" t="s">
+        <v>190</v>
+      </c>
+      <c r="BR77" t="s">
+        <v>191</v>
+      </c>
+      <c r="BS77" t="s">
+        <v>192</v>
+      </c>
+      <c r="BT77" t="s">
+        <v>188</v>
+      </c>
+      <c r="BU77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>258</v>
+      </c>
+      <c r="C78" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" t="s">
+        <v>257</v>
+      </c>
+      <c r="E78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" t="s">
+        <v>259</v>
+      </c>
+      <c r="G78" t="s">
+        <v>260</v>
+      </c>
+      <c r="H78" t="s">
+        <v>261</v>
+      </c>
+      <c r="I78" t="s">
+        <v>262</v>
+      </c>
+      <c r="J78" t="s">
+        <v>263</v>
+      </c>
+      <c r="K78" t="s">
+        <v>264</v>
+      </c>
+      <c r="L78" t="s">
+        <v>259</v>
+      </c>
+      <c r="M78" t="s">
+        <v>265</v>
+      </c>
+      <c r="N78" t="s">
+        <v>266</v>
+      </c>
+      <c r="O78" t="s">
+        <v>267</v>
+      </c>
+      <c r="P78" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>258</v>
+      </c>
+      <c r="R78" t="s">
+        <v>268</v>
+      </c>
+      <c r="S78" t="s">
+        <v>269</v>
+      </c>
+      <c r="T78" t="s">
+        <v>270</v>
+      </c>
+      <c r="U78" t="s">
+        <v>257</v>
+      </c>
+      <c r="V78" t="s">
+        <v>258</v>
+      </c>
+      <c r="W78" t="s">
+        <v>271</v>
+      </c>
+      <c r="X78" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>293</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>296</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>297</v>
+      </c>
+      <c r="AZ78" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA78" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC78" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>302</v>
+      </c>
+      <c r="BE78" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF78" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG78" t="s">
+        <v>305</v>
+      </c>
+      <c r="BH78" t="s">
+        <v>306</v>
+      </c>
+      <c r="BI78" t="s">
+        <v>307</v>
+      </c>
+      <c r="BJ78" t="s">
+        <v>308</v>
+      </c>
+      <c r="BK78" t="s">
+        <v>309</v>
+      </c>
+      <c r="BL78" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM78" t="s">
+        <v>311</v>
+      </c>
+      <c r="BN78" t="s">
+        <v>312</v>
+      </c>
+      <c r="BO78" t="s">
+        <v>313</v>
+      </c>
+      <c r="BP78" t="s">
+        <v>314</v>
+      </c>
+      <c r="BQ78" t="s">
+        <v>315</v>
+      </c>
+      <c r="BR78" t="s">
+        <v>316</v>
+      </c>
+      <c r="BS78" t="s">
+        <v>317</v>
+      </c>
+      <c r="BT78" t="s">
+        <v>318</v>
+      </c>
+      <c r="BU78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3351FFCC-F9DB-48D4-B030-1CA8F6FD42C3}">
+  <dimension ref="A1:AA54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>156.31299999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="D2">
+        <v>-14.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-8.3949999999999996</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.054</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-5.7989999999999995E-4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.237E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-270500</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="str">
+        <f>_xlfn.CONCAT(B2,J2)</f>
+        <v>156.313,</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT(C2,J2)</f>
+        <v>0.7439,</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT(D2,J2)</f>
+        <v>-14.1,</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="str">
+        <f>_xlfn.CONCAT(N2,E2,J2,F2,J2,G2,J2,H2,O2,J2)</f>
+        <v>(-8.395,1.054,-0.0005799,0.0001237),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>142.286</v>
+      </c>
+      <c r="C3">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="D3">
+        <v>-16.010000000000002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-7.9130000000000003</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-5.2879999999999995E-4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.131E-7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-249800</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:L26" si="0">_xlfn.CONCAT(B3,J3)</f>
+        <v>142.286,</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:M26" si="1">_xlfn.CONCAT(C3,J3)</f>
+        <v>0.7342,</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M26" si="2">_xlfn.CONCAT(D3,J3)</f>
+        <v>-16.01,</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P26" si="3">_xlfn.CONCAT(N3,E3,J3,F3,J3,G3,J3,H3,O3,J3)</f>
+        <v>(-7.913,0.9609,-0.0005288,0.0000001131),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>128.25899999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.72170000000000001</v>
+      </c>
+      <c r="D4">
+        <v>-17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-8.3740000000000006</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-4.8260000000000002E-4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.031E-7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-229200</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>128.259,</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.7217,</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>-17,</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="3"/>
+        <v>(-8.374,0.8729,-0.0004826,0.0000001031),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>114.232</v>
+      </c>
+      <c r="C5">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="D5">
+        <v>-19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-6.0960000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.7712</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-4.1950000000000001E-4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8.8549999999999996E-8</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-208600</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>114.232,</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>0.7068,</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>-19,</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="3"/>
+        <v>(-6.096,0.7712,-0.0004195,0.00000008855),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>100.205</v>
+      </c>
+      <c r="C6">
+        <v>0.68820000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-5.1459999999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-3.6509999999999998E-4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>7.6580000000000001E-8</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-187900</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>100.205,</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>0.6882,</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="3"/>
+        <v>(-5.146,0.6762,-0.0003651,0.00000007658),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>86.177999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D7">
+        <v>24.8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-4.4130000000000003</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-3.1189999999999999E-4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.4939999999999998E-8</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-167300</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>86.178,</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>0.664,</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>24.8,</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="3"/>
+        <v>(-4.413,0.582,-0.0003119,0.00000006494),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>72.150999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D8">
+        <v>61.7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-3.6259999999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-2.5799999999999998E-4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.3050000000000002E-8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-146500</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>72.151,</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>0.631,</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>61.7,</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="3"/>
+        <v>(-3.626,0.4873,-0.000258,0.00000005305),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>58.124000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="D9">
+        <v>93.8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9.4870000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1.108E-4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-2.822E-9</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-126200</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>58.124,</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5844,</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>93.8,</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="3"/>
+        <v>(9.487,0.3313,-0.0001108,-0.000000002822),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>44.094000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.50770000000000004</v>
+      </c>
+      <c r="D10">
+        <v>98.9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-4.2240000000000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.30630000000000002</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1.5860000000000001E-4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.215E-8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-103900</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>44.094,</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5077,</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>98.9,</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="3"/>
+        <v>(-4.224,0.3063,-0.0001586,0.00000003215),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>30.07</v>
+      </c>
+      <c r="C11">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5.4089999999999998</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-6.9380000000000003E-5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8.713E-9</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-84740</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>30.07,</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.3564,</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>(5.409,0.1781,-0.00006938,0.000000008713),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>16.042999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>19.25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.2130000000000003E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.1970000000000001E-5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-1.132E-8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-74900</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>16.043,</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>0.3,</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>(19.25,0.05213,0.00001197,-0.00000001132),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>154.297</v>
+      </c>
+      <c r="C13">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="D13">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-58.32</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-6.5359999999999995E-4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.473E-7</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-209600</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>154.297,</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>0.8006,</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>70,</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>(-58.32,1.128,-0.0006536,0.0000001473),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>140.26</v>
+      </c>
+      <c r="C14">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="D14">
+        <v>70.31</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-62.96</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.081</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-6.3049999999999998E-4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.4000000000000001E-7</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-213300</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>140.26,</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>0.8031,</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>70.31,</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>(-62.96,1.081,-0.0006305,0.00000014),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>126.24299999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="D15">
+        <v>17.8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-62.52</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.9889</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-5.7950000000000005E-4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.2910000000000001E-7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-193400</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>126.243,</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>0.7977,</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>17.8,</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>(-62.52,0.9889,-0.0005795,0.0000001291),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>112.21599999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="D16">
+        <v>45.6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-63.89</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-5.1079999999999995E-4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.103E-7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-171900</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>112.216,</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>0.7922,</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>45.6,</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>(-63.89,0.8893,-0.0005108,0.0000001103),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>98.188999999999993</v>
+      </c>
+      <c r="C17">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D17">
+        <v>74.8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-61.92</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-4.5380000000000003E-4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9.3660000000000006E-8</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-154900</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>98.189,</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>0.774,</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>74.8,</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v>(-61.92,0.7842,-0.0004538,0.00000009366),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>84.162000000000006</v>
+      </c>
+      <c r="C18">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="D18">
+        <v>83</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-54.54</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.61129999999999995</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2.5230000000000001E-4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.321E-8</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-123200</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>84.162,</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>0.7834,</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>83,</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="3"/>
+        <v>(-54.54,0.6113,-0.0002523,0.00000001321),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>84.162000000000006</v>
+      </c>
+      <c r="C19">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="D19">
+        <v>91.3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-50.11</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.6381</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-3.6420000000000002E-4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>8.0140000000000002E-8</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-106800</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>84.162,</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>0.7536,</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>91.3,</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v>(-50.11,0.6381,-0.0003642,0.00000008014),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>148.25</v>
+      </c>
+      <c r="C20">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="D20">
+        <v>110</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-42.18</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6.2620000000000004E-4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.5699999999999999E-7</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-33800</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>148.25,</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>0.8624,</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>110,</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v>(-42.18,0.9772,-0.0006262,0.000000157),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>134.22200000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="D21">
+        <v>100.4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-22.99</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-4.3960000000000001E-4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8.5700000000000006E-8</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-13820</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>134.222,</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>0.8646,</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>100.4,</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="3"/>
+        <v>(-22.99,0.7934,-0.0004396,0.0000000857),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>120.19499999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="D22">
+        <v>101.5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-31.29</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-4.6010000000000002E-4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.081E-7</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7830</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>120.195,</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>0.8665,</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>101.5,</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="3"/>
+        <v>(-31.29,0.7486,-0.0004601,0.0000001081),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>106.16800000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="D23">
+        <v>107.9</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-43.1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4.8109999999999998E-4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.3010000000000001E-7</v>
+      </c>
+      <c r="I23" s="2">
+        <v>29810</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>106.168,</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.8718,</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>107.9,</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="3"/>
+        <v>(-43.1,0.7072,-0.0004811,0.0000001301),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>92.141000000000005</v>
+      </c>
+      <c r="C24">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="D24">
+        <v>120.1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-24.35</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-2.765E-4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4.9110000000000001E-8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>50030</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>92.141,</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>0.8718,</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>120.1,</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="3"/>
+        <v>(-24.35,0.5125,-0.0002765,0.00000004911),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>78.114000000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="D25">
+        <v>108</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-33.92</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-3.0170000000000002E-4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7.1299999999999997E-8</v>
+      </c>
+      <c r="I25" s="2">
+        <v>82980</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>78.114,</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>0.8844,</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>108,</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="3"/>
+        <v>(-33.92,0.4739,-0.0003017,0.0000000713),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>2.016</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>27.14</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9.2739999999999993E-3</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1.381E-5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7.645E-9</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>2.016,</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>0.00009,</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" t="str">
+        <f>_xlfn.CONCAT(N26,E26,J26,F26,J26,G26,J26,H26,O26)</f>
+        <v>(27.14,0.009274,-0.00001381,0.000000007645)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" t="s">
+        <v>214</v>
+      </c>
+      <c r="M30" t="s">
+        <v>215</v>
+      </c>
+      <c r="N30" t="s">
+        <v>216</v>
+      </c>
+      <c r="O30" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>219</v>
+      </c>
+      <c r="R30" t="s">
+        <v>220</v>
+      </c>
+      <c r="S30" t="s">
+        <v>221</v>
+      </c>
+      <c r="T30" t="s">
+        <v>221</v>
+      </c>
+      <c r="U30" t="s">
+        <v>222</v>
+      </c>
+      <c r="V30" t="s">
+        <v>223</v>
+      </c>
+      <c r="W30" t="s">
+        <v>224</v>
+      </c>
+      <c r="X30" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="s">
+        <v>239</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>241</v>
+      </c>
+      <c r="P31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>243</v>
+      </c>
+      <c r="R31" t="s">
+        <v>244</v>
+      </c>
+      <c r="S31" t="s">
+        <v>245</v>
+      </c>
+      <c r="T31" t="s">
+        <v>246</v>
+      </c>
+      <c r="U31" t="s">
+        <v>247</v>
+      </c>
+      <c r="V31" t="s">
+        <v>248</v>
+      </c>
+      <c r="W31" t="s">
+        <v>249</v>
+      </c>
+      <c r="X31" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ABC4EF-3C29-4C3C-9FB7-04E36ED47A81}">
+  <dimension ref="A1:AO51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>0.77</v>
+      </c>
+      <c r="E1">
+        <v>0.79</v>
+      </c>
+      <c r="J1">
+        <v>5.53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <f>D1+I1</f>
+        <v>0.77</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="str">
+        <f>_xlfn.CONCAT(L1:M1)</f>
+        <v>0.77,</v>
+      </c>
+      <c r="O1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>322</v>
+      </c>
+      <c r="R1" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U1" t="s">
+        <v>326</v>
+      </c>
+      <c r="V1" t="s">
+        <v>327</v>
+      </c>
+      <c r="W1" t="s">
+        <v>328</v>
+      </c>
+      <c r="X1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2.72</v>
+      </c>
+      <c r="E2">
+        <v>3.55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J2">
+        <v>5.2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L19" si="0">D2+I2</f>
+        <v>6.82</v>
+      </c>
+      <c r="M2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N25" si="1">_xlfn.CONCAT(L2:M2)</f>
+        <v>6.82,</v>
+      </c>
+      <c r="O2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>4.05</v>
+      </c>
+      <c r="E3">
+        <v>5.82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="J3">
+        <v>8.39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>8.57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="1"/>
+        <v>8.57,</v>
+      </c>
+      <c r="O3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>5.52</v>
+      </c>
+      <c r="E4">
+        <v>7.88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>6.5</v>
+      </c>
+      <c r="J4">
+        <v>6.68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>12.02</v>
+      </c>
+      <c r="M4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>12.02,</v>
+      </c>
+      <c r="O4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>6.77</v>
+      </c>
+      <c r="E5">
+        <v>9.75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>5.64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>12.41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>12.41,</v>
+      </c>
+      <c r="O5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>7.69</v>
+      </c>
+      <c r="E6">
+        <v>0.44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>6.72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>14.41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>14.41,</v>
+      </c>
+      <c r="O6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>6.8</v>
+      </c>
+      <c r="E7">
+        <v>0.09</v>
+      </c>
+      <c r="F7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>2.46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <f>D7+I7</f>
+        <v>9.26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>9.26,</v>
+      </c>
+      <c r="O7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.87</v>
+      </c>
+      <c r="E8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>3.56</v>
+      </c>
+      <c r="E9">
+        <v>4.72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>4.04</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>5.95</v>
+      </c>
+      <c r="E11">
+        <v>8.43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E12">
+        <v>3.45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>0.64</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <f>D8+I8</f>
+        <v>0.87</v>
+      </c>
+      <c r="M13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>0.87,</v>
+      </c>
+      <c r="O13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0.96</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <f>D9+I9</f>
+        <v>3.56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>3.56,</v>
+      </c>
+      <c r="O14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1.34</v>
+      </c>
+      <c r="E15">
+        <v>1.25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <f>D10+I10</f>
+        <v>4.04</v>
+      </c>
+      <c r="M15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>4.04,</v>
+      </c>
+      <c r="O15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>4.24</v>
+      </c>
+      <c r="E16">
+        <v>5.75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <f>D11+I11</f>
+        <v>5.95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>5.95,</v>
+      </c>
+      <c r="O16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>5.77</v>
+      </c>
+      <c r="E17">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <f>D12+I12</f>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>4.23,</v>
+      </c>
+      <c r="O17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>3.02</v>
+      </c>
+      <c r="E18">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K18" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18">
+        <f>D13+I13</f>
+        <v>0.64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>0.64,</v>
+      </c>
+      <c r="O18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <f>D14+I14</f>
+        <v>0.96</v>
+      </c>
+      <c r="M19" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>0.96,</v>
+      </c>
+      <c r="O19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <f>D15+I15</f>
+        <v>1.34</v>
+      </c>
+      <c r="M20" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>1.34,</v>
+      </c>
+      <c r="O20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <f>D16+I16</f>
+        <v>4.24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>4.24,</v>
+      </c>
+      <c r="O21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22">
+        <f>D17+I17</f>
+        <v>5.77</v>
+      </c>
+      <c r="M22" t="s">
+        <v>138</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>5.77,</v>
+      </c>
+      <c r="O22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23">
+        <f>D18+I18</f>
+        <v>3.02</v>
+      </c>
+      <c r="M23" t="s">
+        <v>138</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>3.02,</v>
+      </c>
+      <c r="O23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24">
+        <f>D19+I19</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M24" t="s">
+        <v>138</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>1.12,</v>
+      </c>
+      <c r="O24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f>D27+I27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" t="str">
+        <f>_xlfn.CONCAT(L27,M1)</f>
+        <v>0,</v>
+      </c>
+      <c r="O27" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>165</v>
+      </c>
+      <c r="R27" t="s">
+        <v>165</v>
+      </c>
+      <c r="S27" t="s">
+        <v>165</v>
+      </c>
+      <c r="T27" t="s">
+        <v>165</v>
+      </c>
+      <c r="U27" t="s">
+        <v>165</v>
+      </c>
+      <c r="V27" t="s">
+        <v>165</v>
+      </c>
+      <c r="W27" t="s">
+        <v>165</v>
+      </c>
+      <c r="X27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f t="shared" ref="L28:L45" si="2">D28+I28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" ref="N28:N51" si="3">_xlfn.CONCAT(L28,M2)</f>
+        <v>0,</v>
+      </c>
+      <c r="O28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f>D33+I33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>10,</v>
+      </c>
+      <c r="O37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <f>D34+I34</f>
+        <v>0</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <f>D35+I35</f>
+        <v>0</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <f>D36+I36</f>
+        <v>0</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <f>D37+I37</f>
+        <v>0</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f>D38+I38</f>
+        <v>0</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <f>D39+I39</f>
+        <v>0</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <f>D40+I40</f>
+        <v>0</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <f>D41+I41</f>
+        <v>0</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <f>D42+I42</f>
+        <v>0</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <f>D43+I43</f>
+        <v>0</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <f>D44+I44</f>
+        <v>0</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <f>D45+I45</f>
+        <v>0</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>90</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="O51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2021/ЛБ4_хтс_реактор/Лист Microsoft Excel.xlsx
+++ b/2021/ЛБ4_хтс_реактор/Лист Microsoft Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFD2ECE-3CC8-4D97-AFDE-4AA410E481D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF69D4EB-41E2-43CB-8A08-356A3B9A5432}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="378">
   <si>
     <t>[</t>
   </si>
@@ -1134,11 +1134,113 @@
   <si>
     <t>k, ч-1 (T = 763.15 K)</t>
   </si>
+  <si>
+    <t xml:space="preserve">	6.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	8.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	12.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	12.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	14.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	9.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	4.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	5.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	4.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	5.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	3.02</t>
+  </si>
+  <si>
+    <t>kmole / h</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Сырье</t>
+  </si>
+  <si>
+    <t>ВСГ</t>
+  </si>
+  <si>
+    <t>Компонент</t>
+  </si>
+  <si>
+    <t>Парамтер</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Расход сырья, кг / ч</t>
+  </si>
+  <si>
+    <t>Расход ВСГ</t>
+  </si>
+  <si>
+    <t>Длина реактора, м</t>
+  </si>
+  <si>
+    <t>Диаметр реактора, м</t>
+  </si>
+  <si>
+    <t>Температура, К</t>
+  </si>
+  <si>
+    <t>Давление, МПа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1232,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1251,6 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1534,7 +1637,7 @@
   <dimension ref="A1:AC71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A25"/>
+      <selection activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5539,7 +5642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABE8CED-A87B-476C-B5D5-3A682AA434A7}">
   <dimension ref="A1:BU146"/>
   <sheetViews>
-    <sheetView topLeftCell="H106" workbookViewId="0">
+    <sheetView topLeftCell="H82" workbookViewId="0">
       <selection activeCell="U110" sqref="U110:U132"/>
     </sheetView>
   </sheetViews>
@@ -9945,7 +10048,7 @@
         <v>214</v>
       </c>
       <c r="I111">
-        <f t="shared" ref="I111:I135" si="4">ROUND(I86,2)</f>
+        <f t="shared" ref="I111:I132" si="4">ROUND(I86,2)</f>
         <v>230.27</v>
       </c>
       <c r="O111">
@@ -10404,17 +10507,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3351FFCC-F9DB-48D4-B030-1CA8F6FD42C3}">
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -11377,7 +11482,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="B20" s="4">
         <v>84.162000000000006</v>
@@ -11967,119 +12072,859 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>0.77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" t="s">
+        <v>347</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="s">
+        <v>351</v>
+      </c>
+      <c r="N42" t="s">
+        <v>351</v>
+      </c>
+      <c r="O42" t="s">
+        <v>351</v>
+      </c>
+      <c r="P42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>353</v>
+      </c>
+      <c r="H43">
+        <v>3.56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>354</v>
+      </c>
+      <c r="J43" t="s">
+        <v>355</v>
+      </c>
+      <c r="K43" t="s">
+        <v>356</v>
+      </c>
+      <c r="L43" t="s">
+        <v>357</v>
+      </c>
+      <c r="M43" t="s">
+        <v>358</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s">
+        <v>360</v>
+      </c>
+      <c r="P43" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>362</v>
+      </c>
+      <c r="R43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N47" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D48" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E48">
+        <f>D48/100</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="F48">
+        <f>E48/B3</f>
+        <v>4.9260138312232516E-5</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="10">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="P48" s="10">
+        <v>0</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="T48" s="4">
+        <v>763.15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D49" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E72" si="4">D49/100</f>
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F72" si="5">E49/B4</f>
+        <v>4.7931630659376186E-4</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="10">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="P49" s="10">
+        <v>0</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="T49" s="4">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D50" s="1">
+        <v>8.57</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>6.6817923108709724E-4</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="10">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="P50" s="10">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="T50" s="4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D51" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>0.1202</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>1.0522445549408222E-3</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0.1202</v>
+      </c>
+      <c r="P51" s="10">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="T51" s="4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D52" s="1">
+        <v>12.41</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>0.1241</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>1.2384611546330023E-3</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0.1241</v>
+      </c>
+      <c r="P52" s="10">
+        <v>0</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="T52" s="4">
+        <v>4.9020000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D53" s="1">
+        <v>14.41</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>1.6721204947898537E-3</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="P53" s="10">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="T53" s="4">
+        <v>2.4380000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D54" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>1.2834194952252916E-3</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O54" s="10">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="P54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>181</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0</v>
+      </c>
+      <c r="P56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O58" s="10">
+        <v>0</v>
+      </c>
+      <c r="P58" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="10">
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D60" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="5"/>
+        <v>6.2027662911735346E-5</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O60" s="10">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="P60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D61" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>3.56E-2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="5"/>
+        <v>2.8199583343234874E-4</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O61" s="10">
+        <v>3.56E-2</v>
+      </c>
+      <c r="P61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D62" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>3.60019961502816E-4</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O62" s="10">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="P62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D63" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>5.9500000000000004E-2</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="5"/>
+        <v>6.0597419262850224E-4</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="10">
+        <v>5.9500000000000004E-2</v>
+      </c>
+      <c r="P63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D64" s="1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>4.2300000000000004E-2</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="5"/>
+        <v>5.0260212447422834E-4</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="10">
+        <v>4.2300000000000004E-2</v>
+      </c>
+      <c r="P64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D65" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="5"/>
+        <v>7.6043820251419877E-5</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O65" s="10">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="P65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D66" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="5"/>
+        <v>6.4755480607082627E-5</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" s="10">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="P66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D67" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>1.34E-2</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="5"/>
+        <v>9.9834602375169486E-5</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O67" s="10">
+        <v>1.34E-2</v>
+      </c>
+      <c r="P67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D68" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>4.24E-2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>3.5276009817380093E-4</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O68" s="10">
+        <v>4.24E-2</v>
+      </c>
+      <c r="P68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D69" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>5.7699999999999994E-2</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>5.4347826086956512E-4</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" s="10">
+        <v>5.7699999999999994E-2</v>
+      </c>
+      <c r="P69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D70" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>3.2775854397065367E-4</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O70" s="10">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="P70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D71" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>1.1200000000000002E-2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>1.4338018793046064E-4</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O71" s="10">
+        <v>1.1200000000000002E-2</v>
+      </c>
+      <c r="P71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="10">
+        <v>0</v>
+      </c>
+      <c r="P72" s="10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <f>SUM(F48:F72)</f>
+        <v>9.8636321447098472E-3</v>
+      </c>
+      <c r="G73">
+        <f>1/F73</f>
+        <v>101.38253184313338</v>
+      </c>
+      <c r="H73">
+        <f>100/G73</f>
+        <v>0.98636321447098463</v>
+      </c>
+      <c r="I73" t="s">
+        <v>363</v>
+      </c>
+      <c r="J73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <f>H74*B27</f>
+        <v>12.925303562427782</v>
+      </c>
+      <c r="H74">
+        <f>H73*6.5</f>
+        <v>6.4113608940614002</v>
+      </c>
+      <c r="I74" t="s">
+        <v>363</v>
+      </c>
+      <c r="J74" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <f>G74/G72</f>
+        <v>0.12925303562427781</v>
+      </c>
+    </row>
+    <row r="76" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>366</v>
+      </c>
+      <c r="I76">
+        <f>9.13*1000 * 3.54</f>
+        <v>32320.2</v>
+      </c>
+      <c r="K76" t="s">
+        <v>365</v>
+      </c>
+      <c r="L76" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <f>G74/(G72+G74)</f>
+        <v>0.11445887816703869</v>
+      </c>
+      <c r="K77">
+        <f>I76*G77</f>
+        <v>3699.3338341343238</v>
+      </c>
+      <c r="L77">
+        <f>I76-K77</f>
+        <v>28620.866165865678</v>
       </c>
     </row>
   </sheetData>
@@ -12099,7 +12944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ABC4EF-3C29-4C3C-9FB7-04E36ED47A81}">
   <dimension ref="A1:AO51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>

--- a/2021/ЛБ4_хтс_реактор/Лист Microsoft Excel.xlsx
+++ b/2021/ЛБ4_хтс_реактор/Лист Microsoft Excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFEE91B-9BB4-436C-A354-706FE0A2831F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BAE683-BD7A-4C54-B34B-71F4641AAB11}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -289,9 +289,6 @@
     <t>33523850263879.2,</t>
   </si>
   <si>
-    <t>209412608450.642,</t>
-  </si>
-  <si>
     <t>10981950948512.2,</t>
   </si>
   <si>
@@ -1375,13 +1372,16 @@
     <t>8266287175683.24,</t>
   </si>
   <si>
-    <t>7932486626874.7,</t>
-  </si>
-  <si>
     <t>74399835.581519,</t>
   </si>
   <si>
     <t>1391039479.09063,</t>
+  </si>
+  <si>
+    <t>2094126084506.42,</t>
+  </si>
+  <si>
+    <t>9507017517481.03,</t>
   </si>
 </sst>
 </file>
@@ -1509,18 +1509,18 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5809,7 +5809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABE8CED-A87B-476C-B5D5-3A682AA434A7}">
   <dimension ref="A1:BW146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C76" sqref="C76:BU76"/>
     </sheetView>
   </sheetViews>
@@ -5839,7 +5839,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>64</v>
@@ -5848,16 +5848,16 @@
         <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="13"/>
+        <v>170</v>
+      </c>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="4">
         <v>3.56E-2</v>
@@ -5876,7 +5876,7 @@
         <f>K14-K3</f>
         <v>60.900000000000006</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <f>G2*0.5</f>
         <v>30.450000000000003</v>
       </c>
@@ -5884,10 +5884,10 @@
         <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L2" t="str">
         <f>_xlfn.CONCAT(F2,I2)</f>
@@ -5911,7 +5911,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="4">
         <v>7.4999999999999997E-3</v>
@@ -5930,7 +5930,7 @@
         <f>K4+K13-K3</f>
         <v>-54.200000000000045</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <f>G3</f>
         <v>-54.200000000000045</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="4">
         <v>0.01</v>
@@ -5984,7 +5984,7 @@
         <f>K5+K12-K3</f>
         <v>-43.44</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <f>G4</f>
         <v>-43.44</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="4">
         <v>1.35E-2</v>
@@ -6038,7 +6038,7 @@
         <f>K6+K11-K3</f>
         <v>-42</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <f>G5</f>
         <v>-42</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="4">
         <v>1.35E-2</v>
@@ -6092,7 +6092,7 @@
         <f>K7+K10-K3</f>
         <v>-43.600000000000023</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <f>G6</f>
         <v>-43.600000000000023</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="4">
         <v>1.9099999999999999E-2</v>
@@ -6146,7 +6146,7 @@
         <f>K8+K9-K3</f>
         <v>-43.300000000000011</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <f>G7</f>
         <v>-43.300000000000011</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="4">
         <v>2.2429999999999999</v>
@@ -6200,7 +6200,7 @@
         <f>K15-K4</f>
         <v>36.5</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <f>G8*0.5</f>
         <v>18.25</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="4">
         <v>1.5E-3</v>
@@ -6254,7 +6254,7 @@
         <f>K5+K13-K4</f>
         <v>-54.300000000000011</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <f>G9</f>
         <v>-54.300000000000011</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="4">
         <v>5.4000000000000003E-3</v>
@@ -6308,7 +6308,7 @@
         <f>K6+K12-K4</f>
         <v>-43.539999999999964</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <f>G10</f>
         <v>-43.539999999999964</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="4">
         <v>1.6E-2</v>
@@ -6362,7 +6362,7 @@
         <f>K7+K11-K4</f>
         <v>-42</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <f>G11</f>
         <v>-42</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C12" s="4">
         <v>9.4999999999999998E-3</v>
@@ -6416,7 +6416,7 @@
         <f>K8+K10-K4</f>
         <v>-43.699999999999989</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <f>G12</f>
         <v>-43.699999999999989</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" s="4">
         <v>9.4999999999999998E-3</v>
@@ -6470,7 +6470,7 @@
         <f>2*K9-K4</f>
         <v>-43.199999999999989</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <f>G13</f>
         <v>-43.199999999999989</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" s="4">
         <v>1.05</v>
@@ -6524,7 +6524,7 @@
         <f>K16-K5</f>
         <v>35.799999999999983</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <f>G14*0.5</f>
         <v>17.899999999999991</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" s="4">
         <v>3.0000000000000001E-3</v>
@@ -6578,7 +6578,7 @@
         <f>K6+K13-K5</f>
         <v>-54.300000000000011</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <f>G15</f>
         <v>-54.300000000000011</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="4">
         <v>3.8999999999999998E-3</v>
@@ -6632,7 +6632,7 @@
         <f>K7+K12-K5</f>
         <v>-43.44</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <f>G16</f>
         <v>-43.44</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="4">
         <v>6.7999999999999996E-3</v>
@@ -6686,7 +6686,7 @@
         <f>K8+K11-K5</f>
         <v>-42.000000000000057</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <f>G17</f>
         <v>-42.000000000000057</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" s="4">
         <v>5.7999999999999996E-3</v>
@@ -6740,7 +6740,7 @@
         <f>K9+K10-K5</f>
         <v>-43.5</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <f>G18</f>
         <v>-43.5</v>
       </c>
@@ -6775,10 +6775,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C19" s="4">
-        <v>2.6599999999999999E-2</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D19" s="4">
         <v>2.6599999999999999E-2</v>
@@ -6788,13 +6788,13 @@
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>209412608450.64206</v>
+        <v>2094126084506.4209</v>
       </c>
       <c r="G19" s="5">
         <f>K17-K6</f>
         <v>36.699999999999989</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <f>G19*0.5</f>
         <v>18.349999999999994</v>
       </c>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>209412608450.642,</v>
+        <v>2094126084506.42,</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="P19" t="str">
         <f t="shared" si="4"/>
-        <v>209412608450.642,</v>
+        <v>2094126084506.42,</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -6829,7 +6829,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C20" s="4">
         <v>1.9E-3</v>
@@ -6848,7 +6848,7 @@
         <f>K7+K13-K6</f>
         <v>-54.200000000000017</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <f>G20</f>
         <v>-54.200000000000017</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K20" s="1">
         <v>-106.8</v>
@@ -6883,7 +6883,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C21" s="4">
         <v>5.5999999999999999E-3</v>
@@ -6902,7 +6902,7 @@
         <f>K8+K12-K6</f>
         <v>-43.440000000000026</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <f>G21</f>
         <v>-43.440000000000026</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" s="4">
         <v>3.3999999999999998E-3</v>
@@ -6956,7 +6956,7 @@
         <f>K9+K11-K6</f>
         <v>-41.800000000000011</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <f>G22</f>
         <v>-41.800000000000011</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C23" s="4">
         <v>7.0000000000000001E-3</v>
@@ -7010,7 +7010,7 @@
         <f>2*K10-K6</f>
         <v>-43.800000000000011</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <f>G23</f>
         <v>-43.800000000000011</v>
       </c>
@@ -7045,10 +7045,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" s="4">
-        <v>1.0076000000000001</v>
+        <v>1.2076</v>
       </c>
       <c r="D24" s="4">
         <v>7.6E-3</v>
@@ -7058,13 +7058,13 @@
       </c>
       <c r="F24" s="6">
         <f t="shared" si="0"/>
-        <v>7932486626874.6982</v>
+        <v>9507017517481.0293</v>
       </c>
       <c r="G24" s="5">
         <f>K18-K7</f>
         <v>33</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <f>G24*0.5</f>
         <v>16.5</v>
       </c>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>7932486626874.7,</v>
+        <v>9507017517481.03,</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="P24" t="str">
         <f t="shared" si="4"/>
-        <v>7932486626874.7,</v>
+        <v>9507017517481.03,</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
@@ -7099,7 +7099,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C25" s="4">
         <v>2.7000000000000001E-3</v>
@@ -7118,7 +7118,7 @@
         <f>K8+K13-K7</f>
         <v>-54.300000000000011</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <f>G25</f>
         <v>-54.300000000000011</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>66</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -7171,7 +7171,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C26" s="4">
         <v>1.8E-3</v>
@@ -7190,7 +7190,7 @@
         <f>K9+K12-K7</f>
         <v>-43.34</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <f>G26</f>
         <v>-43.34</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C27" s="4">
         <v>4.3E-3</v>
@@ -7244,7 +7244,7 @@
         <f>K10+K11-K7</f>
         <v>-42.200000000000017</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <f>G27*0.7</f>
         <v>-29.54000000000001</v>
       </c>
@@ -7279,10 +7279,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -7292,13 +7292,13 @@
       </c>
       <c r="F28" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39363272265.158287</v>
       </c>
       <c r="G28" s="5">
         <f>K19-K8</f>
         <v>44.100000000000009</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <f>G28*0.5</f>
         <v>22.050000000000004</v>
       </c>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>0,</v>
+        <v>39363272265.1583,</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="P28" t="str">
         <f t="shared" si="4"/>
-        <v>0,</v>
+        <v>39363272265.1583,</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -7327,7 +7327,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="4">
         <v>4.1999999999999997E-3</v>
@@ -7346,7 +7346,7 @@
         <f>K20-K8</f>
         <v>60.500000000000014</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="12">
         <f>G29*0.5</f>
         <v>30.250000000000007</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C30" s="4">
         <v>1.8E-3</v>
@@ -7394,8 +7394,8 @@
         <f>K9+K13-K8</f>
         <v>-54.099999999999994</v>
       </c>
-      <c r="H30" s="14">
-        <f>G30</f>
+      <c r="H30" s="12">
+        <f t="shared" ref="H30:H35" si="5">G30</f>
         <v>-54.099999999999994</v>
       </c>
       <c r="I30" t="s">
@@ -7423,7 +7423,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C31" s="4">
         <v>1.6000000000000001E-3</v>
@@ -7442,8 +7442,8 @@
         <f>K10+K12-K8</f>
         <v>-43.639999999999986</v>
       </c>
-      <c r="H31" s="14">
-        <f>G31</f>
+      <c r="H31" s="12">
+        <f t="shared" si="5"/>
         <v>-43.639999999999986</v>
       </c>
       <c r="I31" t="s">
@@ -7471,7 +7471,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" s="4">
         <v>2.5000000000000001E-3</v>
@@ -7490,8 +7490,8 @@
         <f>2*K11-K8</f>
         <v>-40.5</v>
       </c>
-      <c r="H32" s="14">
-        <f>G32</f>
+      <c r="H32" s="12">
+        <f t="shared" si="5"/>
         <v>-40.5</v>
       </c>
       <c r="I32" t="s">
@@ -7519,7 +7519,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C33" s="4">
         <v>1.8E-3</v>
@@ -7538,8 +7538,8 @@
         <f>K10+K13-K9</f>
         <v>-54.600000000000023</v>
       </c>
-      <c r="H33" s="14">
-        <f>G33</f>
+      <c r="H33" s="12">
+        <f t="shared" si="5"/>
         <v>-54.600000000000023</v>
       </c>
       <c r="I33" t="s">
@@ -7567,7 +7567,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C34" s="4">
         <v>2.2000000000000001E-3</v>
@@ -7586,8 +7586,8 @@
         <f>K11+K12-K9</f>
         <v>-42.139999999999986</v>
       </c>
-      <c r="H34" s="14">
-        <f>G34</f>
+      <c r="H34" s="12">
+        <f t="shared" si="5"/>
         <v>-42.139999999999986</v>
       </c>
       <c r="I34" t="s">
@@ -7615,7 +7615,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C35" s="4">
         <v>5.0000000000000001E-3</v>
@@ -7634,8 +7634,8 @@
         <f>K3-K14</f>
         <v>-60.900000000000006</v>
       </c>
-      <c r="H35" s="14">
-        <f>G35</f>
+      <c r="H35" s="12">
+        <f t="shared" si="5"/>
         <v>-60.900000000000006</v>
       </c>
       <c r="I35" t="s">
@@ -7663,7 +7663,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C36" s="4">
         <v>0.67379999999999995</v>
@@ -7682,7 +7682,7 @@
         <f>K21-K14</f>
         <v>175.8</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="12">
         <f>G36*0.5</f>
         <v>87.9</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C37" s="4">
         <v>1.34E-2</v>
@@ -7730,7 +7730,7 @@
         <f>K15+K13-K14</f>
         <v>-78.600000000000051</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="12">
         <f>G37</f>
         <v>-78.600000000000051</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="4">
         <v>1.34E-2</v>
@@ -7778,7 +7778,7 @@
         <f>K16+K12-K14</f>
         <v>-68.539999999999992</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="12">
         <f>G38</f>
         <v>-68.539999999999992</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C39" s="4">
         <v>8.0000000000000002E-3</v>
@@ -7826,7 +7826,7 @@
         <f>K17+K11-K14</f>
         <v>-66.200000000000017</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="12">
         <f>G39</f>
         <v>-66.200000000000017</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C40" s="4">
         <v>5.4000000000000003E-3</v>
@@ -7874,7 +7874,7 @@
         <f>K4-K15</f>
         <v>-36.5</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="12">
         <f>G40</f>
         <v>-36.5</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C41" s="4">
         <v>30.319800000000001</v>
@@ -7922,7 +7922,7 @@
         <f>K22-K15</f>
         <v>199.48000000000002</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="12">
         <f>G41*0.5</f>
         <v>99.740000000000009</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" s="4">
         <v>1.34E-2</v>
@@ -7970,7 +7970,7 @@
         <f>K16+K13-K15</f>
         <v>-55</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="12">
         <f>G42</f>
         <v>-55</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="4">
         <v>1.34E-2</v>
@@ -8018,7 +8018,7 @@
         <f>K17+K12-K15</f>
         <v>-43.339999999999975</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="12">
         <f>G43</f>
         <v>-43.339999999999975</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C44" s="4">
         <v>8.0000000000000002E-3</v>
@@ -8066,7 +8066,7 @@
         <f>K18+K11-K15</f>
         <v>-45.5</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="12">
         <f>G44</f>
         <v>-45.5</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C45" s="4">
         <v>5.4000000000000003E-3</v>
@@ -8114,7 +8114,7 @@
         <f>K5-K16</f>
         <v>-35.799999999999983</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="12">
         <f>G45</f>
         <v>-35.799999999999983</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" s="4">
         <v>2.2204999999999999</v>
@@ -8162,7 +8162,7 @@
         <f>K23-K16</f>
         <v>201.23000000000002</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="12">
         <f>G46*0.45</f>
         <v>90.553500000000014</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C47" s="4">
         <v>1.2699999999999999E-2</v>
@@ -8210,7 +8210,7 @@
         <f>K17+K13-K16</f>
         <v>-53.400000000000006</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="12">
         <f>G47</f>
         <v>-53.400000000000006</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="4">
         <v>1.2699999999999999E-2</v>
@@ -8258,7 +8258,7 @@
         <f>K18+K12-K16</f>
         <v>-46.239999999999981</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="12">
         <f>G48</f>
         <v>-46.239999999999981</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C49" s="4">
         <v>2.5000000000000001E-3</v>
@@ -8306,7 +8306,7 @@
         <f>K6-K17</f>
         <v>-36.699999999999989</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="12">
         <f>G49</f>
         <v>-36.699999999999989</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C50" s="4">
         <v>3.5150000000000001</v>
@@ -8354,7 +8354,7 @@
         <f>K24-K17</f>
         <v>201.71</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="12">
         <f>G50*0.5</f>
         <v>100.855</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C51" s="4">
         <v>6.9999999999999999E-4</v>
@@ -8402,7 +8402,7 @@
         <f>K18+K13-K17</f>
         <v>-57.900000000000006</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="12">
         <f>G51</f>
         <v>-57.900000000000006</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C52" s="4">
         <v>1.9E-3</v>
@@ -8450,7 +8450,7 @@
         <f>K7-K18</f>
         <v>-33</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="12">
         <f>G52</f>
         <v>-33</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="4">
         <v>0.188</v>
@@ -8498,7 +8498,7 @@
         <f>K25-K18</f>
         <v>204.93</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="12">
         <f>G53*0.45</f>
         <v>92.218500000000006</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C54" s="4">
         <v>2.0400000000000001E-2</v>
@@ -8546,7 +8546,7 @@
         <f>K8-K19</f>
         <v>-44.100000000000009</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="12">
         <f>G54</f>
         <v>-44.100000000000009</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C55" s="4">
         <v>0.1368</v>
@@ -8594,7 +8594,7 @@
         <f>K26-K19</f>
         <v>206.18</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="12">
         <f>G55*0.5</f>
         <v>103.09</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C56" s="4">
         <v>4.0000000000000001E-3</v>
@@ -8642,8 +8642,8 @@
         <f>K20-K19</f>
         <v>16.400000000000006</v>
       </c>
-      <c r="H56" s="14">
-        <f t="shared" ref="H3:H66" si="5">G56*0.7</f>
+      <c r="H56" s="12">
+        <f t="shared" ref="H56" si="6">G56*0.7</f>
         <v>11.480000000000004</v>
       </c>
       <c r="I56" t="s">
@@ -8671,7 +8671,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C57" s="4">
         <v>8.0000000000000004E-4</v>
@@ -8690,8 +8690,8 @@
         <f>K8-K20</f>
         <v>-60.500000000000014</v>
       </c>
-      <c r="H57" s="14">
-        <f>G57</f>
+      <c r="H57" s="12">
+        <f t="shared" ref="H57:H72" si="7">G57</f>
         <v>-60.500000000000014</v>
       </c>
       <c r="I57" t="s">
@@ -8719,7 +8719,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C58" s="4">
         <v>2.3800000000000002E-2</v>
@@ -8738,8 +8738,8 @@
         <f>K19-K20</f>
         <v>-16.400000000000006</v>
       </c>
-      <c r="H58" s="14">
-        <f>G58</f>
+      <c r="H58" s="12">
+        <f t="shared" si="7"/>
         <v>-16.400000000000006</v>
       </c>
       <c r="I58" t="s">
@@ -8767,7 +8767,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C59" s="4">
         <v>1.6000000000000001E-3</v>
@@ -8786,8 +8786,8 @@
         <f>K3-K21</f>
         <v>-236.7</v>
       </c>
-      <c r="H59" s="14">
-        <f>G59</f>
+      <c r="H59" s="12">
+        <f t="shared" si="7"/>
         <v>-236.7</v>
       </c>
       <c r="I59" t="s">
@@ -8815,7 +8815,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C60" s="4">
         <v>5.9999999999999995E-4</v>
@@ -8834,8 +8834,8 @@
         <f>K22+K13-K21</f>
         <v>-54.92</v>
       </c>
-      <c r="H60" s="14">
-        <f>G60</f>
+      <c r="H60" s="12">
+        <f t="shared" si="7"/>
         <v>-54.92</v>
       </c>
       <c r="I60" t="s">
@@ -8863,7 +8863,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C61" s="4">
         <v>5.9999999999999995E-4</v>
@@ -8882,8 +8882,8 @@
         <f>K23+K12-K21</f>
         <v>-43.11</v>
       </c>
-      <c r="H61" s="14">
-        <f>G61</f>
+      <c r="H61" s="12">
+        <f t="shared" si="7"/>
         <v>-43.11</v>
       </c>
       <c r="I61" t="s">
@@ -8911,7 +8911,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C62" s="4">
         <v>1.6000000000000001E-3</v>
@@ -8930,8 +8930,8 @@
         <f>K4-K22</f>
         <v>-235.98000000000002</v>
       </c>
-      <c r="H62" s="14">
-        <f>G62</f>
+      <c r="H62" s="12">
+        <f t="shared" si="7"/>
         <v>-235.98000000000002</v>
       </c>
       <c r="I62" t="s">
@@ -8959,7 +8959,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C63" s="4">
         <v>5.9999999999999995E-4</v>
@@ -8978,8 +8978,8 @@
         <f>K23+K13-K22</f>
         <v>-53.250000000000007</v>
       </c>
-      <c r="H63" s="14">
-        <f>G63</f>
+      <c r="H63" s="12">
+        <f t="shared" si="7"/>
         <v>-53.250000000000007</v>
       </c>
       <c r="I63" t="s">
@@ -9007,7 +9007,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C64" s="4">
         <v>5.9999999999999995E-4</v>
@@ -9026,8 +9026,8 @@
         <f>K24+K12-K22</f>
         <v>-41.109999999999992</v>
       </c>
-      <c r="H64" s="14">
-        <f>G64</f>
+      <c r="H64" s="12">
+        <f t="shared" si="7"/>
         <v>-41.109999999999992</v>
       </c>
       <c r="I64" t="s">
@@ -9055,7 +9055,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -9074,8 +9074,8 @@
         <f>K25+K11-K22</f>
         <v>-40.050000000000004</v>
       </c>
-      <c r="H65" s="14">
-        <f>G65</f>
+      <c r="H65" s="12">
+        <f t="shared" si="7"/>
         <v>-40.050000000000004</v>
       </c>
       <c r="I65" t="s">
@@ -9103,7 +9103,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C66" s="4">
         <v>1.6000000000000001E-3</v>
@@ -9122,8 +9122,8 @@
         <f>K5-K23</f>
         <v>-237.03</v>
       </c>
-      <c r="H66" s="14">
-        <f>G66</f>
+      <c r="H66" s="12">
+        <f t="shared" si="7"/>
         <v>-237.03</v>
       </c>
       <c r="I66" t="s">
@@ -9151,7 +9151,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C67" s="4">
         <v>5.0000000000000001E-4</v>
@@ -9163,34 +9163,34 @@
         <v>167.47199763520001</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" ref="F67:F72" si="6">C67/EXP(-E67*1000/(8.314*763.15))</f>
+        <f t="shared" ref="F67:F72" si="8">C67/EXP(-E67*1000/(8.314*763.15))</f>
         <v>145274316.12954223</v>
       </c>
       <c r="G67" s="5">
         <f>K24+K13-K23</f>
         <v>-52.92</v>
       </c>
-      <c r="H67" s="14">
-        <f>G67</f>
+      <c r="H67" s="12">
+        <f t="shared" si="7"/>
         <v>-52.92</v>
       </c>
       <c r="I67" t="s">
         <v>67</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L72" si="7">_xlfn.CONCAT(F67,I67)</f>
+        <f t="shared" ref="L67:L72" si="9">_xlfn.CONCAT(F67,I67)</f>
         <v>145274316.129542,</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N72" si="8">_xlfn.CONCAT(H67:I67)</f>
+        <f t="shared" ref="N67:N72" si="10">_xlfn.CONCAT(H67:I67)</f>
         <v>-52.92,</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O72" si="9">_xlfn.CONCAT(G67,I67)</f>
+        <f t="shared" ref="O67:O72" si="11">_xlfn.CONCAT(G67,I67)</f>
         <v>-52.92,</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P72" si="10">_xlfn.CONCAT(F67,I67)</f>
+        <f t="shared" ref="P67:P72" si="12">_xlfn.CONCAT(F67,I67)</f>
         <v>145274316.129542,</v>
       </c>
     </row>
@@ -9199,7 +9199,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C68" s="4">
         <v>5.0000000000000001E-4</v>
@@ -9211,34 +9211,34 @@
         <v>167.47199763520001</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>145274316.12954223</v>
       </c>
       <c r="G68" s="5">
         <f>K25+K12-K23</f>
         <v>-42.539999999999992</v>
       </c>
-      <c r="H68" s="14">
-        <f>G68</f>
+      <c r="H68" s="12">
+        <f t="shared" si="7"/>
         <v>-42.539999999999992</v>
       </c>
       <c r="I68" t="s">
         <v>67</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>145274316.129542,</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-42.54,</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-42.54,</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>145274316.129542,</v>
       </c>
     </row>
@@ -9247,7 +9247,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C69" s="4">
         <v>1.1000000000000001E-3</v>
@@ -9259,34 +9259,34 @@
         <v>188.40599733960002</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8659919898.3348236</v>
       </c>
       <c r="G69" s="5">
         <f>K6-K24</f>
         <v>-238.41</v>
       </c>
-      <c r="H69" s="14">
-        <f>G69</f>
+      <c r="H69" s="12">
+        <f t="shared" si="7"/>
         <v>-238.41</v>
       </c>
       <c r="I69" t="s">
         <v>67</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8659919898.33482,</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-238.41,</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-238.41,</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8659919898.33482,</v>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C70" s="4">
         <v>1E-4</v>
@@ -9307,34 +9307,34 @@
         <v>167.47199763520001</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>29054863.225908447</v>
       </c>
       <c r="G70" s="5">
         <f>K25+K13-K24</f>
         <v>-54.680000000000007</v>
       </c>
-      <c r="H70" s="14">
-        <f>G70</f>
+      <c r="H70" s="12">
+        <f t="shared" si="7"/>
         <v>-54.680000000000007</v>
       </c>
       <c r="I70" t="s">
         <v>67</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29054863.2259084,</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-54.68,</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-54.68,</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>29054863.2259084,</v>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C71" s="4">
         <v>1.6000000000000001E-3</v>
@@ -9355,34 +9355,34 @@
         <v>188.40599733960002</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12596247124.850653</v>
       </c>
       <c r="G71" s="5">
         <f>K7-K25</f>
         <v>-237.93</v>
       </c>
-      <c r="H71" s="14">
-        <f>G71</f>
+      <c r="H71" s="12">
+        <f t="shared" si="7"/>
         <v>-237.93</v>
       </c>
       <c r="I71" t="s">
         <v>67</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12596247124.8507,</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-237.93,</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-237.93,</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12596247124.8507,</v>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C72" s="4">
         <v>1.5E-3</v>
@@ -9403,31 +9403,31 @@
         <v>125.60399822640001</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>593615.70942701318</v>
       </c>
       <c r="G72" s="5">
         <f>K19-K26</f>
         <v>-206.18</v>
       </c>
-      <c r="H72" s="14">
-        <f>G72</f>
+      <c r="H72" s="12">
+        <f t="shared" si="7"/>
         <v>-206.18</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>593615.709427013</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-206.18</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-206.18</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>593615.709427013</v>
       </c>
     </row>
@@ -9445,19 +9445,19 @@
         <v>71</v>
       </c>
       <c r="F76" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" t="s">
+        <v>367</v>
+      </c>
+      <c r="H76" t="s">
         <v>368</v>
       </c>
-      <c r="G76" t="s">
-        <v>368</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
+        <v>422</v>
+      </c>
+      <c r="J76" t="s">
         <v>369</v>
-      </c>
-      <c r="I76" t="s">
-        <v>423</v>
-      </c>
-      <c r="J76" t="s">
-        <v>370</v>
       </c>
       <c r="K76" t="s">
         <v>72</v>
@@ -9472,7 +9472,7 @@
         <v>74</v>
       </c>
       <c r="O76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P76" t="s">
         <v>75</v>
@@ -9487,169 +9487,169 @@
         <v>78</v>
       </c>
       <c r="T76" t="s">
+        <v>426</v>
+      </c>
+      <c r="U76" t="s">
         <v>79</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>80</v>
       </c>
-      <c r="V76" t="s">
+      <c r="W76" t="s">
         <v>81</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>82</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z76" t="s">
         <v>83</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="AA76" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>420</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY76" t="s">
         <v>425</v>
       </c>
-      <c r="Z76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB76" t="s">
+      <c r="AZ76" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA76" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>424</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG76" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH76" t="s">
+        <v>105</v>
+      </c>
+      <c r="BI76" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ76" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK76" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL76" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM76" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN76" t="s">
         <v>86</v>
       </c>
-      <c r="AC76" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO76" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP76" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT76" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU76" t="s">
-        <v>421</v>
-      </c>
-      <c r="AV76" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX76" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY76" t="s">
-        <v>427</v>
-      </c>
-      <c r="AZ76" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA76" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB76" t="s">
-        <v>426</v>
-      </c>
-      <c r="BC76" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD76" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE76" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF76" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG76" t="s">
+      <c r="BO76" t="s">
         <v>105</v>
       </c>
-      <c r="BH76" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI76" t="s">
+      <c r="BP76" t="s">
         <v>107</v>
       </c>
-      <c r="BJ76" t="s">
+      <c r="BQ76" t="s">
         <v>107</v>
       </c>
-      <c r="BK76" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL76" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM76" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN76" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO76" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP76" t="s">
+      <c r="BR76" t="s">
         <v>108</v>
       </c>
-      <c r="BQ76" t="s">
-        <v>108</v>
-      </c>
-      <c r="BR76" t="s">
+      <c r="BS76" t="s">
         <v>109</v>
       </c>
-      <c r="BS76" t="s">
+      <c r="BT76" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU76" t="s">
         <v>110</v>
       </c>
-      <c r="BT76" t="s">
-        <v>106</v>
-      </c>
-      <c r="BU76" t="s">
-        <v>111</v>
-      </c>
       <c r="BV76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BW76" t="s">
         <v>68</v>
@@ -9660,223 +9660,223 @@
         <v>70</v>
       </c>
       <c r="C77" t="s">
+        <v>411</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" t="s">
+        <v>176</v>
+      </c>
+      <c r="G77" t="s">
+        <v>177</v>
+      </c>
+      <c r="H77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I77" t="s">
         <v>412</v>
       </c>
-      <c r="D77" t="s">
+      <c r="J77" t="s">
+        <v>180</v>
+      </c>
+      <c r="K77" t="s">
+        <v>181</v>
+      </c>
+      <c r="L77" t="s">
+        <v>176</v>
+      </c>
+      <c r="M77" t="s">
+        <v>182</v>
+      </c>
+      <c r="N77" t="s">
+        <v>183</v>
+      </c>
+      <c r="O77" t="s">
+        <v>413</v>
+      </c>
+      <c r="P77" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q77" t="s">
         <v>175</v>
       </c>
-      <c r="E77" t="s">
-        <v>176</v>
-      </c>
-      <c r="F77" t="s">
-        <v>177</v>
-      </c>
-      <c r="G77" t="s">
-        <v>178</v>
-      </c>
-      <c r="H77" t="s">
-        <v>179</v>
-      </c>
-      <c r="I77" t="s">
-        <v>413</v>
-      </c>
-      <c r="J77" t="s">
-        <v>181</v>
-      </c>
-      <c r="K77" t="s">
-        <v>182</v>
-      </c>
-      <c r="L77" t="s">
-        <v>177</v>
-      </c>
-      <c r="M77" t="s">
-        <v>183</v>
-      </c>
-      <c r="N77" t="s">
-        <v>184</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="R77" t="s">
+        <v>185</v>
+      </c>
+      <c r="S77" t="s">
+        <v>186</v>
+      </c>
+      <c r="T77" t="s">
         <v>414</v>
       </c>
-      <c r="P77" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>176</v>
-      </c>
-      <c r="R77" t="s">
-        <v>186</v>
-      </c>
-      <c r="S77" t="s">
-        <v>187</v>
-      </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
+        <v>174</v>
+      </c>
+      <c r="V77" t="s">
+        <v>175</v>
+      </c>
+      <c r="W77" t="s">
+        <v>188</v>
+      </c>
+      <c r="X77" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y77" t="s">
         <v>415</v>
       </c>
-      <c r="U77" t="s">
-        <v>175</v>
-      </c>
-      <c r="V77" t="s">
-        <v>176</v>
-      </c>
-      <c r="W77" t="s">
-        <v>189</v>
-      </c>
-      <c r="X77" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC77" t="s">
         <v>416</v>
       </c>
-      <c r="Z77" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB77" t="s">
+      <c r="AD77" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>407</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>408</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>209</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>418</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>409</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA77" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB77" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC77" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD77" t="s">
+        <v>410</v>
+      </c>
+      <c r="BE77" t="s">
         <v>406</v>
       </c>
-      <c r="AC77" t="s">
-        <v>417</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>408</v>
-      </c>
-      <c r="AL77" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM77" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN77" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO77" t="s">
-        <v>206</v>
-      </c>
-      <c r="AP77" t="s">
-        <v>409</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>208</v>
-      </c>
-      <c r="AR77" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS77" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU77" t="s">
-        <v>419</v>
-      </c>
-      <c r="AV77" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX77" t="s">
-        <v>214</v>
-      </c>
-      <c r="AY77" t="s">
-        <v>410</v>
-      </c>
-      <c r="AZ77" t="s">
-        <v>216</v>
-      </c>
-      <c r="BA77" t="s">
-        <v>217</v>
-      </c>
-      <c r="BB77" t="s">
-        <v>420</v>
-      </c>
-      <c r="BC77" t="s">
-        <v>219</v>
-      </c>
-      <c r="BD77" t="s">
-        <v>411</v>
-      </c>
-      <c r="BE77" t="s">
-        <v>407</v>
-      </c>
       <c r="BF77" t="s">
+        <v>221</v>
+      </c>
+      <c r="BG77" t="s">
         <v>222</v>
       </c>
-      <c r="BG77" t="s">
+      <c r="BH77" t="s">
         <v>223</v>
       </c>
-      <c r="BH77" t="s">
+      <c r="BI77" t="s">
         <v>224</v>
       </c>
-      <c r="BI77" t="s">
+      <c r="BJ77" t="s">
         <v>225</v>
       </c>
-      <c r="BJ77" t="s">
+      <c r="BK77" t="s">
         <v>226</v>
       </c>
-      <c r="BK77" t="s">
+      <c r="BL77" t="s">
         <v>227</v>
       </c>
-      <c r="BL77" t="s">
+      <c r="BM77" t="s">
         <v>228</v>
       </c>
-      <c r="BM77" t="s">
+      <c r="BN77" t="s">
         <v>229</v>
       </c>
-      <c r="BN77" t="s">
+      <c r="BO77" t="s">
         <v>230</v>
       </c>
-      <c r="BO77" t="s">
+      <c r="BP77" t="s">
         <v>231</v>
       </c>
-      <c r="BP77" t="s">
+      <c r="BQ77" t="s">
         <v>232</v>
       </c>
-      <c r="BQ77" t="s">
+      <c r="BR77" t="s">
         <v>233</v>
       </c>
-      <c r="BR77" t="s">
+      <c r="BS77" t="s">
         <v>234</v>
       </c>
-      <c r="BS77" t="s">
+      <c r="BT77" t="s">
         <v>235</v>
       </c>
-      <c r="BT77" t="s">
+      <c r="BU77" t="s">
         <v>236</v>
       </c>
-      <c r="BU77" t="s">
-        <v>237</v>
-      </c>
       <c r="BV77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BW77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:75" x14ac:dyDescent="0.3">
@@ -9884,248 +9884,248 @@
         <v>71</v>
       </c>
       <c r="C78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" t="s">
         <v>174</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>175</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>176</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>177</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>178</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>179</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>180</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>181</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
+        <v>176</v>
+      </c>
+      <c r="M78" t="s">
         <v>182</v>
       </c>
-      <c r="L78" t="s">
-        <v>177</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>183</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>184</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>175</v>
+      </c>
+      <c r="R78" t="s">
         <v>185</v>
       </c>
-      <c r="P78" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>176</v>
-      </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>186</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>187</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
+        <v>174</v>
+      </c>
+      <c r="V78" t="s">
+        <v>175</v>
+      </c>
+      <c r="W78" t="s">
         <v>188</v>
       </c>
-      <c r="U78" t="s">
-        <v>175</v>
-      </c>
-      <c r="V78" t="s">
-        <v>176</v>
-      </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>189</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>190</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA78" t="s">
         <v>191</v>
       </c>
-      <c r="Z78" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>192</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AC78" t="s">
         <v>193</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AD78" t="s">
         <v>194</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AE78" t="s">
         <v>195</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="AF78" t="s">
         <v>196</v>
       </c>
-      <c r="AF78" t="s">
+      <c r="AG78" t="s">
         <v>197</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="AH78" t="s">
         <v>198</v>
       </c>
-      <c r="AH78" t="s">
+      <c r="AI78" t="s">
         <v>199</v>
       </c>
-      <c r="AI78" t="s">
+      <c r="AJ78" t="s">
         <v>200</v>
       </c>
-      <c r="AJ78" t="s">
+      <c r="AK78" t="s">
         <v>201</v>
       </c>
-      <c r="AK78" t="s">
+      <c r="AL78" t="s">
         <v>202</v>
       </c>
-      <c r="AL78" t="s">
+      <c r="AM78" t="s">
         <v>203</v>
       </c>
-      <c r="AM78" t="s">
+      <c r="AN78" t="s">
         <v>204</v>
       </c>
-      <c r="AN78" t="s">
+      <c r="AO78" t="s">
         <v>205</v>
       </c>
-      <c r="AO78" t="s">
+      <c r="AP78" t="s">
         <v>206</v>
       </c>
-      <c r="AP78" t="s">
+      <c r="AQ78" t="s">
         <v>207</v>
       </c>
-      <c r="AQ78" t="s">
+      <c r="AR78" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS78" t="s">
         <v>208</v>
       </c>
-      <c r="AR78" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS78" t="s">
+      <c r="AT78" t="s">
         <v>209</v>
       </c>
-      <c r="AT78" t="s">
+      <c r="AU78" t="s">
         <v>210</v>
       </c>
-      <c r="AU78" t="s">
+      <c r="AV78" t="s">
         <v>211</v>
       </c>
-      <c r="AV78" t="s">
+      <c r="AW78" t="s">
         <v>212</v>
       </c>
-      <c r="AW78" t="s">
+      <c r="AX78" t="s">
         <v>213</v>
       </c>
-      <c r="AX78" t="s">
+      <c r="AY78" t="s">
         <v>214</v>
       </c>
-      <c r="AY78" t="s">
+      <c r="AZ78" t="s">
         <v>215</v>
       </c>
-      <c r="AZ78" t="s">
+      <c r="BA78" t="s">
         <v>216</v>
       </c>
-      <c r="BA78" t="s">
+      <c r="BB78" t="s">
         <v>217</v>
       </c>
-      <c r="BB78" t="s">
+      <c r="BC78" t="s">
         <v>218</v>
       </c>
-      <c r="BC78" t="s">
+      <c r="BD78" t="s">
         <v>219</v>
       </c>
-      <c r="BD78" t="s">
+      <c r="BE78" t="s">
         <v>220</v>
       </c>
-      <c r="BE78" t="s">
+      <c r="BF78" t="s">
         <v>221</v>
       </c>
-      <c r="BF78" t="s">
+      <c r="BG78" t="s">
         <v>222</v>
       </c>
-      <c r="BG78" t="s">
+      <c r="BH78" t="s">
         <v>223</v>
       </c>
-      <c r="BH78" t="s">
+      <c r="BI78" t="s">
         <v>224</v>
       </c>
-      <c r="BI78" t="s">
+      <c r="BJ78" t="s">
         <v>225</v>
       </c>
-      <c r="BJ78" t="s">
+      <c r="BK78" t="s">
         <v>226</v>
       </c>
-      <c r="BK78" t="s">
+      <c r="BL78" t="s">
         <v>227</v>
       </c>
-      <c r="BL78" t="s">
+      <c r="BM78" t="s">
         <v>228</v>
       </c>
-      <c r="BM78" t="s">
+      <c r="BN78" t="s">
         <v>229</v>
       </c>
-      <c r="BN78" t="s">
+      <c r="BO78" t="s">
         <v>230</v>
       </c>
-      <c r="BO78" t="s">
+      <c r="BP78" t="s">
         <v>231</v>
       </c>
-      <c r="BP78" t="s">
+      <c r="BQ78" t="s">
         <v>232</v>
       </c>
-      <c r="BQ78" t="s">
+      <c r="BR78" t="s">
         <v>233</v>
       </c>
-      <c r="BR78" t="s">
+      <c r="BS78" t="s">
         <v>234</v>
       </c>
-      <c r="BS78" t="s">
+      <c r="BT78" t="s">
         <v>235</v>
       </c>
-      <c r="BT78" t="s">
+      <c r="BU78" t="s">
         <v>236</v>
       </c>
-      <c r="BU78" t="s">
-        <v>237</v>
-      </c>
       <c r="BV78" t="s">
+        <v>235</v>
+      </c>
+      <c r="BW78" t="s">
         <v>236</v>
-      </c>
-      <c r="BW78" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.3">
@@ -10140,7 +10140,7 @@
         <v>62</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>64</v>
@@ -10149,7 +10149,7 @@
         <v>66</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>63</v>
@@ -10158,7 +10158,7 @@
         <v>62</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q84" s="4" t="s">
         <v>64</v>
@@ -10167,7 +10167,7 @@
         <v>66</v>
       </c>
       <c r="S84" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T84" s="4" t="s">
         <v>63</v>
@@ -10176,7 +10176,7 @@
         <v>62</v>
       </c>
       <c r="V84" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W84" s="4" t="s">
         <v>64</v>
@@ -10185,7 +10185,7 @@
         <v>66</v>
       </c>
       <c r="Y84" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="2:25" x14ac:dyDescent="0.3">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J85" s="4">
         <v>3.56E-2</v>
@@ -10215,7 +10215,7 @@
         <v>25</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P85" s="4">
         <v>1.8E-3</v>
@@ -10233,7 +10233,7 @@
         <v>49</v>
       </c>
       <c r="U85" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="V85" s="4">
         <v>0.215</v>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J86" s="4">
         <v>7.4999999999999997E-3</v>
@@ -10275,7 +10275,7 @@
         <v>26</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P86" s="4">
         <v>4.3E-3</v>
@@ -10293,7 +10293,7 @@
         <v>50</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V86" s="4">
         <v>6.9999999999999999E-4</v>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J87" s="4">
         <v>0.01</v>
@@ -10335,7 +10335,7 @@
         <v>27</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P87" s="4">
         <v>0</v>
@@ -10353,7 +10353,7 @@
         <v>51</v>
       </c>
       <c r="U87" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V87" s="4">
         <v>1.9E-3</v>
@@ -10370,14 +10370,14 @@
     </row>
     <row r="88" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G88" s="4">
         <v>4</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J88" s="4">
         <v>1.35E-2</v>
@@ -10395,7 +10395,7 @@
         <v>28</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P88" s="4">
         <v>4.1999999999999997E-3</v>
@@ -10413,7 +10413,7 @@
         <v>52</v>
       </c>
       <c r="U88" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V88" s="4">
         <v>7.8799999999999995E-2</v>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J89" s="4">
         <v>1.35E-2</v>
@@ -10455,7 +10455,7 @@
         <v>29</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P89" s="4">
         <v>1.8E-3</v>
@@ -10473,7 +10473,7 @@
         <v>53</v>
       </c>
       <c r="U89" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V89" s="4">
         <v>2.0400000000000001E-2</v>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J90" s="4">
         <v>1.9099999999999999E-2</v>
@@ -10515,7 +10515,7 @@
         <v>30</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P90" s="4">
         <v>1.6000000000000001E-3</v>
@@ -10533,7 +10533,7 @@
         <v>54</v>
       </c>
       <c r="U90" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V90" s="4">
         <v>0.1368</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J91" s="4">
         <v>2.4299999999999999E-2</v>
@@ -10575,7 +10575,7 @@
         <v>31</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P91" s="4">
         <v>2.5000000000000001E-3</v>
@@ -10593,7 +10593,7 @@
         <v>55</v>
       </c>
       <c r="U91" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V91" s="4">
         <v>4.0000000000000001E-3</v>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J92" s="4">
         <v>1.5E-3</v>
@@ -10635,7 +10635,7 @@
         <v>32</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P92" s="4">
         <v>1.8E-3</v>
@@ -10653,7 +10653,7 @@
         <v>56</v>
       </c>
       <c r="U92" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V92" s="4">
         <v>8.0000000000000004E-4</v>
@@ -10670,14 +10670,14 @@
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="G93" s="4">
         <v>9</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J93" s="4">
         <v>5.4000000000000003E-3</v>
@@ -10695,7 +10695,7 @@
         <v>33</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P93" s="4">
         <v>2.2000000000000001E-3</v>
@@ -10713,7 +10713,7 @@
         <v>57</v>
       </c>
       <c r="U93" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V93" s="4">
         <v>2.3800000000000002E-2</v>
@@ -10730,14 +10730,14 @@
     </row>
     <row r="94" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G94" s="4">
         <v>10</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J94" s="4">
         <v>1.6E-2</v>
@@ -10755,7 +10755,7 @@
         <v>34</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P94" s="4">
         <v>5.0000000000000001E-3</v>
@@ -10773,7 +10773,7 @@
         <v>58</v>
       </c>
       <c r="U94" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V94" s="4">
         <v>1.6000000000000001E-3</v>
@@ -10790,14 +10790,14 @@
     </row>
     <row r="95" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G95" s="4">
         <v>11</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J95" s="4">
         <v>9.4999999999999998E-3</v>
@@ -10815,7 +10815,7 @@
         <v>35</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P95" s="4">
         <v>0.67379999999999995</v>
@@ -10833,7 +10833,7 @@
         <v>59</v>
       </c>
       <c r="U95" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V95" s="4">
         <v>5.9999999999999995E-4</v>
@@ -10850,14 +10850,14 @@
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G96" s="4">
         <v>12</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J96" s="4">
         <v>9.4999999999999998E-3</v>
@@ -10875,7 +10875,7 @@
         <v>36</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P96" s="4">
         <v>1.34E-2</v>
@@ -10893,7 +10893,7 @@
         <v>60</v>
       </c>
       <c r="U96" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V96" s="4">
         <v>5.9999999999999995E-4</v>
@@ -10910,14 +10910,14 @@
     </row>
     <row r="97" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G97" s="4">
         <v>13</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J97" s="4">
         <v>0.05</v>
@@ -10935,7 +10935,7 @@
         <v>37</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P97" s="4">
         <v>1.34E-2</v>
@@ -10953,7 +10953,7 @@
         <v>61</v>
       </c>
       <c r="U97" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V97" s="4">
         <v>1.6000000000000001E-3</v>
@@ -10970,14 +10970,14 @@
     </row>
     <row r="98" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G98" s="4">
         <v>14</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J98" s="4">
         <v>3.0000000000000001E-3</v>
@@ -10995,7 +10995,7 @@
         <v>38</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P98" s="4">
         <v>8.0000000000000002E-3</v>
@@ -11013,7 +11013,7 @@
         <v>62</v>
       </c>
       <c r="U98" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V98" s="4">
         <v>5.9999999999999995E-4</v>
@@ -11030,14 +11030,14 @@
     </row>
     <row r="99" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G99" s="4">
         <v>15</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J99" s="4">
         <v>3.8999999999999998E-3</v>
@@ -11055,7 +11055,7 @@
         <v>39</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P99" s="4">
         <v>5.4000000000000003E-3</v>
@@ -11073,7 +11073,7 @@
         <v>63</v>
       </c>
       <c r="U99" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V99" s="4">
         <v>5.9999999999999995E-4</v>
@@ -11090,14 +11090,14 @@
     </row>
     <row r="100" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G100" s="4">
         <v>16</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J100" s="4">
         <v>6.7999999999999996E-3</v>
@@ -11115,7 +11115,7 @@
         <v>40</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P100" s="4">
         <v>0.31979999999999997</v>
@@ -11133,7 +11133,7 @@
         <v>64</v>
       </c>
       <c r="U100" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V100" s="4">
         <v>0</v>
@@ -11150,14 +11150,14 @@
     </row>
     <row r="101" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G101" s="4">
         <v>17</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J101" s="4">
         <v>5.7999999999999996E-3</v>
@@ -11175,7 +11175,7 @@
         <v>41</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P101" s="4">
         <v>1.34E-2</v>
@@ -11193,7 +11193,7 @@
         <v>65</v>
       </c>
       <c r="U101" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V101" s="4">
         <v>1.6000000000000001E-3</v>
@@ -11210,14 +11210,14 @@
     </row>
     <row r="102" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G102" s="4">
         <v>18</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J102" s="4">
         <v>2.6599999999999999E-2</v>
@@ -11235,7 +11235,7 @@
         <v>42</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P102" s="4">
         <v>1.34E-2</v>
@@ -11253,7 +11253,7 @@
         <v>66</v>
       </c>
       <c r="U102" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V102" s="4">
         <v>5.0000000000000001E-4</v>
@@ -11270,14 +11270,14 @@
     </row>
     <row r="103" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G103" s="4">
         <v>19</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J103" s="4">
         <v>1.9E-3</v>
@@ -11295,7 +11295,7 @@
         <v>43</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P103" s="4">
         <v>8.0000000000000002E-3</v>
@@ -11313,7 +11313,7 @@
         <v>67</v>
       </c>
       <c r="U103" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V103" s="4">
         <v>5.0000000000000001E-4</v>
@@ -11330,14 +11330,14 @@
     </row>
     <row r="104" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G104" s="4">
         <v>20</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J104" s="4">
         <v>5.5999999999999999E-3</v>
@@ -11355,7 +11355,7 @@
         <v>44</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P104" s="4">
         <v>5.4000000000000003E-3</v>
@@ -11373,7 +11373,7 @@
         <v>68</v>
       </c>
       <c r="U104" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V104" s="4">
         <v>1.1000000000000001E-3</v>
@@ -11390,14 +11390,14 @@
     </row>
     <row r="105" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G105" s="4">
         <v>21</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J105" s="4">
         <v>3.3999999999999998E-3</v>
@@ -11415,7 +11415,7 @@
         <v>45</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P105" s="4">
         <v>0.2205</v>
@@ -11433,7 +11433,7 @@
         <v>69</v>
       </c>
       <c r="U105" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V105" s="4">
         <v>1E-4</v>
@@ -11450,14 +11450,14 @@
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G106" s="4">
         <v>22</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J106" s="4">
         <v>7.0000000000000001E-3</v>
@@ -11475,7 +11475,7 @@
         <v>46</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P106" s="4">
         <v>1.2699999999999999E-2</v>
@@ -11493,7 +11493,7 @@
         <v>70</v>
       </c>
       <c r="U106" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V106" s="4">
         <v>1.6000000000000001E-3</v>
@@ -11510,14 +11510,14 @@
     </row>
     <row r="107" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G107" s="4">
         <v>23</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J107" s="4">
         <v>7.6E-3</v>
@@ -11535,7 +11535,7 @@
         <v>47</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P107" s="4">
         <v>1.2699999999999999E-2</v>
@@ -11553,7 +11553,7 @@
         <v>71</v>
       </c>
       <c r="U107" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V107" s="4">
         <v>1.5E-3</v>
@@ -11570,14 +11570,14 @@
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G108" s="4">
         <v>24</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J108" s="4">
         <v>2.7000000000000001E-3</v>
@@ -11595,7 +11595,7 @@
         <v>48</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P108" s="4">
         <v>2.5000000000000001E-3</v>
@@ -11612,12 +11612,12 @@
     </row>
     <row r="109" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K110">
         <f>ROUND(K85,2)</f>
@@ -11634,381 +11634,381 @@
     </row>
     <row r="111" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K111">
-        <f t="shared" ref="K111:K132" si="11">ROUND(K86,2)</f>
+        <f t="shared" ref="K111:K132" si="13">ROUND(K86,2)</f>
         <v>230.27</v>
       </c>
       <c r="Q111">
-        <f t="shared" ref="Q111:Q132" si="12">ROUND(Q86,2)</f>
+        <f t="shared" ref="Q111:Q132" si="14">ROUND(Q86,2)</f>
         <v>230.27</v>
       </c>
       <c r="W111">
-        <f t="shared" ref="W111:W132" si="13">ROUND(W86,2)</f>
+        <f t="shared" ref="W111:W132" si="15">ROUND(W86,2)</f>
         <v>230.27</v>
       </c>
     </row>
     <row r="112" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
+        <v>93</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="14"/>
+        <v>188.41</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="15"/>
+        <v>188.41</v>
+      </c>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
         <v>94</v>
       </c>
-      <c r="K112">
-        <f t="shared" si="11"/>
+      <c r="K113">
+        <f t="shared" si="13"/>
         <v>230.27</v>
       </c>
-      <c r="Q112">
-        <f t="shared" si="12"/>
+      <c r="Q113">
+        <f t="shared" si="14"/>
         <v>188.41</v>
       </c>
-      <c r="W112">
+      <c r="W113">
+        <f t="shared" si="15"/>
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>95</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="14"/>
+        <v>230.27</v>
+      </c>
+      <c r="W114">
+        <f t="shared" si="15"/>
+        <v>188.41</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>421</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="14"/>
+        <v>230.27</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="15"/>
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>93</v>
+      </c>
+      <c r="K116">
         <f t="shared" si="13"/>
         <v>188.41</v>
       </c>
-    </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
+      <c r="Q116">
+        <f t="shared" si="14"/>
+        <v>230.27</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="15"/>
+        <v>188.41</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>93</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="14"/>
+        <v>230.27</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="15"/>
+        <v>188.41</v>
+      </c>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>94</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="14"/>
+        <v>230.27</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="15"/>
+        <v>188.41</v>
+      </c>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
         <v>95</v>
       </c>
-      <c r="K113">
-        <f t="shared" si="11"/>
+      <c r="K119">
+        <f t="shared" si="13"/>
         <v>230.27</v>
       </c>
-      <c r="Q113">
-        <f t="shared" si="12"/>
+      <c r="Q119">
+        <f t="shared" si="14"/>
         <v>188.41</v>
       </c>
-      <c r="W113">
+      <c r="W119">
+        <f t="shared" si="15"/>
+        <v>188.41</v>
+      </c>
+    </row>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>420</v>
+      </c>
+      <c r="K120">
         <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="14"/>
         <v>125.6</v>
       </c>
-    </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
+      <c r="W120">
+        <f t="shared" si="15"/>
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
         <v>96</v>
       </c>
-      <c r="K114">
-        <f t="shared" si="11"/>
+      <c r="K121">
+        <f t="shared" si="13"/>
         <v>230.27</v>
       </c>
-      <c r="Q114">
-        <f t="shared" si="12"/>
+      <c r="Q121">
+        <f t="shared" si="14"/>
         <v>230.27</v>
       </c>
-      <c r="W114">
+      <c r="W121">
+        <f t="shared" si="15"/>
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>96</v>
+      </c>
+      <c r="K122">
         <f t="shared" si="13"/>
         <v>188.41</v>
       </c>
-    </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>422</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="11"/>
+      <c r="Q122">
+        <f t="shared" si="14"/>
         <v>230.27</v>
       </c>
-      <c r="Q115">
-        <f t="shared" si="12"/>
+      <c r="W122">
+        <f t="shared" si="15"/>
+        <v>188.41</v>
+      </c>
+    </row>
+    <row r="123" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>97</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="13"/>
         <v>230.27</v>
       </c>
-      <c r="W115">
+      <c r="Q123">
+        <f t="shared" si="14"/>
+        <v>230.27</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="15"/>
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>425</v>
+      </c>
+      <c r="K124">
         <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="14"/>
+        <v>188.41</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="15"/>
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>98</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="14"/>
         <v>125.6</v>
       </c>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>94</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="11"/>
+      <c r="W125">
+        <f t="shared" si="15"/>
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>99</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="14"/>
+        <v>230.27</v>
+      </c>
+      <c r="W126">
+        <f t="shared" si="15"/>
         <v>188.41</v>
       </c>
-      <c r="Q116">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
-      <c r="W116">
+    </row>
+    <row r="127" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>424</v>
+      </c>
+      <c r="K127">
         <f t="shared" si="13"/>
         <v>188.41</v>
       </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>94</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="11"/>
+      <c r="Q127">
+        <f t="shared" si="14"/>
         <v>230.27</v>
       </c>
-      <c r="Q117">
-        <f t="shared" si="12"/>
+      <c r="W127">
+        <f t="shared" si="15"/>
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>100</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="13"/>
         <v>230.27</v>
       </c>
-      <c r="W117">
+      <c r="Q128">
+        <f t="shared" si="14"/>
+        <v>230.27</v>
+      </c>
+      <c r="W128">
+        <f t="shared" si="15"/>
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="129" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="14"/>
+        <v>188.41</v>
+      </c>
+      <c r="W129">
+        <f t="shared" si="15"/>
+        <v>188.41</v>
+      </c>
+    </row>
+    <row r="130" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>102</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="14"/>
+        <v>125.6</v>
+      </c>
+      <c r="W130">
+        <f t="shared" si="15"/>
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>103</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="13"/>
+        <v>230.27</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="14"/>
+        <v>230.27</v>
+      </c>
+      <c r="W131">
+        <f t="shared" si="15"/>
+        <v>188.41</v>
+      </c>
+    </row>
+    <row r="132" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>104</v>
+      </c>
+      <c r="K132">
         <f t="shared" si="13"/>
         <v>188.41</v>
       </c>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>95</v>
-      </c>
-      <c r="K118">
-        <f t="shared" si="11"/>
+      <c r="Q132">
+        <f t="shared" si="14"/>
         <v>230.27</v>
       </c>
-      <c r="Q118">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
-      <c r="W118">
-        <f t="shared" si="13"/>
-        <v>188.41</v>
-      </c>
-    </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>96</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q119">
-        <f t="shared" si="12"/>
-        <v>188.41</v>
-      </c>
-      <c r="W119">
-        <f t="shared" si="13"/>
-        <v>188.41</v>
-      </c>
-    </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>421</v>
-      </c>
-      <c r="K120">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q120">
-        <f t="shared" si="12"/>
-        <v>125.6</v>
-      </c>
-      <c r="W120">
-        <f t="shared" si="13"/>
-        <v>167.47</v>
-      </c>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>97</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q121">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
-      <c r="W121">
-        <f t="shared" si="13"/>
-        <v>167.47</v>
-      </c>
-    </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>97</v>
-      </c>
-      <c r="K122">
-        <f t="shared" si="11"/>
-        <v>188.41</v>
-      </c>
-      <c r="Q122">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
-      <c r="W122">
-        <f t="shared" si="13"/>
-        <v>188.41</v>
-      </c>
-    </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>98</v>
-      </c>
-      <c r="K123">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q123">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
-      <c r="W123">
-        <f t="shared" si="13"/>
-        <v>167.47</v>
-      </c>
-    </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
-        <v>427</v>
-      </c>
-      <c r="K124">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q124">
-        <f t="shared" si="12"/>
-        <v>188.41</v>
-      </c>
-      <c r="W124">
-        <f t="shared" si="13"/>
-        <v>167.47</v>
-      </c>
-    </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>99</v>
-      </c>
-      <c r="K125">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q125">
-        <f t="shared" si="12"/>
-        <v>125.6</v>
-      </c>
-      <c r="W125">
-        <f t="shared" si="13"/>
-        <v>167.47</v>
-      </c>
-    </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>100</v>
-      </c>
-      <c r="K126">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q126">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
-      <c r="W126">
-        <f t="shared" si="13"/>
-        <v>188.41</v>
-      </c>
-    </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>426</v>
-      </c>
-      <c r="K127">
-        <f t="shared" si="11"/>
-        <v>188.41</v>
-      </c>
-      <c r="Q127">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
-      <c r="W127">
-        <f t="shared" si="13"/>
-        <v>167.47</v>
-      </c>
-    </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>101</v>
-      </c>
-      <c r="K128">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q128">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
-      <c r="W128">
-        <f t="shared" si="13"/>
-        <v>167.47</v>
-      </c>
-    </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
-        <v>102</v>
-      </c>
-      <c r="K129">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q129">
-        <f t="shared" si="12"/>
-        <v>188.41</v>
-      </c>
-      <c r="W129">
-        <f t="shared" si="13"/>
-        <v>188.41</v>
-      </c>
-    </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>103</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q130">
-        <f t="shared" si="12"/>
-        <v>125.6</v>
-      </c>
-      <c r="W130">
-        <f t="shared" si="13"/>
-        <v>167.47</v>
-      </c>
-    </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>104</v>
-      </c>
-      <c r="K131">
-        <f t="shared" si="11"/>
-        <v>230.27</v>
-      </c>
-      <c r="Q131">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
-      <c r="W131">
-        <f t="shared" si="13"/>
-        <v>188.41</v>
-      </c>
-    </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>105</v>
-      </c>
-      <c r="K132">
-        <f t="shared" si="11"/>
-        <v>188.41</v>
-      </c>
-      <c r="Q132">
-        <f t="shared" si="12"/>
-        <v>230.27</v>
-      </c>
       <c r="W132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>125.6</v>
       </c>
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K133">
         <f>ROUND(K108,2)</f>
@@ -12025,67 +12025,67 @@
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -12098,8 +12098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3351FFCC-F9DB-48D4-B030-1CA8F6FD42C3}">
   <dimension ref="A1:AB106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:AB83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12112,49 +12112,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>372</v>
+        <v>120</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -12195,15 +12195,15 @@
         <v>67</v>
       </c>
       <c r="M3" t="str">
-        <f>_xlfn.CONCAT(B3,L3)</f>
+        <f t="shared" ref="M3:M27" si="0">_xlfn.CONCAT(B3,L3)</f>
         <v>156.313,</v>
       </c>
       <c r="N3" t="str">
-        <f>_xlfn.CONCAT(C3,L3)</f>
+        <f t="shared" ref="N3:N27" si="1">_xlfn.CONCAT(C3,L3)</f>
         <v>0.7439,</v>
       </c>
       <c r="O3" t="str">
-        <f>_xlfn.CONCAT(D3,L3)</f>
+        <f t="shared" ref="O3:O27" si="2">_xlfn.CONCAT(D3,L3)</f>
         <v>-14.1,</v>
       </c>
       <c r="P3" t="s">
@@ -12213,7 +12213,7 @@
         <v>33</v>
       </c>
       <c r="R3" t="str">
-        <f>_xlfn.CONCAT(P3,E3,L3,F3,L3,G3,L3,H3,Q3,L3)</f>
+        <f t="shared" ref="R3:R26" si="3">_xlfn.CONCAT(P3,E3,L3,F3,L3,G3,L3,H3,Q3,L3)</f>
         <v>(-8.395,1.054,-0.0005799,0.0001237),</v>
       </c>
       <c r="V3" t="str">
@@ -12263,15 +12263,15 @@
         <v>67</v>
       </c>
       <c r="M4" t="str">
-        <f>_xlfn.CONCAT(B4,L4)</f>
+        <f t="shared" si="0"/>
         <v>142.286,</v>
       </c>
       <c r="N4" t="str">
-        <f>_xlfn.CONCAT(C4,L4)</f>
+        <f t="shared" si="1"/>
         <v>0.7342,</v>
       </c>
       <c r="O4" t="str">
-        <f>_xlfn.CONCAT(D4,L4)</f>
+        <f t="shared" si="2"/>
         <v>-16.01,</v>
       </c>
       <c r="P4" t="s">
@@ -12281,15 +12281,15 @@
         <v>33</v>
       </c>
       <c r="R4" t="str">
-        <f>_xlfn.CONCAT(P4,E4,L4,F4,L4,G4,L4,H4,Q4,L4)</f>
+        <f t="shared" si="3"/>
         <v>(-7.913,0.9609,-0.0005288,0.0000001131),</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" ref="V4:V27" si="0">_xlfn.CONCAT(J4,L4)</f>
+        <f t="shared" ref="V4:V27" si="4">_xlfn.CONCAT(J4,L4)</f>
         <v>16,</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W27" si="1">_xlfn.CONCAT(K4,L4)</f>
+        <f t="shared" ref="W4:W27" si="5">_xlfn.CONCAT(K4,L4)</f>
         <v>0.11,</v>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
       <c r="I5" s="5">
         <v>-229200</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>30</v>
       </c>
       <c r="K5" s="1">
@@ -12331,15 +12331,15 @@
         <v>67</v>
       </c>
       <c r="M5" t="str">
-        <f>_xlfn.CONCAT(B5,L5)</f>
+        <f t="shared" si="0"/>
         <v>128.259,</v>
       </c>
       <c r="N5" t="str">
-        <f>_xlfn.CONCAT(C5,L5)</f>
+        <f t="shared" si="1"/>
         <v>0.7217,</v>
       </c>
       <c r="O5" t="str">
-        <f>_xlfn.CONCAT(D5,L5)</f>
+        <f t="shared" si="2"/>
         <v>-17,</v>
       </c>
       <c r="P5" t="s">
@@ -12349,15 +12349,15 @@
         <v>33</v>
       </c>
       <c r="R5" t="str">
-        <f>_xlfn.CONCAT(P5,E5,L5,F5,L5,G5,L5,H5,Q5,L5)</f>
+        <f t="shared" si="3"/>
         <v>(-8.374,0.8729,-0.0004826,0.0000001031),</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>30,</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.1,</v>
       </c>
     </row>
@@ -12399,15 +12399,15 @@
         <v>67</v>
       </c>
       <c r="M6" t="str">
-        <f>_xlfn.CONCAT(B6,L6)</f>
+        <f t="shared" si="0"/>
         <v>114.232,</v>
       </c>
       <c r="N6" t="str">
-        <f>_xlfn.CONCAT(C6,L6)</f>
+        <f t="shared" si="1"/>
         <v>0.7068,</v>
       </c>
       <c r="O6" t="str">
-        <f>_xlfn.CONCAT(D6,L6)</f>
+        <f t="shared" si="2"/>
         <v>-19,</v>
       </c>
       <c r="P6" t="s">
@@ -12417,15 +12417,15 @@
         <v>33</v>
       </c>
       <c r="R6" t="str">
-        <f>_xlfn.CONCAT(P6,E6,L6,F6,L6,G6,L6,H6,Q6,L6)</f>
+        <f t="shared" si="3"/>
         <v>(-6.096,0.7712,-0.0004195,0.00000008855),</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>36,</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
     </row>
@@ -12467,15 +12467,15 @@
         <v>67</v>
       </c>
       <c r="M7" t="str">
-        <f>_xlfn.CONCAT(B7,L7)</f>
+        <f t="shared" si="0"/>
         <v>100.205,</v>
       </c>
       <c r="N7" t="str">
-        <f>_xlfn.CONCAT(C7,L7)</f>
+        <f t="shared" si="1"/>
         <v>0.6882,</v>
       </c>
       <c r="O7" t="str">
-        <f>_xlfn.CONCAT(D7,L7)</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="P7" t="s">
@@ -12485,15 +12485,15 @@
         <v>33</v>
       </c>
       <c r="R7" t="str">
-        <f>_xlfn.CONCAT(P7,E7,L7,F7,L7,G7,L7,H7,Q7,L7)</f>
+        <f t="shared" si="3"/>
         <v>(-5.146,0.6762,-0.0003651,0.00000007658),</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>50,</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.1,</v>
       </c>
     </row>
@@ -12535,15 +12535,15 @@
         <v>67</v>
       </c>
       <c r="M8" t="str">
-        <f>_xlfn.CONCAT(B8,L8)</f>
+        <f t="shared" si="0"/>
         <v>86.178,</v>
       </c>
       <c r="N8" t="str">
-        <f>_xlfn.CONCAT(C8,L8)</f>
+        <f t="shared" si="1"/>
         <v>0.664,</v>
       </c>
       <c r="O8" t="str">
-        <f>_xlfn.CONCAT(D8,L8)</f>
+        <f t="shared" si="2"/>
         <v>24.8,</v>
       </c>
       <c r="P8" t="s">
@@ -12553,15 +12553,15 @@
         <v>33</v>
       </c>
       <c r="R8" t="str">
-        <f>_xlfn.CONCAT(P8,E8,L8,F8,L8,G8,L8,H8,Q8,L8)</f>
+        <f t="shared" si="3"/>
         <v>(-4.413,0.582,-0.0003119,0.00000006494),</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70,</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
     </row>
@@ -12603,15 +12603,15 @@
         <v>67</v>
       </c>
       <c r="M9" t="str">
-        <f>_xlfn.CONCAT(B9,L9)</f>
+        <f t="shared" si="0"/>
         <v>72.151,</v>
       </c>
       <c r="N9" t="str">
-        <f>_xlfn.CONCAT(C9,L9)</f>
+        <f t="shared" si="1"/>
         <v>0.631,</v>
       </c>
       <c r="O9" t="str">
-        <f>_xlfn.CONCAT(D9,L9)</f>
+        <f t="shared" si="2"/>
         <v>61.7,</v>
       </c>
       <c r="P9" t="s">
@@ -12621,15 +12621,15 @@
         <v>33</v>
       </c>
       <c r="R9" t="str">
-        <f>_xlfn.CONCAT(P9,E9,L9,F9,L9,G9,L9,H9,Q9,L9)</f>
+        <f t="shared" si="3"/>
         <v>(-3.626,0.4873,-0.000258,0.00000005305),</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>80,</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.16,</v>
       </c>
     </row>
@@ -12671,15 +12671,15 @@
         <v>67</v>
       </c>
       <c r="M10" t="str">
-        <f>_xlfn.CONCAT(B10,L10)</f>
+        <f t="shared" si="0"/>
         <v>58.124,</v>
       </c>
       <c r="N10" t="str">
-        <f>_xlfn.CONCAT(C10,L10)</f>
+        <f t="shared" si="1"/>
         <v>0.5844,</v>
       </c>
       <c r="O10" t="str">
-        <f>_xlfn.CONCAT(D10,L10)</f>
+        <f t="shared" si="2"/>
         <v>93.8,</v>
       </c>
       <c r="P10" t="s">
@@ -12689,15 +12689,15 @@
         <v>33</v>
       </c>
       <c r="R10" t="str">
-        <f>_xlfn.CONCAT(P10,E10,L10,F10,L10,G10,L10,H10,Q10,L10)</f>
+        <f t="shared" si="3"/>
         <v>(9.487,0.3313,-0.0001108,-0.000000002822),</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>90,</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.17,</v>
       </c>
     </row>
@@ -12739,15 +12739,15 @@
         <v>67</v>
       </c>
       <c r="M11" t="str">
-        <f>_xlfn.CONCAT(B11,L11)</f>
+        <f t="shared" si="0"/>
         <v>44.094,</v>
       </c>
       <c r="N11" t="str">
-        <f>_xlfn.CONCAT(C11,L11)</f>
+        <f t="shared" si="1"/>
         <v>0.5077,</v>
       </c>
       <c r="O11" t="str">
-        <f>_xlfn.CONCAT(D11,L11)</f>
+        <f t="shared" si="2"/>
         <v>98.9,</v>
       </c>
       <c r="P11" t="s">
@@ -12757,15 +12757,15 @@
         <v>33</v>
       </c>
       <c r="R11" t="str">
-        <f>_xlfn.CONCAT(P11,E11,L11,F11,L11,G11,L11,H11,Q11,L11)</f>
+        <f t="shared" si="3"/>
         <v>(-4.224,0.3063,-0.0001586,0.00000003215),</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>105.7,</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.09,</v>
       </c>
     </row>
@@ -12807,15 +12807,15 @@
         <v>67</v>
       </c>
       <c r="M12" t="str">
-        <f>_xlfn.CONCAT(B12,L12)</f>
+        <f t="shared" si="0"/>
         <v>30.07,</v>
       </c>
       <c r="N12" t="str">
-        <f>_xlfn.CONCAT(C12,L12)</f>
+        <f t="shared" si="1"/>
         <v>0.3564,</v>
       </c>
       <c r="O12" t="str">
-        <f>_xlfn.CONCAT(D12,L12)</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="P12" t="s">
@@ -12825,15 +12825,15 @@
         <v>33</v>
       </c>
       <c r="R12" t="str">
-        <f>_xlfn.CONCAT(P12,E12,L12,F12,L12,G12,L12,H12,Q12,L12)</f>
+        <f t="shared" si="3"/>
         <v>(5.409,0.1781,-0.00006938,0.000000008713),</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>107.1,</v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
     </row>
@@ -12875,15 +12875,15 @@
         <v>67</v>
       </c>
       <c r="M13" t="str">
-        <f>_xlfn.CONCAT(B13,L13)</f>
+        <f t="shared" si="0"/>
         <v>16.043,</v>
       </c>
       <c r="N13" t="str">
-        <f>_xlfn.CONCAT(C13,L13)</f>
+        <f t="shared" si="1"/>
         <v>0.3,</v>
       </c>
       <c r="O13" t="str">
-        <f>_xlfn.CONCAT(D13,L13)</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="P13" t="s">
@@ -12893,15 +12893,15 @@
         <v>33</v>
       </c>
       <c r="R13" t="str">
-        <f>_xlfn.CONCAT(P13,E13,L13,F13,L13,G13,L13,H13,Q13,L13)</f>
+        <f t="shared" si="3"/>
         <v>(19.25,0.05213,0.00001197,-0.00000001132),</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>107.1,</v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
     </row>
@@ -12943,15 +12943,15 @@
         <v>67</v>
       </c>
       <c r="M14" t="str">
-        <f>_xlfn.CONCAT(B14,L14)</f>
+        <f t="shared" si="0"/>
         <v>154.297,</v>
       </c>
       <c r="N14" t="str">
-        <f>_xlfn.CONCAT(C14,L14)</f>
+        <f t="shared" si="1"/>
         <v>0.8006,</v>
       </c>
       <c r="O14" t="str">
-        <f>_xlfn.CONCAT(D14,L14)</f>
+        <f t="shared" si="2"/>
         <v>70,</v>
       </c>
       <c r="P14" t="s">
@@ -12961,15 +12961,15 @@
         <v>33</v>
       </c>
       <c r="R14" t="str">
-        <f>_xlfn.CONCAT(P14,E14,L14,F14,L14,G14,L14,H14,Q14,L14)</f>
+        <f t="shared" si="3"/>
         <v>(-58.32,1.128,-0.0006536,0.0000001473),</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>60,</v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.11,</v>
       </c>
     </row>
@@ -13011,15 +13011,15 @@
         <v>67</v>
       </c>
       <c r="M15" t="str">
-        <f>_xlfn.CONCAT(B15,L15)</f>
+        <f t="shared" si="0"/>
         <v>140.26,</v>
       </c>
       <c r="N15" t="str">
-        <f>_xlfn.CONCAT(C15,L15)</f>
+        <f t="shared" si="1"/>
         <v>0.8031,</v>
       </c>
       <c r="O15" t="str">
-        <f>_xlfn.CONCAT(D15,L15)</f>
+        <f t="shared" si="2"/>
         <v>70.31,</v>
       </c>
       <c r="P15" t="s">
@@ -13029,15 +13029,15 @@
         <v>33</v>
       </c>
       <c r="R15" t="str">
-        <f>_xlfn.CONCAT(P15,E15,L15,F15,L15,G15,L15,H15,Q15,L15)</f>
+        <f t="shared" si="3"/>
         <v>(-62.96,1.081,-0.0006305,0.00000014),</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>60,</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.11,</v>
       </c>
     </row>
@@ -13079,15 +13079,15 @@
         <v>67</v>
       </c>
       <c r="M16" t="str">
-        <f>_xlfn.CONCAT(B16,L16)</f>
+        <f t="shared" si="0"/>
         <v>126.243,</v>
       </c>
       <c r="N16" t="str">
-        <f>_xlfn.CONCAT(C16,L16)</f>
+        <f t="shared" si="1"/>
         <v>0.7977,</v>
       </c>
       <c r="O16" t="str">
-        <f>_xlfn.CONCAT(D16,L16)</f>
+        <f t="shared" si="2"/>
         <v>17.8,</v>
       </c>
       <c r="P16" t="s">
@@ -13097,15 +13097,15 @@
         <v>33</v>
       </c>
       <c r="R16" t="str">
-        <f>_xlfn.CONCAT(P16,E16,L16,F16,L16,G16,L16,H16,Q16,L16)</f>
+        <f t="shared" si="3"/>
         <v>(-62.52,0.9889,-0.0005795,0.0000001291),</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>75,</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.11,</v>
       </c>
     </row>
@@ -13147,15 +13147,15 @@
         <v>67</v>
       </c>
       <c r="M17" t="str">
-        <f>_xlfn.CONCAT(B17,L17)</f>
+        <f t="shared" si="0"/>
         <v>112.216,</v>
       </c>
       <c r="N17" t="str">
-        <f>_xlfn.CONCAT(C17,L17)</f>
+        <f t="shared" si="1"/>
         <v>0.7922,</v>
       </c>
       <c r="O17" t="str">
-        <f>_xlfn.CONCAT(D17,L17)</f>
+        <f t="shared" si="2"/>
         <v>45.6,</v>
       </c>
       <c r="P17" t="s">
@@ -13165,15 +13165,15 @@
         <v>33</v>
       </c>
       <c r="R17" t="str">
-        <f>_xlfn.CONCAT(P17,E17,L17,F17,L17,G17,L17,H17,Q17,L17)</f>
+        <f t="shared" si="3"/>
         <v>(-63.89,0.8893,-0.0005108,0.0000001103),</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>80,</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.11,</v>
       </c>
     </row>
@@ -13215,15 +13215,15 @@
         <v>67</v>
       </c>
       <c r="M18" t="str">
-        <f>_xlfn.CONCAT(B18,L18)</f>
+        <f t="shared" si="0"/>
         <v>98.189,</v>
       </c>
       <c r="N18" t="str">
-        <f>_xlfn.CONCAT(C18,L18)</f>
+        <f t="shared" si="1"/>
         <v>0.774,</v>
       </c>
       <c r="O18" t="str">
-        <f>_xlfn.CONCAT(D18,L18)</f>
+        <f t="shared" si="2"/>
         <v>74.8,</v>
       </c>
       <c r="P18" t="s">
@@ -13233,15 +13233,15 @@
         <v>33</v>
       </c>
       <c r="R18" t="str">
-        <f>_xlfn.CONCAT(P18,E18,L18,F18,L18,G18,L18,H18,Q18,L18)</f>
+        <f t="shared" si="3"/>
         <v>(-61.92,0.7842,-0.0004538,0.00000009366),</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>85,</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.13,</v>
       </c>
     </row>
@@ -13283,15 +13283,15 @@
         <v>67</v>
       </c>
       <c r="M19" t="str">
-        <f>_xlfn.CONCAT(B19,L19)</f>
+        <f t="shared" si="0"/>
         <v>84.162,</v>
       </c>
       <c r="N19" t="str">
-        <f>_xlfn.CONCAT(C19,L19)</f>
+        <f t="shared" si="1"/>
         <v>0.7834,</v>
       </c>
       <c r="O19" t="str">
-        <f>_xlfn.CONCAT(D19,L19)</f>
+        <f t="shared" si="2"/>
         <v>83,</v>
       </c>
       <c r="P19" t="s">
@@ -13301,21 +13301,21 @@
         <v>33</v>
       </c>
       <c r="R19" t="str">
-        <f>_xlfn.CONCAT(P19,E19,L19,F19,L19,G19,L19,H19,Q19,L19)</f>
+        <f t="shared" si="3"/>
         <v>(-54.54,0.6113,-0.0002523,0.00000001321),</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>67.2,</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.08,</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" s="4">
         <v>84.162000000000006</v>
@@ -13351,15 +13351,15 @@
         <v>67</v>
       </c>
       <c r="M20" t="str">
-        <f>_xlfn.CONCAT(B20,L20)</f>
+        <f t="shared" si="0"/>
         <v>84.162,</v>
       </c>
       <c r="N20" t="str">
-        <f>_xlfn.CONCAT(C20,L20)</f>
+        <f t="shared" si="1"/>
         <v>0.7536,</v>
       </c>
       <c r="O20" t="str">
-        <f>_xlfn.CONCAT(D20,L20)</f>
+        <f t="shared" si="2"/>
         <v>91.3,</v>
       </c>
       <c r="P20" t="s">
@@ -13369,15 +13369,15 @@
         <v>33</v>
       </c>
       <c r="R20" t="str">
-        <f>_xlfn.CONCAT(P20,E20,L20,F20,L20,G20,L20,H20,Q20,L20)</f>
+        <f t="shared" si="3"/>
         <v>(-50.11,0.6381,-0.0003642,0.00000008014),</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>91.3,</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.15,</v>
       </c>
     </row>
@@ -13419,15 +13419,15 @@
         <v>67</v>
       </c>
       <c r="M21" t="str">
-        <f>_xlfn.CONCAT(B21,L21)</f>
+        <f t="shared" si="0"/>
         <v>148.25,</v>
       </c>
       <c r="N21" t="str">
-        <f>_xlfn.CONCAT(C21,L21)</f>
+        <f t="shared" si="1"/>
         <v>0.8624,</v>
       </c>
       <c r="O21" t="str">
-        <f>_xlfn.CONCAT(D21,L21)</f>
+        <f t="shared" si="2"/>
         <v>110,</v>
       </c>
       <c r="P21" t="s">
@@ -13437,15 +13437,15 @@
         <v>33</v>
       </c>
       <c r="R21" t="str">
-        <f>_xlfn.CONCAT(P21,E21,L21,F21,L21,G21,L21,H21,Q21,L21)</f>
+        <f t="shared" si="3"/>
         <v>(-42.18,0.9772,-0.0006262,0.000000157),</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>135,</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.8,</v>
       </c>
     </row>
@@ -13487,15 +13487,15 @@
         <v>67</v>
       </c>
       <c r="M22" t="str">
-        <f>_xlfn.CONCAT(B22,L22)</f>
+        <f t="shared" si="0"/>
         <v>134.222,</v>
       </c>
       <c r="N22" t="str">
-        <f>_xlfn.CONCAT(C22,L22)</f>
+        <f t="shared" si="1"/>
         <v>0.8646,</v>
       </c>
       <c r="O22" t="str">
-        <f>_xlfn.CONCAT(D22,L22)</f>
+        <f t="shared" si="2"/>
         <v>100.4,</v>
       </c>
       <c r="P22" t="s">
@@ -13505,15 +13505,15 @@
         <v>33</v>
       </c>
       <c r="R22" t="str">
-        <f>_xlfn.CONCAT(P22,E22,L22,F22,L22,G22,L22,H22,Q22,L22)</f>
+        <f t="shared" si="3"/>
         <v>(-22.99,0.7934,-0.0004396,0.0000000857),</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>129,</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.7,</v>
       </c>
     </row>
@@ -13555,15 +13555,15 @@
         <v>67</v>
       </c>
       <c r="M23" t="str">
-        <f>_xlfn.CONCAT(B23,L23)</f>
+        <f t="shared" si="0"/>
         <v>120.195,</v>
       </c>
       <c r="N23" t="str">
-        <f>_xlfn.CONCAT(C23,L23)</f>
+        <f t="shared" si="1"/>
         <v>0.8665,</v>
       </c>
       <c r="O23" t="str">
-        <f>_xlfn.CONCAT(D23,L23)</f>
+        <f t="shared" si="2"/>
         <v>101.5,</v>
       </c>
       <c r="P23" t="s">
@@ -13573,15 +13573,15 @@
         <v>33</v>
       </c>
       <c r="R23" t="str">
-        <f>_xlfn.CONCAT(P23,E23,L23,F23,L23,G23,L23,H23,Q23,L23)</f>
+        <f t="shared" si="3"/>
         <v>(-31.29,0.7486,-0.0004601,0.0000001081),</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>119,</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.6,</v>
       </c>
     </row>
@@ -13623,15 +13623,15 @@
         <v>67</v>
       </c>
       <c r="M24" t="str">
-        <f>_xlfn.CONCAT(B24,L24)</f>
+        <f t="shared" si="0"/>
         <v>106.168,</v>
       </c>
       <c r="N24" t="str">
-        <f>_xlfn.CONCAT(C24,L24)</f>
+        <f t="shared" si="1"/>
         <v>0.8718,</v>
       </c>
       <c r="O24" t="str">
-        <f>_xlfn.CONCAT(D24,L24)</f>
+        <f t="shared" si="2"/>
         <v>107.9,</v>
       </c>
       <c r="P24" t="s">
@@ -13641,15 +13641,15 @@
         <v>33</v>
       </c>
       <c r="R24" t="str">
-        <f>_xlfn.CONCAT(P24,E24,L24,F24,L24,G24,L24,H24,Q24,L24)</f>
+        <f t="shared" si="3"/>
         <v>(-43.1,0.7072,-0.0004811,0.0000001301),</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>120,</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.6,</v>
       </c>
     </row>
@@ -13691,15 +13691,15 @@
         <v>67</v>
       </c>
       <c r="M25" t="str">
-        <f>_xlfn.CONCAT(B25,L25)</f>
+        <f t="shared" si="0"/>
         <v>92.141,</v>
       </c>
       <c r="N25" t="str">
-        <f>_xlfn.CONCAT(C25,L25)</f>
+        <f t="shared" si="1"/>
         <v>0.8718,</v>
       </c>
       <c r="O25" t="str">
-        <f>_xlfn.CONCAT(D25,L25)</f>
+        <f t="shared" si="2"/>
         <v>120.1,</v>
       </c>
       <c r="P25" t="s">
@@ -13709,15 +13709,15 @@
         <v>33</v>
       </c>
       <c r="R25" t="str">
-        <f>_xlfn.CONCAT(P25,E25,L25,F25,L25,G25,L25,H25,Q25,L25)</f>
+        <f t="shared" si="3"/>
         <v>(-24.35,0.5125,-0.0002765,0.00000004911),</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>117,</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.6,</v>
       </c>
     </row>
@@ -13759,15 +13759,15 @@
         <v>67</v>
       </c>
       <c r="M26" t="str">
-        <f>_xlfn.CONCAT(B26,L26)</f>
+        <f t="shared" si="0"/>
         <v>78.114,</v>
       </c>
       <c r="N26" t="str">
-        <f>_xlfn.CONCAT(C26,L26)</f>
+        <f t="shared" si="1"/>
         <v>0.8844,</v>
       </c>
       <c r="O26" t="str">
-        <f>_xlfn.CONCAT(D26,L26)</f>
+        <f t="shared" si="2"/>
         <v>108,</v>
       </c>
       <c r="P26" t="s">
@@ -13777,15 +13777,15 @@
         <v>33</v>
       </c>
       <c r="R26" t="str">
-        <f>_xlfn.CONCAT(P26,E26,L26,F26,L26,G26,L26,H26,Q26,L26)</f>
+        <f t="shared" si="3"/>
         <v>(-33.92,0.4739,-0.0003017,0.0000000713),</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>120,</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.08,</v>
       </c>
     </row>
@@ -13825,15 +13825,15 @@
       </c>
       <c r="L27" s="1"/>
       <c r="M27" t="str">
-        <f>_xlfn.CONCAT(B27,L27)</f>
+        <f t="shared" si="0"/>
         <v>2.016</v>
       </c>
       <c r="N27" t="str">
-        <f>_xlfn.CONCAT(C27,L27)</f>
+        <f t="shared" si="1"/>
         <v>0.00009</v>
       </c>
       <c r="O27" t="str">
-        <f>_xlfn.CONCAT(D27,L27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P27" t="s">
@@ -13847,348 +13847,348 @@
         <v>(27.140.009274-0.000013810.000000007645)</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>124</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>125</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>126</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>127</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>128</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>129</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>130</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>131</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>132</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>133</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>134</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>135</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>136</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>137</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>138</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
+        <v>138</v>
+      </c>
+      <c r="U31" t="s">
         <v>139</v>
       </c>
-      <c r="T31" t="s">
-        <v>139</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>140</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>141</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>142</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>143</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>144</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>145</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
         <v>148</v>
       </c>
-      <c r="C32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>149</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>150</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>151</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>152</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>153</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>154</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>155</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>156</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>157</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>158</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>159</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>160</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>161</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>162</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>163</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>164</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>165</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>166</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>167</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z32" t="s">
         <v>168</v>
       </c>
-      <c r="Y32" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>169</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E42">
         <v>0.77</v>
       </c>
       <c r="F42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" t="s">
         <v>334</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>335</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>336</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>337</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>338</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>339</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
+        <v>339</v>
+      </c>
+      <c r="N42" t="s">
+        <v>339</v>
+      </c>
+      <c r="O42" t="s">
+        <v>339</v>
+      </c>
+      <c r="P42" t="s">
         <v>340</v>
-      </c>
-      <c r="M42" t="s">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s">
-        <v>340</v>
-      </c>
-      <c r="O42" t="s">
-        <v>340</v>
-      </c>
-      <c r="P42" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H43">
         <v>3.56</v>
       </c>
       <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
         <v>343</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>344</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>345</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>346</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>347</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>348</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>349</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>350</v>
       </c>
-      <c r="Q43" t="s">
-        <v>351</v>
-      </c>
       <c r="R43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44">
         <v>1.1200000000000001</v>
       </c>
       <c r="G44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N47" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="O47" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="S47" s="4" t="s">
+      <c r="T47" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="T47" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="1">
         <v>0.77</v>
@@ -14217,7 +14217,7 @@
         <v>6.1907021900535E-3</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T48" s="4">
         <v>763.15</v>
@@ -14225,17 +14225,17 @@
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" s="1">
         <v>6.82</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E72" si="2">D49/100</f>
+        <f t="shared" ref="E49:E72" si="6">D49/100</f>
         <v>6.8199999999999997E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F72" si="3">E49/B4</f>
+        <f t="shared" ref="F49:F72" si="7">E49/B4</f>
         <v>4.7931630659376186E-4</v>
       </c>
       <c r="M49">
@@ -14254,7 +14254,7 @@
         <v>5.9479036432417899E-2</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T49" s="4">
         <v>0.105</v>
@@ -14262,17 +14262,17 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1">
         <v>8.57</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.6817923108709724E-4</v>
       </c>
       <c r="M50">
@@ -14291,7 +14291,7 @@
         <v>7.41388898435201E-2</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T50" s="4">
         <v>60000</v>
@@ -14299,17 +14299,17 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D51" s="1">
         <v>12.02</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1202</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0522445549408222E-3</v>
       </c>
       <c r="M51">
@@ -14328,7 +14328,7 @@
         <v>0.11142775440910101</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T51" s="4">
         <v>6000</v>
@@ -14336,17 +14336,17 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="1">
         <v>12.41</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1241</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2384611546330023E-3</v>
       </c>
       <c r="M52">
@@ -14365,7 +14365,7 @@
         <v>0.12557628858811601</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T52" s="4">
         <v>4.9020000000000001</v>
@@ -14373,17 +14373,17 @@
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="1">
         <v>14.41</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.14410000000000001</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6721204947898537E-3</v>
       </c>
       <c r="M53">
@@ -14402,7 +14402,7 @@
         <v>0.15007304287388801</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T53" s="4">
         <v>2.4380000000000002</v>
@@ -14410,17 +14410,17 @@
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="1">
         <v>9.26</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.2600000000000002E-2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2834194952252916E-3</v>
       </c>
       <c r="M54">
@@ -14441,17 +14441,17 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M55">
@@ -14475,11 +14475,11 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M56">
@@ -14503,11 +14503,11 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M57">
@@ -14531,11 +14531,11 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M58">
@@ -14559,11 +14559,11 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M59">
@@ -14587,11 +14587,11 @@
         <v>0.87</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.2027662911735346E-5</v>
       </c>
       <c r="M60">
@@ -14615,11 +14615,11 @@
         <v>3.56</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.56E-2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8199583343234874E-4</v>
       </c>
       <c r="M61">
@@ -14643,11 +14643,11 @@
         <v>4.04</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.0399999999999998E-2</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.60019961502816E-4</v>
       </c>
       <c r="M62">
@@ -14671,11 +14671,11 @@
         <v>5.95</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.9500000000000004E-2</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.0597419262850224E-4</v>
       </c>
       <c r="M63">
@@ -14699,11 +14699,11 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.2300000000000004E-2</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.0260212447422834E-4</v>
       </c>
       <c r="M64">
@@ -14727,18 +14727,18 @@
         <v>0.64</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.6043820251419877E-5</v>
       </c>
       <c r="M65">
         <v>17</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O65" s="8">
         <v>6.4000000000000003E-3</v>
@@ -14755,11 +14755,11 @@
         <v>0.96</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="F66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.4755480607082627E-5</v>
       </c>
       <c r="M66">
@@ -14783,11 +14783,11 @@
         <v>1.34</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.34E-2</v>
       </c>
       <c r="F67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9834602375169486E-5</v>
       </c>
       <c r="M67">
@@ -14811,11 +14811,11 @@
         <v>4.24</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.24E-2</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5276009817380093E-4</v>
       </c>
       <c r="M68">
@@ -14839,11 +14839,11 @@
         <v>5.77</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.7699999999999994E-2</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.4347826086956512E-4</v>
       </c>
       <c r="M69">
@@ -14867,11 +14867,11 @@
         <v>3.02</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.0200000000000001E-2</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.2775854397065367E-4</v>
       </c>
       <c r="M70">
@@ -14895,11 +14895,11 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1200000000000002E-2</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.4338018793046064E-4</v>
       </c>
       <c r="M71">
@@ -14923,11 +14923,11 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G72">
@@ -14963,10 +14963,10 @@
         <v>0.98636321447098463</v>
       </c>
       <c r="I73" t="s">
+        <v>351</v>
+      </c>
+      <c r="J73" t="s">
         <v>352</v>
-      </c>
-      <c r="J73" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -14979,10 +14979,10 @@
         <v>6.4113608940614002</v>
       </c>
       <c r="I74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -14993,17 +14993,17 @@
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
       <c r="H76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I76">
         <f>9.13*1000 * 3.54</f>
         <v>32320.2</v>
       </c>
       <c r="K76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -15022,352 +15022,352 @@
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
+        <v>372</v>
+      </c>
+      <c r="C82" t="s">
+        <v>392</v>
+      </c>
+      <c r="D82" t="s">
+        <v>372</v>
+      </c>
+      <c r="E82" t="s">
         <v>373</v>
       </c>
-      <c r="C82" t="s">
-        <v>393</v>
-      </c>
-      <c r="D82" t="s">
-        <v>373</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>374</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>375</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>376</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>377</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>378</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>379</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>380</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>381</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
+        <v>381</v>
+      </c>
+      <c r="O82" t="s">
         <v>382</v>
       </c>
-      <c r="N82" t="s">
+      <c r="P82" t="s">
         <v>382</v>
       </c>
-      <c r="O82" t="s">
+      <c r="Q82" t="s">
         <v>383</v>
       </c>
-      <c r="P82" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
+        <v>378</v>
+      </c>
+      <c r="S82" t="s">
         <v>384</v>
       </c>
-      <c r="R82" t="s">
-        <v>379</v>
-      </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>385</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>386</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>387</v>
       </c>
-      <c r="V82" t="s">
+      <c r="W82" t="s">
         <v>388</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>389</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>390</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>391</v>
       </c>
-      <c r="Z82" t="s">
-        <v>392</v>
-      </c>
       <c r="AA82" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C83" t="s">
+        <v>392</v>
+      </c>
+      <c r="D83" t="s">
+        <v>392</v>
+      </c>
+      <c r="E83" t="s">
+        <v>392</v>
+      </c>
+      <c r="F83" t="s">
         <v>393</v>
       </c>
-      <c r="D83" t="s">
+      <c r="G83" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s">
         <v>393</v>
       </c>
-      <c r="E83" t="s">
-        <v>393</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="I83" t="s">
+        <v>86</v>
+      </c>
+      <c r="J83" t="s">
         <v>394</v>
       </c>
-      <c r="G83" t="s">
-        <v>87</v>
-      </c>
-      <c r="H83" t="s">
-        <v>394</v>
-      </c>
-      <c r="I83" t="s">
-        <v>87</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>395</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>396</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
+        <v>86</v>
+      </c>
+      <c r="N83" t="s">
+        <v>86</v>
+      </c>
+      <c r="O83" t="s">
+        <v>392</v>
+      </c>
+      <c r="P83" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>392</v>
+      </c>
+      <c r="R83" t="s">
+        <v>392</v>
+      </c>
+      <c r="S83" t="s">
         <v>397</v>
       </c>
-      <c r="M83" t="s">
-        <v>87</v>
-      </c>
-      <c r="N83" t="s">
-        <v>87</v>
-      </c>
-      <c r="O83" t="s">
-        <v>393</v>
-      </c>
-      <c r="P83" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>393</v>
-      </c>
-      <c r="R83" t="s">
-        <v>393</v>
-      </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>398</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>399</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>400</v>
       </c>
-      <c r="V83" t="s">
+      <c r="W83" t="s">
         <v>401</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>402</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z83" t="s">
         <v>403</v>
       </c>
-      <c r="Y83" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>404</v>
       </c>
-      <c r="AA83" t="s">
-        <v>405</v>
-      </c>
       <c r="AB83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C84" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C86" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C88" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C94" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C96" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C99" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C102" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C103" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C104" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -15395,10 +15395,10 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1">
         <v>11</v>
@@ -15427,90 +15427,90 @@
         <v>0.77,</v>
       </c>
       <c r="O1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>239</v>
+      </c>
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
-        <v>240</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>241</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>242</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>243</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>244</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>245</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" t="s">
         <v>246</v>
       </c>
-      <c r="X1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>248</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>249</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>250</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>251</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>252</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>253</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>254</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>255</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>256</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>257</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>258</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -15522,10 +15522,10 @@
         <v>3.55</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -15551,15 +15551,15 @@
         <v>6.82,</v>
       </c>
       <c r="O2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -15571,10 +15571,10 @@
         <v>5.82</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -15600,15 +15600,15 @@
         <v>8.57,</v>
       </c>
       <c r="O3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -15620,10 +15620,10 @@
         <v>7.88</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -15649,15 +15649,15 @@
         <v>12.02,</v>
       </c>
       <c r="O4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -15669,10 +15669,10 @@
         <v>9.75</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -15695,15 +15695,15 @@
         <v>12.41,</v>
       </c>
       <c r="O5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -15715,10 +15715,10 @@
         <v>0.44</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -15741,15 +15741,15 @@
         <v>14.41,</v>
       </c>
       <c r="O6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -15761,10 +15761,10 @@
         <v>0.09</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -15787,12 +15787,12 @@
         <v>9.26,</v>
       </c>
       <c r="O7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -15817,12 +15817,12 @@
         <v>0,</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -15847,12 +15847,12 @@
         <v>0,</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -15877,12 +15877,12 @@
         <v>0,</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -15907,12 +15907,12 @@
         <v>0,</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -15937,12 +15937,12 @@
         <v>0,</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <v>0.64</v>
@@ -15962,12 +15962,12 @@
         <v>0.87,</v>
       </c>
       <c r="O13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -15993,12 +15993,12 @@
         <v>3.56,</v>
       </c>
       <c r="O14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -16024,12 +16024,12 @@
         <v>4.04,</v>
       </c>
       <c r="O15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -16055,12 +16055,12 @@
         <v>5.95,</v>
       </c>
       <c r="O16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -16086,12 +16086,12 @@
         <v>4.23,</v>
       </c>
       <c r="O17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -16103,7 +16103,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
@@ -16117,12 +16117,12 @@
         <v>0.64,</v>
       </c>
       <c r="O18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -16148,7 +16148,7 @@
         <v>0.96,</v>
       </c>
       <c r="O19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.3">
@@ -16167,7 +16167,7 @@
         <v>1.34,</v>
       </c>
       <c r="O20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.3">
@@ -16186,7 +16186,7 @@
         <v>4.24,</v>
       </c>
       <c r="O21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.3">
@@ -16205,7 +16205,7 @@
         <v>5.77,</v>
       </c>
       <c r="O22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.3">
@@ -16224,7 +16224,7 @@
         <v>3.02,</v>
       </c>
       <c r="O23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.3">
@@ -16243,7 +16243,7 @@
         <v>1.12,</v>
       </c>
       <c r="O24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.3">
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.3">
@@ -16271,82 +16271,82 @@
         <v>0,</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z27" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN27" t="s">
         <v>260</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.3">
@@ -16359,7 +16359,7 @@
         <v>0,</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.3">
@@ -16372,7 +16372,7 @@
         <v>0,</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.3">
@@ -16385,7 +16385,7 @@
         <v>0,</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.3">
@@ -16398,7 +16398,7 @@
         <v>0,</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.3">
@@ -16411,7 +16411,7 @@
         <v>0,</v>
       </c>
       <c r="O32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.3">
@@ -16424,7 +16424,7 @@
         <v>0,</v>
       </c>
       <c r="O33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.3">
@@ -16436,7 +16436,7 @@
         <v>0,</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.3">
@@ -16448,7 +16448,7 @@
         <v>0,</v>
       </c>
       <c r="O35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.3">
@@ -16460,7 +16460,7 @@
         <v>0,</v>
       </c>
       <c r="O36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.3">
@@ -16472,7 +16472,7 @@
         <v>10,</v>
       </c>
       <c r="O37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.3">
@@ -16484,7 +16484,7 @@
         <v>0,</v>
       </c>
       <c r="O38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.3">
@@ -16497,7 +16497,7 @@
         <v>0,</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.3">
@@ -16510,7 +16510,7 @@
         <v>0,</v>
       </c>
       <c r="O40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.3">
@@ -16523,7 +16523,7 @@
         <v>0,</v>
       </c>
       <c r="O41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.3">
@@ -16536,7 +16536,7 @@
         <v>0,</v>
       </c>
       <c r="O42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.3">
@@ -16549,7 +16549,7 @@
         <v>0,</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.3">
@@ -16562,7 +16562,7 @@
         <v>0,</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.3">
@@ -16575,7 +16575,7 @@
         <v>0,</v>
       </c>
       <c r="O45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.3">
@@ -16588,7 +16588,7 @@
         <v>0,</v>
       </c>
       <c r="O46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.3">
@@ -16601,7 +16601,7 @@
         <v>0,</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.3">
@@ -16614,7 +16614,7 @@
         <v>0,</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.3">
@@ -16627,7 +16627,7 @@
         <v>0,</v>
       </c>
       <c r="O49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.3">
@@ -16640,7 +16640,7 @@
         <v>0,</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.3">
@@ -16652,7 +16652,7 @@
         <v>90</v>
       </c>
       <c r="O51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/2021/ЛБ4_хтс_реактор/Лист Microsoft Excel.xlsx
+++ b/2021/ЛБ4_хтс_реактор/Лист Microsoft Excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BAE683-BD7A-4C54-B34B-71F4641AAB11}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC8748-4D17-416E-83BD-A6581AD70488}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="435">
   <si>
     <t>[</t>
   </si>
@@ -259,127 +259,19 @@
     <t>125.6039982264</t>
   </si>
   <si>
-    <t>280266498527.927,</t>
-  </si>
-  <si>
-    <t>43349806375705.9,</t>
-  </si>
-  <si>
-    <t>57799741834274.5,</t>
-  </si>
-  <si>
-    <t>31211860590508.2,</t>
-  </si>
-  <si>
-    <t>92479586934839.2,</t>
-  </si>
-  <si>
-    <t>54909754742560.8,</t>
-  </si>
-  <si>
-    <t>17339922550282.4,</t>
-  </si>
-  <si>
-    <t>22541899315367.1,</t>
-  </si>
-  <si>
-    <t>39303824447306.7,</t>
-  </si>
-  <si>
-    <t>33523850263879.2,</t>
-  </si>
-  <si>
-    <t>10981950948512.2,</t>
-  </si>
-  <si>
-    <t>32367855427193.7,</t>
-  </si>
-  <si>
-    <t>19651912223653.3,</t>
-  </si>
-  <si>
-    <t>40459819283992.2,</t>
-  </si>
-  <si>
-    <t>15605930295254.1,</t>
-  </si>
-  <si>
-    <t>10403953530169.4,</t>
-  </si>
-  <si>
-    <t>24853888988738,</t>
-  </si>
-  <si>
     <t>0,</t>
   </si>
   <si>
-    <t>33065148702.733,</t>
-  </si>
-  <si>
-    <t>9247958693483.92,</t>
-  </si>
-  <si>
-    <t>14449935458568.6,</t>
-  </si>
-  <si>
-    <t>12715943203540.4,</t>
-  </si>
-  <si>
-    <t>39363272265.1583,</t>
-  </si>
-  <si>
-    <t>266652176.674614,</t>
-  </si>
-  <si>
     <t>77451654057927.9,</t>
   </si>
   <si>
     <t>46239793467419.6,</t>
   </si>
   <si>
-    <t>42512334046.3709,</t>
-  </si>
-  <si>
-    <t>73405672129528.6,</t>
-  </si>
-  <si>
-    <t>19681636132.5791,</t>
-  </si>
-  <si>
-    <t>4045981928399.22,</t>
-  </si>
-  <si>
-    <t>14958043460.7601,</t>
-  </si>
-  <si>
-    <t>160602150841.846,</t>
-  </si>
-  <si>
-    <t>54137752.6997436,</t>
-  </si>
-  <si>
     <t>31490617812.1266,</t>
   </si>
   <si>
-    <t>6298123562.42533,</t>
-  </si>
-  <si>
-    <t>187369175982.153,</t>
-  </si>
-  <si>
     <t>12596247124.8507,</t>
-  </si>
-  <si>
-    <t>174329179.355451,</t>
-  </si>
-  <si>
-    <t>145274316.129542,</t>
-  </si>
-  <si>
-    <t>8659919898.33482,</t>
-  </si>
-  <si>
-    <t>29054863.2259084,</t>
   </si>
   <si>
     <t>593615.709427013</t>
@@ -1201,15 +1093,6 @@
     <t>backup</t>
   </si>
   <si>
-    <t>78029651476270.6,</t>
-  </si>
-  <si>
-    <t>110397506903464,</t>
-  </si>
-  <si>
-    <t>8669961275141.18,</t>
-  </si>
-  <si>
     <t>59.3615709427013</t>
   </si>
   <si>
@@ -1360,28 +1243,166 @@
     <t>92.2185,</t>
   </si>
   <si>
-    <t>878749121.855122,</t>
-  </si>
-  <si>
-    <t>11998873057.7901,</t>
-  </si>
-  <si>
-    <t>17658363938150,</t>
-  </si>
-  <si>
-    <t>8266287175683.24,</t>
-  </si>
-  <si>
-    <t>74399835.581519,</t>
-  </si>
-  <si>
-    <t>1391039479.09063,</t>
-  </si>
-  <si>
-    <t>2094126084506.42,</t>
-  </si>
-  <si>
-    <t>9507017517481.03,</t>
+    <t>86699612751411.8,</t>
+  </si>
+  <si>
+    <t>5490975474256080,</t>
+  </si>
+  <si>
+    <t>109819509485122,</t>
+  </si>
+  <si>
+    <t>323678554271937,</t>
+  </si>
+  <si>
+    <t>156059302952541,</t>
+  </si>
+  <si>
+    <t>104039535301694,</t>
+  </si>
+  <si>
+    <t>3936327226.51583,</t>
+  </si>
+  <si>
+    <t>173399225502824,</t>
+  </si>
+  <si>
+    <t>225418993153671,</t>
+  </si>
+  <si>
+    <t>393038244473067,</t>
+  </si>
+  <si>
+    <t>433498063757059,</t>
+  </si>
+  <si>
+    <t>2889987091713730,</t>
+  </si>
+  <si>
+    <t>3092286188133690,</t>
+  </si>
+  <si>
+    <t>9247958693483920,</t>
+  </si>
+  <si>
+    <t>1965191222365330,</t>
+  </si>
+  <si>
+    <t>3121186059050820,</t>
+  </si>
+  <si>
+    <t>12137945785197600,</t>
+  </si>
+  <si>
+    <t>4251233404.63709,</t>
+  </si>
+  <si>
+    <t>7745165405792.79,</t>
+  </si>
+  <si>
+    <t>4623979346741.96,</t>
+  </si>
+  <si>
+    <t>7340567212952.86,</t>
+  </si>
+  <si>
+    <t>1968163613.25791,</t>
+  </si>
+  <si>
+    <t>404598192839.922,</t>
+  </si>
+  <si>
+    <t>1495804346.07601,</t>
+  </si>
+  <si>
+    <t>16060215084.1846,</t>
+  </si>
+  <si>
+    <t>629812356.242533,</t>
+  </si>
+  <si>
+    <t>1259624712.48507,</t>
+  </si>
+  <si>
+    <t>17432917.9355451,</t>
+  </si>
+  <si>
+    <t>14527431.6129542,</t>
+  </si>
+  <si>
+    <t>865991989.833482,</t>
+  </si>
+  <si>
+    <t>2905486.32259084,</t>
+  </si>
+  <si>
+    <t>59361.5709427013</t>
+  </si>
+  <si>
+    <t>1040395353016940,</t>
+  </si>
+  <si>
+    <t>6704770052775840,</t>
+  </si>
+  <si>
+    <t>33065148702733,</t>
+  </si>
+  <si>
+    <t>17050923841111000,</t>
+  </si>
+  <si>
+    <t>3352385026387920,</t>
+  </si>
+  <si>
+    <t>15605930295254100,</t>
+  </si>
+  <si>
+    <t>36991834773935700,</t>
+  </si>
+  <si>
+    <t>26009883825423500,</t>
+  </si>
+  <si>
+    <t>279479233082624,</t>
+  </si>
+  <si>
+    <t>12715943203540400,</t>
+  </si>
+  <si>
+    <t>317708843106546,</t>
+  </si>
+  <si>
+    <t>537253557838239,</t>
+  </si>
+  <si>
+    <t>535734135528804,</t>
+  </si>
+  <si>
+    <t>616161173420976,</t>
+  </si>
+  <si>
+    <t>599956101494855,</t>
+  </si>
+  <si>
+    <t>29093105919.0179,</t>
+  </si>
+  <si>
+    <t>29755185306.9322,</t>
+  </si>
+  <si>
+    <t>33904875710.872,</t>
+  </si>
+  <si>
+    <t>412369640249798,</t>
+  </si>
+  <si>
+    <t>31786063372.0239,</t>
+  </si>
+  <si>
+    <t>33725485043.4832,</t>
+  </si>
+  <si>
+    <t>29734923224.0504,</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1515,6 +1536,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5809,7 +5831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABE8CED-A87B-476C-B5D5-3A682AA434A7}">
   <dimension ref="A1:BW146"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C76" sqref="C76:BU76"/>
     </sheetView>
   </sheetViews>
@@ -5839,7 +5861,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>64</v>
@@ -5848,7 +5870,7 @@
         <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="H1" s="11"/>
     </row>
@@ -5857,10 +5879,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="C2" s="4">
-        <v>3.56E-2</v>
+        <v>40.356000000000002</v>
       </c>
       <c r="D2" s="4">
         <v>3.56E-2</v>
@@ -5870,7 +5892,7 @@
       </c>
       <c r="F2" s="6">
         <f>C2/EXP(-E2*1000/(8.314*763.15))</f>
-        <v>280266498527.927</v>
+        <v>317708843106545.56</v>
       </c>
       <c r="G2" s="5">
         <f>K14-K3</f>
@@ -5884,14 +5906,14 @@
         <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="L2" t="str">
         <f>_xlfn.CONCAT(F2,I2)</f>
-        <v>280266498527.927,</v>
+        <v>317708843106546,</v>
       </c>
       <c r="N2" t="str">
         <f>_xlfn.CONCAT(H2:I2)</f>
@@ -5903,7 +5925,7 @@
       </c>
       <c r="P2" t="str">
         <f>_xlfn.CONCAT(F2,I2)</f>
-        <v>280266498527.927,</v>
+        <v>317708843106546,</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -5911,10 +5933,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C3" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D3" s="4">
         <v>7.4999999999999997E-3</v>
@@ -5924,7 +5946,7 @@
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F66" si="0">C3/EXP(-E3*1000/(8.314*763.15))</f>
-        <v>43349806375705.891</v>
+        <v>433498063757058.88</v>
       </c>
       <c r="G3" s="5">
         <f>K4+K13-K3</f>
@@ -5945,7 +5967,7 @@
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L66" si="1">_xlfn.CONCAT(F3,I3)</f>
-        <v>43349806375705.9,</v>
+        <v>433498063757059,</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N66" si="2">_xlfn.CONCAT(H3:I3)</f>
@@ -5957,7 +5979,7 @@
       </c>
       <c r="P3" t="str">
         <f t="shared" ref="P3:P66" si="4">_xlfn.CONCAT(F3,I3)</f>
-        <v>43349806375705.9,</v>
+        <v>433498063757059,</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -5965,10 +5987,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C4" s="4">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="4">
         <v>0.01</v>
@@ -5978,7 +6000,7 @@
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
-        <v>57799741834274.523</v>
+        <v>2889987091713726</v>
       </c>
       <c r="G4" s="5">
         <f>K5+K12-K3</f>
@@ -5999,7 +6021,7 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>57799741834274.5,</v>
+        <v>2889987091713730,</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
@@ -6011,7 +6033,7 @@
       </c>
       <c r="P4" t="str">
         <f t="shared" si="4"/>
-        <v>57799741834274.5,</v>
+        <v>2889987091713730,</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -6019,10 +6041,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="C5" s="4">
-        <v>1.35E-2</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D5" s="4">
         <v>1.35E-2</v>
@@ -6032,7 +6054,7 @@
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>78029651476270.594</v>
+        <v>3092286188133687</v>
       </c>
       <c r="G5" s="5">
         <f>K6+K11-K3</f>
@@ -6053,7 +6075,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>78029651476270.6,</v>
+        <v>3092286188133690,</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
@@ -6065,7 +6087,7 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="4"/>
-        <v>78029651476270.6,</v>
+        <v>3092286188133690,</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -6073,10 +6095,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="C6" s="4">
-        <v>1.35E-2</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D6" s="4">
         <v>1.35E-2</v>
@@ -6086,7 +6108,7 @@
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>78029651476270.594</v>
+        <v>3092286188133687</v>
       </c>
       <c r="G6" s="5">
         <f>K7+K10-K3</f>
@@ -6107,7 +6129,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>78029651476270.6,</v>
+        <v>3092286188133690,</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
@@ -6119,7 +6141,7 @@
       </c>
       <c r="P6" t="str">
         <f t="shared" si="4"/>
-        <v>78029651476270.6,</v>
+        <v>3092286188133690,</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -6127,10 +6149,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C7" s="4">
-        <v>1.9099999999999999E-2</v>
+        <v>2.1</v>
       </c>
       <c r="D7" s="4">
         <v>1.9099999999999999E-2</v>
@@ -6140,7 +6162,7 @@
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>110397506903464.33</v>
+        <v>1.213794578519765E+16</v>
       </c>
       <c r="G7" s="5">
         <f>K8+K9-K3</f>
@@ -6161,7 +6183,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>110397506903464,</v>
+        <v>12137945785197600,</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
@@ -6173,7 +6195,7 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" si="4"/>
-        <v>110397506903464,</v>
+        <v>12137945785197600,</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -6181,10 +6203,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C8" s="4">
-        <v>2.2429999999999999</v>
+        <v>68.242999999999995</v>
       </c>
       <c r="D8" s="4">
         <v>2.4299999999999999E-2</v>
@@ -6194,7 +6216,7 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>17658363938150.008</v>
+        <v>537253557838239.38</v>
       </c>
       <c r="G8" s="5">
         <f>K15-K4</f>
@@ -6215,7 +6237,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>17658363938150,</v>
+        <v>537253557838239,</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
@@ -6227,7 +6249,7 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" si="4"/>
-        <v>17658363938150,</v>
+        <v>537253557838239,</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -6235,10 +6257,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C9" s="4">
-        <v>1.5E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D9" s="4">
         <v>1.5E-3</v>
@@ -6248,7 +6270,7 @@
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>8669961275141.1777</v>
+        <v>86699612751411.781</v>
       </c>
       <c r="G9" s="5">
         <f>K5+K13-K4</f>
@@ -6269,7 +6291,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>8669961275141.18,</v>
+        <v>86699612751411.8,</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
@@ -6281,7 +6303,7 @@
       </c>
       <c r="P9" t="str">
         <f t="shared" si="4"/>
-        <v>8669961275141.18,</v>
+        <v>86699612751411.8,</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -6289,10 +6311,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="C10" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>0.54</v>
       </c>
       <c r="D10" s="4">
         <v>5.4000000000000003E-3</v>
@@ -6302,7 +6324,7 @@
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>31211860590508.242</v>
+        <v>3121186059050824.5</v>
       </c>
       <c r="G10" s="5">
         <f>K6+K12-K4</f>
@@ -6323,7 +6345,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>31211860590508.2,</v>
+        <v>3121186059050820,</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
@@ -6335,7 +6357,7 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" si="4"/>
-        <v>31211860590508.2,</v>
+        <v>3121186059050820,</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -6343,10 +6365,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="C11" s="4">
-        <v>1.6E-2</v>
+        <v>1.6</v>
       </c>
       <c r="D11" s="4">
         <v>1.6E-2</v>
@@ -6356,7 +6378,7 @@
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>92479586934839.234</v>
+        <v>9247958693483924</v>
       </c>
       <c r="G11" s="5">
         <f>K7+K11-K4</f>
@@ -6377,7 +6399,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>92479586934839.2,</v>
+        <v>9247958693483920,</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
@@ -6389,7 +6411,7 @@
       </c>
       <c r="P11" t="str">
         <f t="shared" si="4"/>
-        <v>92479586934839.2,</v>
+        <v>9247958693483920,</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -6397,10 +6419,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="C12" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>0.95</v>
       </c>
       <c r="D12" s="4">
         <v>9.4999999999999998E-3</v>
@@ -6410,7 +6432,7 @@
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>54909754742560.789</v>
+        <v>5490975474256079</v>
       </c>
       <c r="G12" s="5">
         <f>K8+K10-K4</f>
@@ -6431,7 +6453,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>54909754742560.8,</v>
+        <v>5490975474256080,</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
@@ -6443,7 +6465,7 @@
       </c>
       <c r="P12" t="str">
         <f t="shared" si="4"/>
-        <v>54909754742560.8,</v>
+        <v>5490975474256080,</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -6451,10 +6473,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C13" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>2.95</v>
       </c>
       <c r="D13" s="4">
         <v>9.4999999999999998E-3</v>
@@ -6464,7 +6486,7 @@
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
-        <v>54909754742560.789</v>
+        <v>1.7050923841110984E+16</v>
       </c>
       <c r="G13" s="4">
         <f>2*K9-K4</f>
@@ -6485,7 +6507,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>54909754742560.8,</v>
+        <v>17050923841111000,</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
@@ -6497,7 +6519,7 @@
       </c>
       <c r="P13" t="str">
         <f t="shared" si="4"/>
-        <v>54909754742560.8,</v>
+        <v>17050923841111000,</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -6505,10 +6527,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="C14" s="4">
-        <v>1.05</v>
+        <v>68.05</v>
       </c>
       <c r="D14" s="4">
         <v>0.05</v>
@@ -6518,7 +6540,7 @@
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>8266287175683.2402</v>
+        <v>535734135528804.25</v>
       </c>
       <c r="G14" s="5">
         <f>K16-K5</f>
@@ -6539,7 +6561,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>8266287175683.24,</v>
+        <v>535734135528804,</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
@@ -6551,7 +6573,7 @@
       </c>
       <c r="P14" t="str">
         <f t="shared" si="4"/>
-        <v>8266287175683.24,</v>
+        <v>535734135528804,</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -6559,10 +6581,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="C15" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="D15" s="4">
         <v>3.0000000000000001E-3</v>
@@ -6572,7 +6594,7 @@
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
-        <v>17339922550282.355</v>
+        <v>173399225502823.56</v>
       </c>
       <c r="G15" s="5">
         <f>K6+K13-K5</f>
@@ -6593,7 +6615,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>17339922550282.4,</v>
+        <v>173399225502824,</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
@@ -6605,7 +6627,7 @@
       </c>
       <c r="P15" t="str">
         <f t="shared" si="4"/>
-        <v>17339922550282.4,</v>
+        <v>173399225502824,</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -6613,10 +6635,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="C16" s="4">
-        <v>3.8999999999999998E-3</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D16" s="4">
         <v>3.8999999999999998E-3</v>
@@ -6626,7 +6648,7 @@
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>22541899315367.063</v>
+        <v>225418993153670.63</v>
       </c>
       <c r="G16" s="5">
         <f>K7+K12-K5</f>
@@ -6647,7 +6669,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>22541899315367.1,</v>
+        <v>225418993153671,</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
@@ -6659,7 +6681,7 @@
       </c>
       <c r="P16" t="str">
         <f t="shared" si="4"/>
-        <v>22541899315367.1,</v>
+        <v>225418993153671,</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -6667,10 +6689,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="C17" s="4">
-        <v>6.7999999999999996E-3</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D17" s="4">
         <v>6.7999999999999996E-3</v>
@@ -6680,7 +6702,7 @@
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>39303824447306.672</v>
+        <v>393038244473066.75</v>
       </c>
       <c r="G17" s="5">
         <f>K8+K11-K5</f>
@@ -6701,7 +6723,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>39303824447306.7,</v>
+        <v>393038244473067,</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
@@ -6713,7 +6735,7 @@
       </c>
       <c r="P17" t="str">
         <f t="shared" si="4"/>
-        <v>39303824447306.7,</v>
+        <v>393038244473067,</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -6721,10 +6743,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C18" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D18" s="4">
         <v>5.7999999999999996E-3</v>
@@ -6734,7 +6756,7 @@
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>33523850263879.219</v>
+        <v>3352385026387922</v>
       </c>
       <c r="G18" s="5">
         <f>K9+K10-K5</f>
@@ -6755,7 +6777,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>33523850263879.2,</v>
+        <v>3352385026387920,</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
@@ -6767,7 +6789,7 @@
       </c>
       <c r="P18" t="str">
         <f t="shared" si="4"/>
-        <v>33523850263879.2,</v>
+        <v>3352385026387920,</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -6775,10 +6797,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="C19" s="4">
-        <v>0.26600000000000001</v>
+        <v>78.266000000000005</v>
       </c>
       <c r="D19" s="4">
         <v>2.6599999999999999E-2</v>
@@ -6788,7 +6810,7 @@
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>2094126084506.4209</v>
+        <v>616161173420975.75</v>
       </c>
       <c r="G19" s="5">
         <f>K17-K6</f>
@@ -6809,7 +6831,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>2094126084506.42,</v>
+        <v>616161173420976,</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
@@ -6821,7 +6843,7 @@
       </c>
       <c r="P19" t="str">
         <f t="shared" si="4"/>
-        <v>2094126084506.42,</v>
+        <v>616161173420976,</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -6829,10 +6851,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="C20" s="4">
-        <v>1.9E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D20" s="4">
         <v>1.9E-3</v>
@@ -6842,7 +6864,7 @@
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
-        <v>10981950948512.158</v>
+        <v>109819509485121.58</v>
       </c>
       <c r="G20" s="5">
         <f>K7+K13-K6</f>
@@ -6856,14 +6878,14 @@
         <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="K20" s="1">
         <v>-106.8</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>10981950948512.2,</v>
+        <v>109819509485122,</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
@@ -6875,7 +6897,7 @@
       </c>
       <c r="P20" t="str">
         <f t="shared" si="4"/>
-        <v>10981950948512.2,</v>
+        <v>109819509485122,</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -6883,10 +6905,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C21" s="4">
-        <v>5.5999999999999999E-3</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D21" s="4">
         <v>5.5999999999999999E-3</v>
@@ -6896,7 +6918,7 @@
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>32367855427193.73</v>
+        <v>323678554271937.31</v>
       </c>
       <c r="G21" s="5">
         <f>K8+K12-K6</f>
@@ -6917,7 +6939,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>32367855427193.7,</v>
+        <v>323678554271937,</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
@@ -6929,7 +6951,7 @@
       </c>
       <c r="P21" t="str">
         <f t="shared" si="4"/>
-        <v>32367855427193.7,</v>
+        <v>323678554271937,</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -6937,10 +6959,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="C22" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>0.34</v>
       </c>
       <c r="D22" s="4">
         <v>3.3999999999999998E-3</v>
@@ -6950,7 +6972,7 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
-        <v>19651912223653.336</v>
+        <v>1965191222365333.8</v>
       </c>
       <c r="G22" s="5">
         <f>K9+K11-K6</f>
@@ -6971,7 +6993,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>19651912223653.3,</v>
+        <v>1965191222365330,</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
@@ -6983,7 +7005,7 @@
       </c>
       <c r="P22" t="str">
         <f t="shared" si="4"/>
-        <v>19651912223653.3,</v>
+        <v>1965191222365330,</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -6991,10 +7013,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="C23" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>2.7</v>
       </c>
       <c r="D23" s="4">
         <v>7.0000000000000001E-3</v>
@@ -7004,7 +7026,7 @@
       </c>
       <c r="F23" s="6">
         <f t="shared" si="0"/>
-        <v>40459819283992.164</v>
+        <v>1.5605930295254122E+16</v>
       </c>
       <c r="G23" s="4">
         <f>2*K10-K6</f>
@@ -7025,7 +7047,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>40459819283992.2,</v>
+        <v>15605930295254100,</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
@@ -7037,7 +7059,7 @@
       </c>
       <c r="P23" t="str">
         <f t="shared" si="4"/>
-        <v>40459819283992.2,</v>
+        <v>15605930295254100,</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -7045,10 +7067,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="C24" s="4">
-        <v>1.2076</v>
+        <v>76.207599999999999</v>
       </c>
       <c r="D24" s="4">
         <v>7.6E-3</v>
@@ -7058,7 +7080,7 @@
       </c>
       <c r="F24" s="6">
         <f t="shared" si="0"/>
-        <v>9507017517481.0293</v>
+        <v>599956101494855.38</v>
       </c>
       <c r="G24" s="5">
         <f>K18-K7</f>
@@ -7079,7 +7101,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>9507017517481.03,</v>
+        <v>599956101494855,</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
@@ -7091,7 +7113,7 @@
       </c>
       <c r="P24" t="str">
         <f t="shared" si="4"/>
-        <v>9507017517481.03,</v>
+        <v>599956101494855,</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
@@ -7099,10 +7121,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="C25" s="4">
-        <v>2.7000000000000001E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D25" s="4">
         <v>2.7000000000000001E-3</v>
@@ -7112,7 +7134,7 @@
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
-        <v>15605930295254.121</v>
+        <v>156059302952541.19</v>
       </c>
       <c r="G25" s="5">
         <f>K8+K13-K7</f>
@@ -7133,7 +7155,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>15605930295254.1,</v>
+        <v>156059302952541,</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
@@ -7145,7 +7167,7 @@
       </c>
       <c r="P25" t="str">
         <f t="shared" si="4"/>
-        <v>15605930295254.1,</v>
+        <v>156059302952541,</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>63</v>
@@ -7163,7 +7185,7 @@
         <v>66</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -7171,10 +7193,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="C26" s="4">
-        <v>1.8E-3</v>
+        <v>0.18</v>
       </c>
       <c r="D26" s="4">
         <v>1.8E-3</v>
@@ -7184,7 +7206,7 @@
       </c>
       <c r="F26" s="6">
         <f t="shared" si="0"/>
-        <v>10403953530169.414</v>
+        <v>1040395353016941.4</v>
       </c>
       <c r="G26" s="5">
         <f>K9+K12-K7</f>
@@ -7205,7 +7227,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>10403953530169.4,</v>
+        <v>1040395353016940,</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="2"/>
@@ -7217,7 +7239,7 @@
       </c>
       <c r="P26" t="str">
         <f t="shared" si="4"/>
-        <v>10403953530169.4,</v>
+        <v>1040395353016940,</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -7225,10 +7247,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C27" s="4">
-        <v>4.3E-3</v>
+        <v>6.4</v>
       </c>
       <c r="D27" s="4">
         <v>4.3E-3</v>
@@ -7238,7 +7260,7 @@
       </c>
       <c r="F27" s="6">
         <f t="shared" si="0"/>
-        <v>24853888988738.043</v>
+        <v>3.6991834773935696E+16</v>
       </c>
       <c r="G27" s="5">
         <f>K10+K11-K7</f>
@@ -7259,7 +7281,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>24853888988738,</v>
+        <v>36991834773935700,</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="2"/>
@@ -7271,7 +7293,7 @@
       </c>
       <c r="P27" t="str">
         <f t="shared" si="4"/>
-        <v>24853888988738,</v>
+        <v>36991834773935700,</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -7279,10 +7301,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C28" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>35.5</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -7292,7 +7314,7 @@
       </c>
       <c r="F28" s="6">
         <f t="shared" si="0"/>
-        <v>39363272265.158287</v>
+        <v>279479233082623.84</v>
       </c>
       <c r="G28" s="5">
         <f>K19-K8</f>
@@ -7307,7 +7329,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>39363272265.1583,</v>
+        <v>279479233082624,</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
@@ -7319,7 +7341,7 @@
       </c>
       <c r="P28" t="str">
         <f t="shared" si="4"/>
-        <v>39363272265.1583,</v>
+        <v>279479233082624,</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -7327,10 +7349,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C29" s="4">
-        <v>4.1999999999999997E-3</v>
+        <v>4.2</v>
       </c>
       <c r="D29" s="4">
         <v>4.1999999999999997E-3</v>
@@ -7340,7 +7362,7 @@
       </c>
       <c r="F29" s="6">
         <f t="shared" si="0"/>
-        <v>33065148702.73296</v>
+        <v>33065148702732.961</v>
       </c>
       <c r="G29" s="5">
         <f>K20-K8</f>
@@ -7355,7 +7377,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>33065148702.733,</v>
+        <v>33065148702733,</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
@@ -7367,7 +7389,7 @@
       </c>
       <c r="P29" t="str">
         <f t="shared" si="4"/>
-        <v>33065148702.733,</v>
+        <v>33065148702733,</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -7375,10 +7397,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C30" s="4">
-        <v>1.8E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D30" s="4">
         <v>1.8E-3</v>
@@ -7388,7 +7410,7 @@
       </c>
       <c r="F30" s="6">
         <f t="shared" si="0"/>
-        <v>10403953530169.414</v>
+        <v>104039535301694.13</v>
       </c>
       <c r="G30" s="5">
         <f>K9+K13-K8</f>
@@ -7403,7 +7425,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>10403953530169.4,</v>
+        <v>104039535301694,</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="2"/>
@@ -7415,7 +7437,7 @@
       </c>
       <c r="P30" t="str">
         <f t="shared" si="4"/>
-        <v>10403953530169.4,</v>
+        <v>104039535301694,</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -7423,10 +7445,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="C31" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D31" s="4">
         <v>1.6000000000000001E-3</v>
@@ -7436,7 +7458,7 @@
       </c>
       <c r="F31" s="6">
         <f t="shared" si="0"/>
-        <v>9247958693483.9238</v>
+        <v>6704770052775844</v>
       </c>
       <c r="G31" s="5">
         <f>K10+K12-K8</f>
@@ -7451,7 +7473,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
-        <v>9247958693483.92,</v>
+        <v>6704770052775840,</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="2"/>
@@ -7463,7 +7485,7 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="4"/>
-        <v>9247958693483.92,</v>
+        <v>6704770052775840,</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -7471,10 +7493,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="C32" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>4.5</v>
       </c>
       <c r="D32" s="4">
         <v>2.5000000000000001E-3</v>
@@ -7484,7 +7506,7 @@
       </c>
       <c r="F32" s="6">
         <f t="shared" si="0"/>
-        <v>14449935458568.631</v>
+        <v>2.6009883825423536E+16</v>
       </c>
       <c r="G32" s="4">
         <f>2*K11-K8</f>
@@ -7499,7 +7521,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" si="1"/>
-        <v>14449935458568.6,</v>
+        <v>26009883825423500,</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
@@ -7511,7 +7533,7 @@
       </c>
       <c r="P32" t="str">
         <f t="shared" si="4"/>
-        <v>14449935458568.6,</v>
+        <v>26009883825423500,</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -7519,10 +7541,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="C33" s="4">
-        <v>1.8E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D33" s="4">
         <v>1.8E-3</v>
@@ -7532,7 +7554,7 @@
       </c>
       <c r="F33" s="6">
         <f t="shared" si="0"/>
-        <v>10403953530169.414</v>
+        <v>104039535301694.13</v>
       </c>
       <c r="G33" s="5">
         <f>K10+K13-K9</f>
@@ -7547,7 +7569,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" si="1"/>
-        <v>10403953530169.4,</v>
+        <v>104039535301694,</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
@@ -7559,7 +7581,7 @@
       </c>
       <c r="P33" t="str">
         <f t="shared" si="4"/>
-        <v>10403953530169.4,</v>
+        <v>104039535301694,</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -7567,10 +7589,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C34" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D34" s="4">
         <v>2.2000000000000001E-3</v>
@@ -7580,7 +7602,7 @@
       </c>
       <c r="F34" s="6">
         <f t="shared" si="0"/>
-        <v>12715943203540.395</v>
+        <v>1.2715943203540396E+16</v>
       </c>
       <c r="G34" s="5">
         <f>K11+K12-K9</f>
@@ -7595,7 +7617,7 @@
       </c>
       <c r="L34" t="str">
         <f t="shared" si="1"/>
-        <v>12715943203540.4,</v>
+        <v>12715943203540400,</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="2"/>
@@ -7607,7 +7629,7 @@
       </c>
       <c r="P34" t="str">
         <f t="shared" si="4"/>
-        <v>12715943203540.4,</v>
+        <v>12715943203540400,</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -7615,10 +7637,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="C35" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D35" s="4">
         <v>5.0000000000000001E-3</v>
@@ -7628,7 +7650,7 @@
       </c>
       <c r="F35" s="6">
         <f t="shared" si="0"/>
-        <v>39363272265.158287</v>
+        <v>3936327226.5158286</v>
       </c>
       <c r="G35" s="5">
         <f>K3-K14</f>
@@ -7643,7 +7665,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
-        <v>39363272265.1583,</v>
+        <v>3936327226.51583,</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
@@ -7655,7 +7677,7 @@
       </c>
       <c r="P35" t="str">
         <f t="shared" si="4"/>
-        <v>39363272265.1583,</v>
+        <v>3936327226.51583,</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -7663,10 +7685,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C36" s="4">
-        <v>0.67379999999999995</v>
+        <v>85.6738</v>
       </c>
       <c r="D36" s="4">
         <v>0.67379999999999995</v>
@@ -7676,7 +7698,7 @@
       </c>
       <c r="F36" s="6">
         <f t="shared" si="0"/>
-        <v>266652176.67461428</v>
+        <v>33904875710.872025</v>
       </c>
       <c r="G36" s="5">
         <f>K21-K14</f>
@@ -7691,7 +7713,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
-        <v>266652176.674614,</v>
+        <v>33904875710.872,</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
@@ -7703,7 +7725,7 @@
       </c>
       <c r="P36" t="str">
         <f t="shared" si="4"/>
-        <v>266652176.674614,</v>
+        <v>33904875710.872,</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -7711,7 +7733,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="C37" s="4">
         <v>1.34E-2</v>
@@ -7759,7 +7781,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="C38" s="4">
         <v>1.34E-2</v>
@@ -7807,7 +7829,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C39" s="4">
         <v>8.0000000000000002E-3</v>
@@ -7855,10 +7877,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C40" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="D40" s="4">
         <v>5.4000000000000003E-3</v>
@@ -7868,7 +7890,7 @@
       </c>
       <c r="F40" s="6">
         <f t="shared" si="0"/>
-        <v>42512334046.370949</v>
+        <v>4251233404.637095</v>
       </c>
       <c r="G40" s="5">
         <f>K4-K15</f>
@@ -7883,7 +7905,7 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" si="1"/>
-        <v>42512334046.3709,</v>
+        <v>4251233404.63709,</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
@@ -7895,7 +7917,7 @@
       </c>
       <c r="P40" t="str">
         <f t="shared" si="4"/>
-        <v>42512334046.3709,</v>
+        <v>4251233404.63709,</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -7903,10 +7925,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C41" s="4">
-        <v>30.319800000000001</v>
+        <v>80.319800000000001</v>
       </c>
       <c r="D41" s="4">
         <v>0.31979999999999997</v>
@@ -7916,7 +7938,7 @@
       </c>
       <c r="F41" s="6">
         <f t="shared" si="0"/>
-        <v>11998873057.790102</v>
+        <v>31786063372.023872</v>
       </c>
       <c r="G41" s="5">
         <f>K22-K15</f>
@@ -7931,7 +7953,7 @@
       </c>
       <c r="L41" t="str">
         <f t="shared" si="1"/>
-        <v>11998873057.7901,</v>
+        <v>31786063372.0239,</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -7943,7 +7965,7 @@
       </c>
       <c r="P41" t="str">
         <f t="shared" si="4"/>
-        <v>11998873057.7901,</v>
+        <v>31786063372.0239,</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -7951,10 +7973,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C42" s="4">
-        <v>1.34E-2</v>
+        <v>1.34E-3</v>
       </c>
       <c r="D42" s="4">
         <v>1.34E-2</v>
@@ -7964,7 +7986,7 @@
       </c>
       <c r="F42" s="6">
         <f t="shared" si="0"/>
-        <v>77451654057927.859</v>
+        <v>7745165405792.7861</v>
       </c>
       <c r="G42" s="5">
         <f>K16+K13-K15</f>
@@ -7979,7 +8001,7 @@
       </c>
       <c r="L42" t="str">
         <f t="shared" si="1"/>
-        <v>77451654057927.9,</v>
+        <v>7745165405792.79,</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="2"/>
@@ -7991,7 +8013,7 @@
       </c>
       <c r="P42" t="str">
         <f t="shared" si="4"/>
-        <v>77451654057927.9,</v>
+        <v>7745165405792.79,</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -7999,10 +8021,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="C43" s="4">
-        <v>1.34E-2</v>
+        <v>1.34E-3</v>
       </c>
       <c r="D43" s="4">
         <v>1.34E-2</v>
@@ -8012,7 +8034,7 @@
       </c>
       <c r="F43" s="6">
         <f t="shared" si="0"/>
-        <v>77451654057927.859</v>
+        <v>7745165405792.7861</v>
       </c>
       <c r="G43" s="5">
         <f>K17+K12-K15</f>
@@ -8027,7 +8049,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" si="1"/>
-        <v>77451654057927.9,</v>
+        <v>7745165405792.79,</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="2"/>
@@ -8039,7 +8061,7 @@
       </c>
       <c r="P43" t="str">
         <f t="shared" si="4"/>
-        <v>77451654057927.9,</v>
+        <v>7745165405792.79,</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -8047,10 +8069,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C44" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D44" s="4">
         <v>8.0000000000000002E-3</v>
@@ -8060,7 +8082,7 @@
       </c>
       <c r="F44" s="6">
         <f t="shared" si="0"/>
-        <v>46239793467419.617</v>
+        <v>4623979346741.9619</v>
       </c>
       <c r="G44" s="5">
         <f>K18+K11-K15</f>
@@ -8075,7 +8097,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" si="1"/>
-        <v>46239793467419.6,</v>
+        <v>4623979346741.96,</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
@@ -8087,7 +8109,7 @@
       </c>
       <c r="P44" t="str">
         <f t="shared" si="4"/>
-        <v>46239793467419.6,</v>
+        <v>4623979346741.96,</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -8095,10 +8117,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C45" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="D45" s="4">
         <v>5.4000000000000003E-3</v>
@@ -8108,7 +8130,7 @@
       </c>
       <c r="F45" s="6">
         <f t="shared" si="0"/>
-        <v>42512334046.370949</v>
+        <v>4251233404.637095</v>
       </c>
       <c r="G45" s="5">
         <f>K5-K16</f>
@@ -8123,7 +8145,7 @@
       </c>
       <c r="L45" t="str">
         <f t="shared" si="1"/>
-        <v>42512334046.3709,</v>
+        <v>4251233404.63709,</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
@@ -8135,7 +8157,7 @@
       </c>
       <c r="P45" t="str">
         <f t="shared" si="4"/>
-        <v>42512334046.3709,</v>
+        <v>4251233404.63709,</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -8143,10 +8165,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="C46" s="4">
-        <v>2.2204999999999999</v>
+        <v>85.220500000000001</v>
       </c>
       <c r="D46" s="4">
         <v>0.2205</v>
@@ -8156,7 +8178,7 @@
       </c>
       <c r="F46" s="6">
         <f t="shared" si="0"/>
-        <v>878749121.85512173</v>
+        <v>33725485043.483181</v>
       </c>
       <c r="G46" s="5">
         <f>K23-K16</f>
@@ -8171,7 +8193,7 @@
       </c>
       <c r="L46" t="str">
         <f t="shared" si="1"/>
-        <v>878749121.855122,</v>
+        <v>33725485043.4832,</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
@@ -8183,7 +8205,7 @@
       </c>
       <c r="P46" t="str">
         <f t="shared" si="4"/>
-        <v>878749121.855122,</v>
+        <v>33725485043.4832,</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -8191,10 +8213,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="C47" s="4">
-        <v>1.2699999999999999E-2</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="D47" s="4">
         <v>1.2699999999999999E-2</v>
@@ -8204,7 +8226,7 @@
       </c>
       <c r="F47" s="6">
         <f t="shared" si="0"/>
-        <v>73405672129528.641</v>
+        <v>7340567212952.8643</v>
       </c>
       <c r="G47" s="5">
         <f>K17+K13-K16</f>
@@ -8219,7 +8241,7 @@
       </c>
       <c r="L47" t="str">
         <f t="shared" si="1"/>
-        <v>73405672129528.6,</v>
+        <v>7340567212952.86,</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="2"/>
@@ -8231,7 +8253,7 @@
       </c>
       <c r="P47" t="str">
         <f t="shared" si="4"/>
-        <v>73405672129528.6,</v>
+        <v>7340567212952.86,</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -8239,10 +8261,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C48" s="4">
-        <v>1.2699999999999999E-2</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="D48" s="4">
         <v>1.2699999999999999E-2</v>
@@ -8252,7 +8274,7 @@
       </c>
       <c r="F48" s="6">
         <f t="shared" si="0"/>
-        <v>73405672129528.641</v>
+        <v>7340567212952.8643</v>
       </c>
       <c r="G48" s="5">
         <f>K18+K12-K16</f>
@@ -8267,7 +8289,7 @@
       </c>
       <c r="L48" t="str">
         <f t="shared" si="1"/>
-        <v>73405672129528.6,</v>
+        <v>7340567212952.86,</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="2"/>
@@ -8279,7 +8301,7 @@
       </c>
       <c r="P48" t="str">
         <f t="shared" si="4"/>
-        <v>73405672129528.6,</v>
+        <v>7340567212952.86,</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -8287,10 +8309,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="C49" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D49" s="4">
         <v>2.5000000000000001E-3</v>
@@ -8300,7 +8322,7 @@
       </c>
       <c r="F49" s="6">
         <f t="shared" si="0"/>
-        <v>19681636132.579144</v>
+        <v>1968163613.2579143</v>
       </c>
       <c r="G49" s="5">
         <f>K6-K17</f>
@@ -8315,7 +8337,7 @@
       </c>
       <c r="L49" t="str">
         <f t="shared" si="1"/>
-        <v>19681636132.5791,</v>
+        <v>1968163613.25791,</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="2"/>
@@ -8327,7 +8349,7 @@
       </c>
       <c r="P49" t="str">
         <f t="shared" si="4"/>
-        <v>19681636132.5791,</v>
+        <v>1968163613.25791,</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -8335,10 +8357,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C50" s="4">
-        <v>3.5150000000000001</v>
+        <v>73.515000000000001</v>
       </c>
       <c r="D50" s="4">
         <v>0.215</v>
@@ -8348,7 +8370,7 @@
       </c>
       <c r="F50" s="6">
         <f t="shared" si="0"/>
-        <v>1391039479.0906341</v>
+        <v>29093105919.017914</v>
       </c>
       <c r="G50" s="5">
         <f>K24-K17</f>
@@ -8363,7 +8385,7 @@
       </c>
       <c r="L50" t="str">
         <f>_xlfn.CONCAT(F50,I50)</f>
-        <v>1391039479.09063,</v>
+        <v>29093105919.0179,</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="2"/>
@@ -8375,7 +8397,7 @@
       </c>
       <c r="P50" t="str">
         <f t="shared" si="4"/>
-        <v>1391039479.09063,</v>
+        <v>29093105919.0179,</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -8383,10 +8405,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="C51" s="4">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="D51" s="4">
         <v>6.9999999999999999E-4</v>
@@ -8396,7 +8418,7 @@
       </c>
       <c r="F51" s="6">
         <f t="shared" si="0"/>
-        <v>4045981928399.2163</v>
+        <v>404598192839.92163</v>
       </c>
       <c r="G51" s="5">
         <f>K18+K13-K17</f>
@@ -8411,7 +8433,7 @@
       </c>
       <c r="L51" t="str">
         <f t="shared" si="1"/>
-        <v>4045981928399.22,</v>
+        <v>404598192839.922,</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="2"/>
@@ -8423,7 +8445,7 @@
       </c>
       <c r="P51" t="str">
         <f t="shared" si="4"/>
-        <v>4045981928399.22,</v>
+        <v>404598192839.922,</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -8431,10 +8453,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C52" s="4">
-        <v>1.9E-3</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D52" s="4">
         <v>1.9E-3</v>
@@ -8444,7 +8466,7 @@
       </c>
       <c r="F52" s="6">
         <f t="shared" si="0"/>
-        <v>14958043460.760149</v>
+        <v>1495804346.076015</v>
       </c>
       <c r="G52" s="5">
         <f>K7-K18</f>
@@ -8459,7 +8481,7 @@
       </c>
       <c r="L52" t="str">
         <f t="shared" si="1"/>
-        <v>14958043460.7601,</v>
+        <v>1495804346.07601,</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="2"/>
@@ -8471,7 +8493,7 @@
       </c>
       <c r="P52" t="str">
         <f t="shared" si="4"/>
-        <v>14958043460.7601,</v>
+        <v>1495804346.07601,</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -8479,10 +8501,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C53" s="4">
-        <v>0.188</v>
+        <v>75.188000000000002</v>
       </c>
       <c r="D53" s="4">
         <v>7.8799999999999995E-2</v>
@@ -8492,7 +8514,7 @@
       </c>
       <c r="F53" s="6">
         <f t="shared" si="0"/>
-        <v>74399835.581518978</v>
+        <v>29755185306.932175</v>
       </c>
       <c r="G53" s="5">
         <f>K25-K18</f>
@@ -8507,7 +8529,7 @@
       </c>
       <c r="L53" t="str">
         <f t="shared" si="1"/>
-        <v>74399835.581519,</v>
+        <v>29755185306.9322,</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="2"/>
@@ -8519,7 +8541,7 @@
       </c>
       <c r="P53" t="str">
         <f t="shared" si="4"/>
-        <v>74399835.581519,</v>
+        <v>29755185306.9322,</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -8527,10 +8549,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C54" s="4">
-        <v>2.0400000000000001E-2</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="D54" s="4">
         <v>2.0400000000000001E-2</v>
@@ -8540,7 +8562,7 @@
       </c>
       <c r="F54" s="6">
         <f t="shared" si="0"/>
-        <v>160602150841.84583</v>
+        <v>16060215084.184582</v>
       </c>
       <c r="G54" s="5">
         <f>K8-K19</f>
@@ -8555,7 +8577,7 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" si="1"/>
-        <v>160602150841.846,</v>
+        <v>16060215084.1846,</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="2"/>
@@ -8567,7 +8589,7 @@
       </c>
       <c r="P54" t="str">
         <f t="shared" si="4"/>
-        <v>160602150841.846,</v>
+        <v>16060215084.1846,</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -8575,10 +8597,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C55" s="4">
-        <v>0.1368</v>
+        <v>75.136799999999994</v>
       </c>
       <c r="D55" s="4">
         <v>0.1368</v>
@@ -8588,7 +8610,7 @@
       </c>
       <c r="F55" s="6">
         <f t="shared" si="0"/>
-        <v>54137752.699743599</v>
+        <v>29734923224.050396</v>
       </c>
       <c r="G55" s="5">
         <f>K26-K19</f>
@@ -8603,7 +8625,7 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" si="1"/>
-        <v>54137752.6997436,</v>
+        <v>29734923224.0504,</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="2"/>
@@ -8615,7 +8637,7 @@
       </c>
       <c r="P55" t="str">
         <f t="shared" si="4"/>
-        <v>54137752.6997436,</v>
+        <v>29734923224.0504,</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -8623,7 +8645,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C56" s="4">
         <v>4.0000000000000001E-3</v>
@@ -8671,10 +8693,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C57" s="4">
-        <v>8.0000000000000004E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="D57" s="4">
         <v>8.0000000000000004E-4</v>
@@ -8684,7 +8706,7 @@
       </c>
       <c r="F57" s="6">
         <f t="shared" si="0"/>
-        <v>6298123562.4253263</v>
+        <v>629812356.24253261</v>
       </c>
       <c r="G57" s="5">
         <f>K8-K20</f>
@@ -8699,7 +8721,7 @@
       </c>
       <c r="L57" t="str">
         <f t="shared" si="1"/>
-        <v>6298123562.42533,</v>
+        <v>629812356.242533,</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="2"/>
@@ -8711,7 +8733,7 @@
       </c>
       <c r="P57" t="str">
         <f t="shared" si="4"/>
-        <v>6298123562.42533,</v>
+        <v>629812356.242533,</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -8719,10 +8741,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C58" s="4">
-        <v>2.3800000000000002E-2</v>
+        <v>52.38</v>
       </c>
       <c r="D58" s="4">
         <v>2.3800000000000002E-2</v>
@@ -8732,7 +8754,7 @@
       </c>
       <c r="F58" s="6">
         <f t="shared" si="0"/>
-        <v>187369175982.15344</v>
+        <v>412369640249798.25</v>
       </c>
       <c r="G58" s="5">
         <f>K19-K20</f>
@@ -8747,7 +8769,7 @@
       </c>
       <c r="L58" t="str">
         <f t="shared" si="1"/>
-        <v>187369175982.153,</v>
+        <v>412369640249798,</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="2"/>
@@ -8759,7 +8781,7 @@
       </c>
       <c r="P58" t="str">
         <f t="shared" si="4"/>
-        <v>187369175982.153,</v>
+        <v>412369640249798,</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -8767,10 +8789,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C59" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D59" s="4">
         <v>1.6000000000000001E-3</v>
@@ -8780,7 +8802,7 @@
       </c>
       <c r="F59" s="6">
         <f t="shared" si="0"/>
-        <v>12596247124.850653</v>
+        <v>1259624712.4850652</v>
       </c>
       <c r="G59" s="5">
         <f>K3-K21</f>
@@ -8795,7 +8817,7 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" si="1"/>
-        <v>12596247124.8507,</v>
+        <v>1259624712.48507,</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="2"/>
@@ -8807,7 +8829,7 @@
       </c>
       <c r="P59" t="str">
         <f t="shared" si="4"/>
-        <v>12596247124.8507,</v>
+        <v>1259624712.48507,</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -8815,10 +8837,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="C60" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="D60" s="4">
         <v>5.9999999999999995E-4</v>
@@ -8828,7 +8850,7 @@
       </c>
       <c r="F60" s="6">
         <f t="shared" si="0"/>
-        <v>174329179.35545066</v>
+        <v>17432917.935545068</v>
       </c>
       <c r="G60" s="5">
         <f>K22+K13-K21</f>
@@ -8843,7 +8865,7 @@
       </c>
       <c r="L60" t="str">
         <f t="shared" si="1"/>
-        <v>174329179.355451,</v>
+        <v>17432917.9355451,</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="2"/>
@@ -8855,7 +8877,7 @@
       </c>
       <c r="P60" t="str">
         <f t="shared" si="4"/>
-        <v>174329179.355451,</v>
+        <v>17432917.9355451,</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -8863,10 +8885,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="C61" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="D61" s="4">
         <v>5.9999999999999995E-4</v>
@@ -8876,7 +8898,7 @@
       </c>
       <c r="F61" s="6">
         <f t="shared" si="0"/>
-        <v>174329179.35545066</v>
+        <v>17432917.935545068</v>
       </c>
       <c r="G61" s="5">
         <f>K23+K12-K21</f>
@@ -8891,7 +8913,7 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" si="1"/>
-        <v>174329179.355451,</v>
+        <v>17432917.9355451,</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="2"/>
@@ -8903,7 +8925,7 @@
       </c>
       <c r="P61" t="str">
         <f t="shared" si="4"/>
-        <v>174329179.355451,</v>
+        <v>17432917.9355451,</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -8911,10 +8933,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="C62" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D62" s="4">
         <v>1.6000000000000001E-3</v>
@@ -8924,7 +8946,7 @@
       </c>
       <c r="F62" s="6">
         <f t="shared" si="0"/>
-        <v>12596247124.850653</v>
+        <v>1259624712.4850652</v>
       </c>
       <c r="G62" s="5">
         <f>K4-K22</f>
@@ -8939,7 +8961,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" si="1"/>
-        <v>12596247124.8507,</v>
+        <v>1259624712.48507,</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="2"/>
@@ -8951,7 +8973,7 @@
       </c>
       <c r="P62" t="str">
         <f t="shared" si="4"/>
-        <v>12596247124.8507,</v>
+        <v>1259624712.48507,</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -8959,10 +8981,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="C63" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="D63" s="4">
         <v>5.9999999999999995E-4</v>
@@ -8972,7 +8994,7 @@
       </c>
       <c r="F63" s="6">
         <f t="shared" si="0"/>
-        <v>174329179.35545066</v>
+        <v>17432917.935545068</v>
       </c>
       <c r="G63" s="5">
         <f>K23+K13-K22</f>
@@ -8987,7 +9009,7 @@
       </c>
       <c r="L63" t="str">
         <f t="shared" si="1"/>
-        <v>174329179.355451,</v>
+        <v>17432917.9355451,</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="2"/>
@@ -8999,7 +9021,7 @@
       </c>
       <c r="P63" t="str">
         <f t="shared" si="4"/>
-        <v>174329179.355451,</v>
+        <v>17432917.9355451,</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -9007,10 +9029,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C64" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="D64" s="4">
         <v>5.9999999999999995E-4</v>
@@ -9020,7 +9042,7 @@
       </c>
       <c r="F64" s="6">
         <f t="shared" si="0"/>
-        <v>174329179.35545066</v>
+        <v>17432917.935545068</v>
       </c>
       <c r="G64" s="5">
         <f>K24+K12-K22</f>
@@ -9035,7 +9057,7 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" si="1"/>
-        <v>174329179.355451,</v>
+        <v>17432917.9355451,</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="2"/>
@@ -9047,7 +9069,7 @@
       </c>
       <c r="P64" t="str">
         <f t="shared" si="4"/>
-        <v>174329179.355451,</v>
+        <v>17432917.9355451,</v>
       </c>
     </row>
     <row r="65" spans="1:75" x14ac:dyDescent="0.3">
@@ -9055,7 +9077,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -9103,10 +9125,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C66" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D66" s="4">
         <v>1.6000000000000001E-3</v>
@@ -9116,7 +9138,7 @@
       </c>
       <c r="F66" s="6">
         <f t="shared" si="0"/>
-        <v>12596247124.850653</v>
+        <v>1259624712.4850652</v>
       </c>
       <c r="G66" s="5">
         <f>K5-K23</f>
@@ -9131,7 +9153,7 @@
       </c>
       <c r="L66" t="str">
         <f t="shared" si="1"/>
-        <v>12596247124.8507,</v>
+        <v>1259624712.48507,</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="2"/>
@@ -9143,7 +9165,7 @@
       </c>
       <c r="P66" t="str">
         <f t="shared" si="4"/>
-        <v>12596247124.8507,</v>
+        <v>1259624712.48507,</v>
       </c>
     </row>
     <row r="67" spans="1:75" x14ac:dyDescent="0.3">
@@ -9151,10 +9173,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="C67" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D67" s="4">
         <v>5.0000000000000001E-4</v>
@@ -9164,7 +9186,7 @@
       </c>
       <c r="F67" s="6">
         <f t="shared" ref="F67:F72" si="8">C67/EXP(-E67*1000/(8.314*763.15))</f>
-        <v>145274316.12954223</v>
+        <v>14527431.612954224</v>
       </c>
       <c r="G67" s="5">
         <f>K24+K13-K23</f>
@@ -9179,7 +9201,7 @@
       </c>
       <c r="L67" t="str">
         <f t="shared" ref="L67:L72" si="9">_xlfn.CONCAT(F67,I67)</f>
-        <v>145274316.129542,</v>
+        <v>14527431.6129542,</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" ref="N67:N72" si="10">_xlfn.CONCAT(H67:I67)</f>
@@ -9191,7 +9213,7 @@
       </c>
       <c r="P67" t="str">
         <f t="shared" ref="P67:P72" si="12">_xlfn.CONCAT(F67,I67)</f>
-        <v>145274316.129542,</v>
+        <v>14527431.6129542,</v>
       </c>
     </row>
     <row r="68" spans="1:75" x14ac:dyDescent="0.3">
@@ -9199,10 +9221,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C68" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D68" s="4">
         <v>5.0000000000000001E-4</v>
@@ -9212,7 +9234,7 @@
       </c>
       <c r="F68" s="6">
         <f t="shared" si="8"/>
-        <v>145274316.12954223</v>
+        <v>14527431.612954224</v>
       </c>
       <c r="G68" s="5">
         <f>K25+K12-K23</f>
@@ -9227,7 +9249,7 @@
       </c>
       <c r="L68" t="str">
         <f t="shared" si="9"/>
-        <v>145274316.129542,</v>
+        <v>14527431.6129542,</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="10"/>
@@ -9239,7 +9261,7 @@
       </c>
       <c r="P68" t="str">
         <f t="shared" si="12"/>
-        <v>145274316.129542,</v>
+        <v>14527431.6129542,</v>
       </c>
     </row>
     <row r="69" spans="1:75" x14ac:dyDescent="0.3">
@@ -9247,10 +9269,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="C69" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1E-4</v>
       </c>
       <c r="D69" s="4">
         <v>1.1000000000000001E-3</v>
@@ -9260,7 +9282,7 @@
       </c>
       <c r="F69" s="6">
         <f t="shared" si="8"/>
-        <v>8659919898.3348236</v>
+        <v>865991989.83348238</v>
       </c>
       <c r="G69" s="5">
         <f>K6-K24</f>
@@ -9275,7 +9297,7 @@
       </c>
       <c r="L69" t="str">
         <f t="shared" si="9"/>
-        <v>8659919898.33482,</v>
+        <v>865991989.833482,</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="10"/>
@@ -9287,7 +9309,7 @@
       </c>
       <c r="P69" t="str">
         <f t="shared" si="12"/>
-        <v>8659919898.33482,</v>
+        <v>865991989.833482,</v>
       </c>
     </row>
     <row r="70" spans="1:75" x14ac:dyDescent="0.3">
@@ -9295,10 +9317,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="C70" s="4">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D70" s="4">
         <v>1E-4</v>
@@ -9308,7 +9330,7 @@
       </c>
       <c r="F70" s="6">
         <f t="shared" si="8"/>
-        <v>29054863.225908447</v>
+        <v>2905486.3225908447</v>
       </c>
       <c r="G70" s="5">
         <f>K25+K13-K24</f>
@@ -9323,7 +9345,7 @@
       </c>
       <c r="L70" t="str">
         <f t="shared" si="9"/>
-        <v>29054863.2259084,</v>
+        <v>2905486.32259084,</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="10"/>
@@ -9335,7 +9357,7 @@
       </c>
       <c r="P70" t="str">
         <f t="shared" si="12"/>
-        <v>29054863.2259084,</v>
+        <v>2905486.32259084,</v>
       </c>
     </row>
     <row r="71" spans="1:75" x14ac:dyDescent="0.3">
@@ -9343,10 +9365,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="C71" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D71" s="4">
         <v>1.6000000000000001E-3</v>
@@ -9356,7 +9378,7 @@
       </c>
       <c r="F71" s="6">
         <f t="shared" si="8"/>
-        <v>12596247124.850653</v>
+        <v>1259624712.4850652</v>
       </c>
       <c r="G71" s="5">
         <f>K7-K25</f>
@@ -9371,7 +9393,7 @@
       </c>
       <c r="L71" t="str">
         <f t="shared" si="9"/>
-        <v>12596247124.8507,</v>
+        <v>1259624712.48507,</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="10"/>
@@ -9383,7 +9405,7 @@
       </c>
       <c r="P71" t="str">
         <f t="shared" si="12"/>
-        <v>12596247124.8507,</v>
+        <v>1259624712.48507,</v>
       </c>
     </row>
     <row r="72" spans="1:75" x14ac:dyDescent="0.3">
@@ -9391,10 +9413,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C72" s="4">
-        <v>1.5E-3</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="D72" s="4">
         <v>1.5E-3</v>
@@ -9404,7 +9426,7 @@
       </c>
       <c r="F72" s="6">
         <f t="shared" si="8"/>
-        <v>593615.70942701318</v>
+        <v>59361.570942701306</v>
       </c>
       <c r="G72" s="5">
         <f>K19-K26</f>
@@ -9416,7 +9438,7 @@
       </c>
       <c r="L72" t="str">
         <f t="shared" si="9"/>
-        <v>593615.709427013</v>
+        <v>59361.5709427013</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="10"/>
@@ -9428,228 +9450,228 @@
       </c>
       <c r="P72" t="str">
         <f t="shared" si="12"/>
-        <v>593615.709427013</v>
+        <v>59361.5709427013</v>
       </c>
     </row>
     <row r="76" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>391</v>
       </c>
       <c r="E76" t="s">
-        <v>71</v>
+        <v>392</v>
       </c>
       <c r="F76" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="G76" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="H76" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="I76" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J76" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="K76" t="s">
-        <v>72</v>
+        <v>396</v>
       </c>
       <c r="L76" t="s">
-        <v>73</v>
+        <v>394</v>
       </c>
       <c r="M76" t="s">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="N76" t="s">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="O76" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P76" t="s">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="Q76" t="s">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="R76" t="s">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="S76" t="s">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="T76" t="s">
         <v>426</v>
       </c>
       <c r="U76" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="V76" t="s">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="W76" t="s">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="X76" t="s">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="Y76" t="s">
         <v>427</v>
       </c>
       <c r="Z76" t="s">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AA76" t="s">
-        <v>84</v>
+        <v>413</v>
       </c>
       <c r="AB76" t="s">
-        <v>85</v>
+        <v>419</v>
       </c>
       <c r="AC76" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="AD76" t="s">
-        <v>87</v>
+        <v>415</v>
       </c>
       <c r="AE76" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="AF76" t="s">
-        <v>88</v>
+        <v>414</v>
       </c>
       <c r="AG76" t="s">
-        <v>89</v>
+        <v>420</v>
       </c>
       <c r="AH76" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="AI76" t="s">
-        <v>90</v>
+        <v>422</v>
       </c>
       <c r="AJ76" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="AK76" t="s">
-        <v>92</v>
+        <v>430</v>
       </c>
       <c r="AL76" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="AM76" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="AN76" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AO76" t="s">
-        <v>95</v>
+        <v>398</v>
       </c>
       <c r="AP76" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AQ76" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="AR76" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="AS76" t="s">
-        <v>94</v>
+        <v>400</v>
       </c>
       <c r="AT76" t="s">
-        <v>95</v>
+        <v>398</v>
       </c>
       <c r="AU76" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="AV76" t="s">
-        <v>96</v>
+        <v>401</v>
       </c>
       <c r="AW76" t="s">
-        <v>96</v>
+        <v>401</v>
       </c>
       <c r="AX76" t="s">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="AY76" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AZ76" t="s">
-        <v>98</v>
+        <v>403</v>
       </c>
       <c r="BA76" t="s">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="BB76" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="BC76" t="s">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="BD76" t="s">
-        <v>101</v>
+        <v>434</v>
       </c>
       <c r="BE76" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="BF76" t="s">
-        <v>103</v>
+        <v>406</v>
       </c>
       <c r="BG76" t="s">
-        <v>104</v>
+        <v>431</v>
       </c>
       <c r="BH76" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="BI76" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="BJ76" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="BK76" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="BL76" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="BM76" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="BN76" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="BO76" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="BP76" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="BQ76" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="BR76" t="s">
-        <v>108</v>
+        <v>410</v>
       </c>
       <c r="BS76" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
       <c r="BT76" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="BU76" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="BV76" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="BW76" t="s">
         <v>68</v>
@@ -9657,480 +9679,501 @@
     </row>
     <row r="77" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>70</v>
+        <v>391</v>
       </c>
       <c r="C77" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" t="s">
+        <v>141</v>
+      </c>
+      <c r="H77" t="s">
+        <v>142</v>
+      </c>
+      <c r="I77" t="s">
+        <v>373</v>
+      </c>
+      <c r="J77" t="s">
+        <v>144</v>
+      </c>
+      <c r="K77" t="s">
+        <v>145</v>
+      </c>
+      <c r="L77" t="s">
+        <v>140</v>
+      </c>
+      <c r="M77" t="s">
+        <v>146</v>
+      </c>
+      <c r="N77" t="s">
+        <v>147</v>
+      </c>
+      <c r="O77" t="s">
+        <v>374</v>
+      </c>
+      <c r="P77" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>139</v>
+      </c>
+      <c r="R77" t="s">
+        <v>149</v>
+      </c>
+      <c r="S77" t="s">
+        <v>150</v>
+      </c>
+      <c r="T77" t="s">
+        <v>375</v>
+      </c>
+      <c r="U77" t="s">
+        <v>138</v>
+      </c>
+      <c r="V77" t="s">
+        <v>139</v>
+      </c>
+      <c r="W77" t="s">
+        <v>152</v>
+      </c>
+      <c r="X77" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV77" t="s">
         <v>175</v>
       </c>
-      <c r="F77" t="s">
+      <c r="AW77" t="s">
         <v>176</v>
       </c>
-      <c r="G77" t="s">
+      <c r="AX77" t="s">
         <v>177</v>
       </c>
-      <c r="H77" t="s">
-        <v>178</v>
-      </c>
-      <c r="I77" t="s">
-        <v>412</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="AY77" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA77" t="s">
         <v>180</v>
       </c>
-      <c r="K77" t="s">
-        <v>181</v>
-      </c>
-      <c r="L77" t="s">
-        <v>176</v>
-      </c>
-      <c r="M77" t="s">
+      <c r="BB77" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC77" t="s">
         <v>182</v>
       </c>
-      <c r="N77" t="s">
-        <v>183</v>
-      </c>
-      <c r="O77" t="s">
-        <v>413</v>
-      </c>
-      <c r="P77" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>175</v>
-      </c>
-      <c r="R77" t="s">
+      <c r="BD77" t="s">
+        <v>371</v>
+      </c>
+      <c r="BE77" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF77" t="s">
         <v>185</v>
       </c>
-      <c r="S77" t="s">
+      <c r="BG77" t="s">
         <v>186</v>
       </c>
-      <c r="T77" t="s">
-        <v>414</v>
-      </c>
-      <c r="U77" t="s">
-        <v>174</v>
-      </c>
-      <c r="V77" t="s">
-        <v>175</v>
-      </c>
-      <c r="W77" t="s">
+      <c r="BH77" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI77" t="s">
         <v>188</v>
       </c>
-      <c r="X77" t="s">
+      <c r="BJ77" t="s">
         <v>189</v>
       </c>
-      <c r="Y77" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA77" t="s">
+      <c r="BK77" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL77" t="s">
         <v>191</v>
       </c>
-      <c r="AB77" t="s">
-        <v>405</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE77" t="s">
+      <c r="BM77" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN77" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO77" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP77" t="s">
         <v>195</v>
       </c>
-      <c r="AF77" t="s">
+      <c r="BQ77" t="s">
         <v>196</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="BR77" t="s">
         <v>197</v>
       </c>
-      <c r="AH77" t="s">
+      <c r="BS77" t="s">
         <v>198</v>
       </c>
-      <c r="AI77" t="s">
+      <c r="BT77" t="s">
         <v>199</v>
       </c>
-      <c r="AJ77" t="s">
+      <c r="BU77" t="s">
         <v>200</v>
       </c>
-      <c r="AK77" t="s">
-        <v>407</v>
-      </c>
-      <c r="AL77" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM77" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN77" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO77" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP77" t="s">
-        <v>408</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR77" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS77" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>209</v>
-      </c>
-      <c r="AU77" t="s">
-        <v>418</v>
-      </c>
-      <c r="AV77" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX77" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY77" t="s">
-        <v>409</v>
-      </c>
-      <c r="AZ77" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA77" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB77" t="s">
-        <v>419</v>
-      </c>
-      <c r="BC77" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD77" t="s">
-        <v>410</v>
-      </c>
-      <c r="BE77" t="s">
-        <v>406</v>
-      </c>
-      <c r="BF77" t="s">
-        <v>221</v>
-      </c>
-      <c r="BG77" t="s">
-        <v>222</v>
-      </c>
-      <c r="BH77" t="s">
-        <v>223</v>
-      </c>
-      <c r="BI77" t="s">
-        <v>224</v>
-      </c>
-      <c r="BJ77" t="s">
-        <v>225</v>
-      </c>
-      <c r="BK77" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL77" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM77" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN77" t="s">
-        <v>229</v>
-      </c>
-      <c r="BO77" t="s">
-        <v>230</v>
-      </c>
-      <c r="BP77" t="s">
-        <v>231</v>
-      </c>
-      <c r="BQ77" t="s">
-        <v>232</v>
-      </c>
-      <c r="BR77" t="s">
-        <v>233</v>
-      </c>
-      <c r="BS77" t="s">
-        <v>234</v>
-      </c>
-      <c r="BT77" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU77" t="s">
-        <v>236</v>
-      </c>
       <c r="BV77" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="BW77" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>71</v>
+        <v>392</v>
       </c>
       <c r="C78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" t="s">
+        <v>141</v>
+      </c>
+      <c r="H78" t="s">
+        <v>142</v>
+      </c>
+      <c r="I78" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" t="s">
+        <v>144</v>
+      </c>
+      <c r="K78" t="s">
+        <v>145</v>
+      </c>
+      <c r="L78" t="s">
+        <v>140</v>
+      </c>
+      <c r="M78" t="s">
+        <v>146</v>
+      </c>
+      <c r="N78" t="s">
+        <v>147</v>
+      </c>
+      <c r="O78" t="s">
+        <v>148</v>
+      </c>
+      <c r="P78" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>139</v>
+      </c>
+      <c r="R78" t="s">
+        <v>149</v>
+      </c>
+      <c r="S78" t="s">
+        <v>150</v>
+      </c>
+      <c r="T78" t="s">
+        <v>151</v>
+      </c>
+      <c r="U78" t="s">
+        <v>138</v>
+      </c>
+      <c r="V78" t="s">
+        <v>139</v>
+      </c>
+      <c r="W78" t="s">
+        <v>152</v>
+      </c>
+      <c r="X78" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT78" t="s">
         <v>173</v>
       </c>
-      <c r="D78" t="s">
+      <c r="AU78" t="s">
         <v>174</v>
       </c>
-      <c r="E78" t="s">
+      <c r="AV78" t="s">
         <v>175</v>
       </c>
-      <c r="F78" t="s">
+      <c r="AW78" t="s">
         <v>176</v>
       </c>
-      <c r="G78" t="s">
+      <c r="AX78" t="s">
         <v>177</v>
       </c>
-      <c r="H78" t="s">
+      <c r="AY78" t="s">
         <v>178</v>
       </c>
-      <c r="I78" t="s">
+      <c r="AZ78" t="s">
         <v>179</v>
       </c>
-      <c r="J78" t="s">
+      <c r="BA78" t="s">
         <v>180</v>
       </c>
-      <c r="K78" t="s">
+      <c r="BB78" t="s">
         <v>181</v>
       </c>
-      <c r="L78" t="s">
-        <v>176</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="BC78" t="s">
         <v>182</v>
       </c>
-      <c r="N78" t="s">
+      <c r="BD78" t="s">
         <v>183</v>
       </c>
-      <c r="O78" t="s">
+      <c r="BE78" t="s">
         <v>184</v>
       </c>
-      <c r="P78" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>175</v>
-      </c>
-      <c r="R78" t="s">
+      <c r="BF78" t="s">
         <v>185</v>
       </c>
-      <c r="S78" t="s">
+      <c r="BG78" t="s">
         <v>186</v>
       </c>
-      <c r="T78" t="s">
+      <c r="BH78" t="s">
         <v>187</v>
       </c>
-      <c r="U78" t="s">
-        <v>174</v>
-      </c>
-      <c r="V78" t="s">
-        <v>175</v>
-      </c>
-      <c r="W78" t="s">
+      <c r="BI78" t="s">
         <v>188</v>
       </c>
-      <c r="X78" t="s">
+      <c r="BJ78" t="s">
         <v>189</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="BK78" t="s">
         <v>190</v>
       </c>
-      <c r="Z78" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA78" t="s">
+      <c r="BL78" t="s">
         <v>191</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="BM78" t="s">
         <v>192</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="BN78" t="s">
         <v>193</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="BO78" t="s">
         <v>194</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="BP78" t="s">
         <v>195</v>
       </c>
-      <c r="AF78" t="s">
+      <c r="BQ78" t="s">
         <v>196</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="BR78" t="s">
         <v>197</v>
       </c>
-      <c r="AH78" t="s">
+      <c r="BS78" t="s">
         <v>198</v>
       </c>
-      <c r="AI78" t="s">
+      <c r="BT78" t="s">
         <v>199</v>
       </c>
-      <c r="AJ78" t="s">
+      <c r="BU78" t="s">
         <v>200</v>
       </c>
-      <c r="AK78" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL78" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM78" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN78" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO78" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP78" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ78" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR78" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS78" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT78" t="s">
-        <v>209</v>
-      </c>
-      <c r="AU78" t="s">
-        <v>210</v>
-      </c>
-      <c r="AV78" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW78" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX78" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY78" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ78" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA78" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB78" t="s">
-        <v>217</v>
-      </c>
-      <c r="BC78" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD78" t="s">
-        <v>219</v>
-      </c>
-      <c r="BE78" t="s">
-        <v>220</v>
-      </c>
-      <c r="BF78" t="s">
-        <v>221</v>
-      </c>
-      <c r="BG78" t="s">
-        <v>222</v>
-      </c>
-      <c r="BH78" t="s">
-        <v>223</v>
-      </c>
-      <c r="BI78" t="s">
-        <v>224</v>
-      </c>
-      <c r="BJ78" t="s">
-        <v>225</v>
-      </c>
-      <c r="BK78" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL78" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM78" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN78" t="s">
-        <v>229</v>
-      </c>
-      <c r="BO78" t="s">
-        <v>230</v>
-      </c>
-      <c r="BP78" t="s">
-        <v>231</v>
-      </c>
-      <c r="BQ78" t="s">
-        <v>232</v>
-      </c>
-      <c r="BR78" t="s">
-        <v>233</v>
-      </c>
-      <c r="BS78" t="s">
-        <v>234</v>
-      </c>
-      <c r="BT78" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU78" t="s">
-        <v>236</v>
-      </c>
       <c r="BV78" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="BW78" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
     </row>
     <row r="80" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>367</v>
+        <v>393</v>
+      </c>
+      <c r="D80" s="13">
+        <v>9.3831587703917897E-5</v>
+      </c>
+      <c r="E80">
+        <v>9.0910222162685604E-4</v>
+      </c>
+      <c r="F80">
+        <v>2.8831700870148601E-2</v>
+      </c>
+      <c r="G80">
+        <v>2.2188312439447602E-2</v>
+      </c>
+      <c r="H80">
+        <v>0.104900363833382</v>
+      </c>
+      <c r="I80">
+        <v>3.7488838915174502E-2</v>
+      </c>
+      <c r="J80">
+        <v>1.1452765190818901E-2</v>
       </c>
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>72</v>
+        <v>396</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>63</v>
@@ -10140,7 +10183,7 @@
         <v>62</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>64</v>
@@ -10149,7 +10192,7 @@
         <v>66</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>63</v>
@@ -10158,7 +10201,7 @@
         <v>62</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="Q84" s="4" t="s">
         <v>64</v>
@@ -10167,7 +10210,7 @@
         <v>66</v>
       </c>
       <c r="S84" s="4" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="T84" s="4" t="s">
         <v>63</v>
@@ -10176,7 +10219,7 @@
         <v>62</v>
       </c>
       <c r="V84" s="4" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="W84" s="4" t="s">
         <v>64</v>
@@ -10185,19 +10228,19 @@
         <v>66</v>
       </c>
       <c r="Y84" s="4" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>73</v>
+        <v>394</v>
       </c>
       <c r="G85" s="4">
         <v>1</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="J85" s="4">
         <v>3.56E-2</v>
@@ -10215,7 +10258,7 @@
         <v>25</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="P85" s="4">
         <v>1.8E-3</v>
@@ -10233,7 +10276,7 @@
         <v>49</v>
       </c>
       <c r="U85" s="4" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="V85" s="4">
         <v>0.215</v>
@@ -10250,14 +10293,14 @@
     </row>
     <row r="86" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="G86" s="4">
         <v>2</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="J86" s="4">
         <v>7.4999999999999997E-3</v>
@@ -10275,7 +10318,7 @@
         <v>26</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="P86" s="4">
         <v>4.3E-3</v>
@@ -10293,7 +10336,7 @@
         <v>50</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="V86" s="4">
         <v>6.9999999999999999E-4</v>
@@ -10310,14 +10353,14 @@
     </row>
     <row r="87" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="G87" s="4">
         <v>3</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="J87" s="4">
         <v>0.01</v>
@@ -10335,7 +10378,7 @@
         <v>27</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="P87" s="4">
         <v>0</v>
@@ -10353,7 +10396,7 @@
         <v>51</v>
       </c>
       <c r="U87" s="4" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="V87" s="4">
         <v>1.9E-3</v>
@@ -10370,14 +10413,14 @@
     </row>
     <row r="88" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G88" s="4">
         <v>4</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="J88" s="4">
         <v>1.35E-2</v>
@@ -10395,7 +10438,7 @@
         <v>28</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="P88" s="4">
         <v>4.1999999999999997E-3</v>
@@ -10413,7 +10456,7 @@
         <v>52</v>
       </c>
       <c r="U88" s="4" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="V88" s="4">
         <v>7.8799999999999995E-2</v>
@@ -10430,14 +10473,14 @@
     </row>
     <row r="89" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="G89" s="4">
         <v>5</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="J89" s="4">
         <v>1.35E-2</v>
@@ -10455,7 +10498,7 @@
         <v>29</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="P89" s="4">
         <v>1.8E-3</v>
@@ -10473,7 +10516,7 @@
         <v>53</v>
       </c>
       <c r="U89" s="4" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="V89" s="4">
         <v>2.0400000000000001E-2</v>
@@ -10490,14 +10533,14 @@
     </row>
     <row r="90" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="G90" s="4">
         <v>6</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="J90" s="4">
         <v>1.9099999999999999E-2</v>
@@ -10515,7 +10558,7 @@
         <v>30</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="P90" s="4">
         <v>1.6000000000000001E-3</v>
@@ -10533,7 +10576,7 @@
         <v>54</v>
       </c>
       <c r="U90" s="4" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="V90" s="4">
         <v>0.1368</v>
@@ -10550,14 +10593,14 @@
     </row>
     <row r="91" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="G91" s="4">
         <v>7</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="J91" s="4">
         <v>2.4299999999999999E-2</v>
@@ -10575,7 +10618,7 @@
         <v>31</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="P91" s="4">
         <v>2.5000000000000001E-3</v>
@@ -10593,7 +10636,7 @@
         <v>55</v>
       </c>
       <c r="U91" s="4" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="V91" s="4">
         <v>4.0000000000000001E-3</v>
@@ -10610,14 +10653,14 @@
     </row>
     <row r="92" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="G92" s="4">
         <v>8</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="J92" s="4">
         <v>1.5E-3</v>
@@ -10635,7 +10678,7 @@
         <v>32</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="P92" s="4">
         <v>1.8E-3</v>
@@ -10653,7 +10696,7 @@
         <v>56</v>
       </c>
       <c r="U92" s="4" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="V92" s="4">
         <v>8.0000000000000004E-4</v>
@@ -10677,7 +10720,7 @@
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="J93" s="4">
         <v>5.4000000000000003E-3</v>
@@ -10695,7 +10738,7 @@
         <v>33</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="P93" s="4">
         <v>2.2000000000000001E-3</v>
@@ -10713,7 +10756,7 @@
         <v>57</v>
       </c>
       <c r="U93" s="4" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="V93" s="4">
         <v>2.3800000000000002E-2</v>
@@ -10730,14 +10773,14 @@
     </row>
     <row r="94" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="G94" s="4">
         <v>10</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="J94" s="4">
         <v>1.6E-2</v>
@@ -10755,7 +10798,7 @@
         <v>34</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="P94" s="4">
         <v>5.0000000000000001E-3</v>
@@ -10773,7 +10816,7 @@
         <v>58</v>
       </c>
       <c r="U94" s="4" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="V94" s="4">
         <v>1.6000000000000001E-3</v>
@@ -10790,14 +10833,14 @@
     </row>
     <row r="95" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="G95" s="4">
         <v>11</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="J95" s="4">
         <v>9.4999999999999998E-3</v>
@@ -10815,7 +10858,7 @@
         <v>35</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="P95" s="4">
         <v>0.67379999999999995</v>
@@ -10833,7 +10876,7 @@
         <v>59</v>
       </c>
       <c r="U95" s="4" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="V95" s="4">
         <v>5.9999999999999995E-4</v>
@@ -10850,14 +10893,14 @@
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="G96" s="4">
         <v>12</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="J96" s="4">
         <v>9.4999999999999998E-3</v>
@@ -10875,7 +10918,7 @@
         <v>36</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="P96" s="4">
         <v>1.34E-2</v>
@@ -10893,7 +10936,7 @@
         <v>60</v>
       </c>
       <c r="U96" s="4" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="V96" s="4">
         <v>5.9999999999999995E-4</v>
@@ -10910,14 +10953,14 @@
     </row>
     <row r="97" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="G97" s="4">
         <v>13</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="J97" s="4">
         <v>0.05</v>
@@ -10935,7 +10978,7 @@
         <v>37</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="P97" s="4">
         <v>1.34E-2</v>
@@ -10953,7 +10996,7 @@
         <v>61</v>
       </c>
       <c r="U97" s="4" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="V97" s="4">
         <v>1.6000000000000001E-3</v>
@@ -10977,7 +11020,7 @@
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="J98" s="4">
         <v>3.0000000000000001E-3</v>
@@ -10995,7 +11038,7 @@
         <v>38</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="P98" s="4">
         <v>8.0000000000000002E-3</v>
@@ -11013,7 +11056,7 @@
         <v>62</v>
       </c>
       <c r="U98" s="4" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="V98" s="4">
         <v>5.9999999999999995E-4</v>
@@ -11030,14 +11073,14 @@
     </row>
     <row r="99" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="G99" s="4">
         <v>15</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="J99" s="4">
         <v>3.8999999999999998E-3</v>
@@ -11055,7 +11098,7 @@
         <v>39</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="P99" s="4">
         <v>5.4000000000000003E-3</v>
@@ -11073,7 +11116,7 @@
         <v>63</v>
       </c>
       <c r="U99" s="4" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="V99" s="4">
         <v>5.9999999999999995E-4</v>
@@ -11090,14 +11133,14 @@
     </row>
     <row r="100" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>84</v>
+        <v>413</v>
       </c>
       <c r="G100" s="4">
         <v>16</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="J100" s="4">
         <v>6.7999999999999996E-3</v>
@@ -11115,7 +11158,7 @@
         <v>40</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="P100" s="4">
         <v>0.31979999999999997</v>
@@ -11133,7 +11176,7 @@
         <v>64</v>
       </c>
       <c r="U100" s="4" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="V100" s="4">
         <v>0</v>
@@ -11150,14 +11193,14 @@
     </row>
     <row r="101" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>85</v>
+        <v>419</v>
       </c>
       <c r="G101" s="4">
         <v>17</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="J101" s="4">
         <v>5.7999999999999996E-3</v>
@@ -11175,7 +11218,7 @@
         <v>41</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="P101" s="4">
         <v>1.34E-2</v>
@@ -11193,7 +11236,7 @@
         <v>65</v>
       </c>
       <c r="U101" s="4" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="V101" s="4">
         <v>1.6000000000000001E-3</v>
@@ -11210,14 +11253,14 @@
     </row>
     <row r="102" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="G102" s="4">
         <v>18</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="J102" s="4">
         <v>2.6599999999999999E-2</v>
@@ -11235,7 +11278,7 @@
         <v>42</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="P102" s="4">
         <v>1.34E-2</v>
@@ -11253,7 +11296,7 @@
         <v>66</v>
       </c>
       <c r="U102" s="4" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="V102" s="4">
         <v>5.0000000000000001E-4</v>
@@ -11270,14 +11313,14 @@
     </row>
     <row r="103" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>87</v>
+        <v>415</v>
       </c>
       <c r="G103" s="4">
         <v>19</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="J103" s="4">
         <v>1.9E-3</v>
@@ -11295,7 +11338,7 @@
         <v>43</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="P103" s="4">
         <v>8.0000000000000002E-3</v>
@@ -11313,7 +11356,7 @@
         <v>67</v>
       </c>
       <c r="U103" s="4" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="V103" s="4">
         <v>5.0000000000000001E-4</v>
@@ -11330,14 +11373,14 @@
     </row>
     <row r="104" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="G104" s="4">
         <v>20</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="J104" s="4">
         <v>5.5999999999999999E-3</v>
@@ -11355,7 +11398,7 @@
         <v>44</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="P104" s="4">
         <v>5.4000000000000003E-3</v>
@@ -11373,7 +11416,7 @@
         <v>68</v>
       </c>
       <c r="U104" s="4" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="V104" s="4">
         <v>1.1000000000000001E-3</v>
@@ -11390,14 +11433,14 @@
     </row>
     <row r="105" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>88</v>
+        <v>414</v>
       </c>
       <c r="G105" s="4">
         <v>21</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="J105" s="4">
         <v>3.3999999999999998E-3</v>
@@ -11415,7 +11458,7 @@
         <v>45</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="P105" s="4">
         <v>0.2205</v>
@@ -11433,7 +11476,7 @@
         <v>69</v>
       </c>
       <c r="U105" s="4" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="V105" s="4">
         <v>1E-4</v>
@@ -11450,14 +11493,14 @@
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>89</v>
+        <v>420</v>
       </c>
       <c r="G106" s="4">
         <v>22</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="J106" s="4">
         <v>7.0000000000000001E-3</v>
@@ -11475,7 +11518,7 @@
         <v>46</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="P106" s="4">
         <v>1.2699999999999999E-2</v>
@@ -11493,7 +11536,7 @@
         <v>70</v>
       </c>
       <c r="U106" s="4" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="V106" s="4">
         <v>1.6000000000000001E-3</v>
@@ -11510,14 +11553,14 @@
     </row>
     <row r="107" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="G107" s="4">
         <v>23</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="J107" s="4">
         <v>7.6E-3</v>
@@ -11535,7 +11578,7 @@
         <v>47</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="P107" s="4">
         <v>1.2699999999999999E-2</v>
@@ -11553,7 +11596,7 @@
         <v>71</v>
       </c>
       <c r="U107" s="4" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="V107" s="4">
         <v>1.5E-3</v>
@@ -11570,14 +11613,14 @@
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>90</v>
+        <v>422</v>
       </c>
       <c r="G108" s="4">
         <v>24</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="J108" s="4">
         <v>2.7000000000000001E-3</v>
@@ -11595,7 +11638,7 @@
         <v>48</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="P108" s="4">
         <v>2.5000000000000001E-3</v>
@@ -11612,12 +11655,12 @@
     </row>
     <row r="109" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>92</v>
+        <v>430</v>
       </c>
       <c r="K110">
         <f>ROUND(K85,2)</f>
@@ -11634,7 +11677,7 @@
     </row>
     <row r="111" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="K111">
         <f t="shared" ref="K111:K132" si="13">ROUND(K86,2)</f>
@@ -11651,7 +11694,7 @@
     </row>
     <row r="112" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="K112">
         <f t="shared" si="13"/>
@@ -11668,7 +11711,7 @@
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="K113">
         <f t="shared" si="13"/>
@@ -11685,7 +11728,7 @@
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>95</v>
+        <v>398</v>
       </c>
       <c r="K114">
         <f t="shared" si="13"/>
@@ -11702,7 +11745,7 @@
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="K115">
         <f t="shared" si="13"/>
@@ -11719,7 +11762,7 @@
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="K116">
         <f t="shared" si="13"/>
@@ -11736,7 +11779,7 @@
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="K117">
         <f t="shared" si="13"/>
@@ -11753,7 +11796,7 @@
     </row>
     <row r="118" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>94</v>
+        <v>400</v>
       </c>
       <c r="K118">
         <f t="shared" si="13"/>
@@ -11770,7 +11813,7 @@
     </row>
     <row r="119" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>95</v>
+        <v>398</v>
       </c>
       <c r="K119">
         <f t="shared" si="13"/>
@@ -11787,7 +11830,7 @@
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="K120">
         <f t="shared" si="13"/>
@@ -11804,7 +11847,7 @@
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>96</v>
+        <v>401</v>
       </c>
       <c r="K121">
         <f t="shared" si="13"/>
@@ -11821,7 +11864,7 @@
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>96</v>
+        <v>401</v>
       </c>
       <c r="K122">
         <f t="shared" si="13"/>
@@ -11838,7 +11881,7 @@
     </row>
     <row r="123" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="K123">
         <f t="shared" si="13"/>
@@ -11855,7 +11898,7 @@
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K124">
         <f t="shared" si="13"/>
@@ -11872,7 +11915,7 @@
     </row>
     <row r="125" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>98</v>
+        <v>403</v>
       </c>
       <c r="K125">
         <f t="shared" si="13"/>
@@ -11889,7 +11932,7 @@
     </row>
     <row r="126" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="K126">
         <f t="shared" si="13"/>
@@ -11906,7 +11949,7 @@
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K127">
         <f t="shared" si="13"/>
@@ -11923,7 +11966,7 @@
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="K128">
         <f t="shared" si="13"/>
@@ -11940,7 +11983,7 @@
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>101</v>
+        <v>434</v>
       </c>
       <c r="K129">
         <f t="shared" si="13"/>
@@ -11957,7 +12000,7 @@
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="K130">
         <f t="shared" si="13"/>
@@ -11974,7 +12017,7 @@
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>103</v>
+        <v>406</v>
       </c>
       <c r="K131">
         <f t="shared" si="13"/>
@@ -11991,7 +12034,7 @@
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>104</v>
+        <v>431</v>
       </c>
       <c r="K132">
         <f t="shared" si="13"/>
@@ -12008,7 +12051,7 @@
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="K133">
         <f>ROUND(K108,2)</f>
@@ -12025,67 +12068,67 @@
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>108</v>
+        <v>410</v>
       </c>
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -12098,8 +12141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3351FFCC-F9DB-48D4-B030-1CA8F6FD42C3}">
   <dimension ref="A1:AB106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12112,49 +12155,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="13" t="s">
-        <v>121</v>
+      <c r="A1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="4" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="I2" s="14"/>
       <c r="J2" s="9" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -13315,7 +13358,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B20" s="4">
         <v>84.162000000000006</v>
@@ -13857,338 +13900,338 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="N31" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O31" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="Q31" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="R31" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="S31" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="T31" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="U31" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="V31" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="W31" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="X31" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="Y31" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="Z31" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="AA31" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="H32" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I32" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="K32" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="M32" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="N32" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="O32" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="Q32" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="R32" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="S32" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="T32" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="U32" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="V32" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="W32" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="X32" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Y32" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Z32" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="AA32" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E42">
         <v>0.77</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="H42" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="M42" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="O42" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="P42" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="H43">
         <v>3.56</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="L43" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="N43" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="O43" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="P43" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="Q43" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="R43" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="F44">
         <v>1.1200000000000001</v>
       </c>
       <c r="G44" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="D48" s="1">
         <v>0.77</v>
@@ -14217,7 +14260,7 @@
         <v>6.1907021900535E-3</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="T48" s="4">
         <v>763.15</v>
@@ -14225,7 +14268,7 @@
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="D49" s="1">
         <v>6.82</v>
@@ -14254,7 +14297,7 @@
         <v>5.9479036432417899E-2</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="T49" s="4">
         <v>0.105</v>
@@ -14262,7 +14305,7 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D50" s="1">
         <v>8.57</v>
@@ -14291,7 +14334,7 @@
         <v>7.41388898435201E-2</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="T50" s="4">
         <v>60000</v>
@@ -14299,7 +14342,7 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="D51" s="1">
         <v>12.02</v>
@@ -14328,7 +14371,7 @@
         <v>0.11142775440910101</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="T51" s="4">
         <v>6000</v>
@@ -14336,7 +14379,7 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1">
         <v>12.41</v>
@@ -14365,7 +14408,7 @@
         <v>0.12557628858811601</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="T52" s="4">
         <v>4.9020000000000001</v>
@@ -14373,7 +14416,7 @@
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D53" s="1">
         <v>14.41</v>
@@ -14402,7 +14445,7 @@
         <v>0.15007304287388801</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="T53" s="4">
         <v>2.4380000000000002</v>
@@ -14410,7 +14453,7 @@
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D54" s="1">
         <v>9.26</v>
@@ -14441,7 +14484,7 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -14738,7 +14781,7 @@
         <v>17</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="O65" s="8">
         <v>6.4000000000000003E-3</v>
@@ -14963,10 +15006,10 @@
         <v>0.98636321447098463</v>
       </c>
       <c r="I73" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="J73" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -14979,10 +15022,10 @@
         <v>6.4113608940614002</v>
       </c>
       <c r="I74" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="J74" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -14993,17 +15036,17 @@
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
       <c r="H76" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="I76">
         <f>9.13*1000 * 3.54</f>
         <v>32320.2</v>
       </c>
       <c r="K76" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="L76" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -15022,352 +15065,352 @@
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C82" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="D82" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="E82" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="F82" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="G82" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="H82" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="I82" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="J82" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="K82" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="L82" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M82" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="N82" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="O82" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="P82" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="Q82" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="R82" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="S82" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="T82" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="U82" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="V82" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="W82" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="X82" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="Y82" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="Z82" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="AA82" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="AB82" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="D83" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="E83" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="F83" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="G83" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H83" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="I83" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="J83" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="K83" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="L83" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="M83" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="N83" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="O83" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="P83" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="Q83" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="R83" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="S83" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="T83" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="U83" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="V83" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="W83" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="X83" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="Y83" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="Z83" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="AA83" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="AB83" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C84" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="C86" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C88" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C89" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="C90" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="C93" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="C94" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="C95" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C96" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C97" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="C98" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="C99" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="C100" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="C101" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="C104" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="C105" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -15395,10 +15438,10 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C1">
         <v>11</v>
@@ -15427,90 +15470,90 @@
         <v>0.77,</v>
       </c>
       <c r="O1" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="Q1" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="R1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="S1" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="T1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="U1" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="V1" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="W1" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="X1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="Y1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="Z1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AA1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AB1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AC1" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="AD1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="AE1" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="AF1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="AG1" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="AH1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="AI1" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="AJ1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="AK1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="AL1" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="AM1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="AN1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="AO1" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -15522,10 +15565,10 @@
         <v>3.55</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -15551,15 +15594,15 @@
         <v>6.82,</v>
       </c>
       <c r="O2" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -15571,10 +15614,10 @@
         <v>5.82</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -15600,15 +15643,15 @@
         <v>8.57,</v>
       </c>
       <c r="O3" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -15620,10 +15663,10 @@
         <v>7.88</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -15649,15 +15692,15 @@
         <v>12.02,</v>
       </c>
       <c r="O4" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -15669,10 +15712,10 @@
         <v>9.75</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -15695,15 +15738,15 @@
         <v>12.41,</v>
       </c>
       <c r="O5" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -15715,10 +15758,10 @@
         <v>0.44</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -15741,15 +15784,15 @@
         <v>14.41,</v>
       </c>
       <c r="O6" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -15761,10 +15804,10 @@
         <v>0.09</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -15787,12 +15830,12 @@
         <v>9.26,</v>
       </c>
       <c r="O7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -15817,12 +15860,12 @@
         <v>0,</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -15847,12 +15890,12 @@
         <v>0,</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -15877,12 +15920,12 @@
         <v>0,</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -15907,12 +15950,12 @@
         <v>0,</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -15937,12 +15980,12 @@
         <v>0,</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D13">
         <v>0.64</v>
@@ -15962,12 +16005,12 @@
         <v>0.87,</v>
       </c>
       <c r="O13" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -15993,12 +16036,12 @@
         <v>3.56,</v>
       </c>
       <c r="O14" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -16024,12 +16067,12 @@
         <v>4.04,</v>
       </c>
       <c r="O15" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -16055,12 +16098,12 @@
         <v>5.95,</v>
       </c>
       <c r="O16" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -16086,12 +16129,12 @@
         <v>4.23,</v>
       </c>
       <c r="O17" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -16103,7 +16146,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
@@ -16117,12 +16160,12 @@
         <v>0.64,</v>
       </c>
       <c r="O18" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -16148,7 +16191,7 @@
         <v>0.96,</v>
       </c>
       <c r="O19" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.3">
@@ -16167,7 +16210,7 @@
         <v>1.34,</v>
       </c>
       <c r="O20" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.3">
@@ -16186,7 +16229,7 @@
         <v>4.24,</v>
       </c>
       <c r="O21" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.3">
@@ -16205,7 +16248,7 @@
         <v>5.77,</v>
       </c>
       <c r="O22" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.3">
@@ -16224,7 +16267,7 @@
         <v>3.02,</v>
       </c>
       <c r="O23" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.3">
@@ -16243,7 +16286,7 @@
         <v>1.12,</v>
       </c>
       <c r="O24" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.3">
@@ -16258,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.3">
@@ -16271,82 +16314,82 @@
         <v>0,</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="P27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="Q27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="R27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="S27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="T27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="U27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="V27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="W27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="X27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="Y27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="AA27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AB27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AC27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AD27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AE27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AF27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AG27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AH27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AI27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AJ27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AK27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AL27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AM27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AN27" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.3">
@@ -16359,7 +16402,7 @@
         <v>0,</v>
       </c>
       <c r="O28" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.3">
@@ -16372,7 +16415,7 @@
         <v>0,</v>
       </c>
       <c r="O29" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.3">
@@ -16385,7 +16428,7 @@
         <v>0,</v>
       </c>
       <c r="O30" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.3">
@@ -16398,7 +16441,7 @@
         <v>0,</v>
       </c>
       <c r="O31" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.3">
@@ -16411,7 +16454,7 @@
         <v>0,</v>
       </c>
       <c r="O32" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.3">
@@ -16424,7 +16467,7 @@
         <v>0,</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.3">
@@ -16436,7 +16479,7 @@
         <v>0,</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.3">
@@ -16448,7 +16491,7 @@
         <v>0,</v>
       </c>
       <c r="O35" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.3">
@@ -16460,7 +16503,7 @@
         <v>0,</v>
       </c>
       <c r="O36" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.3">
@@ -16472,7 +16515,7 @@
         <v>10,</v>
       </c>
       <c r="O37" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.3">
@@ -16484,7 +16527,7 @@
         <v>0,</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.3">
@@ -16497,7 +16540,7 @@
         <v>0,</v>
       </c>
       <c r="O39" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.3">
@@ -16510,7 +16553,7 @@
         <v>0,</v>
       </c>
       <c r="O40" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.3">
@@ -16523,7 +16566,7 @@
         <v>0,</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.3">
@@ -16536,7 +16579,7 @@
         <v>0,</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.3">
@@ -16549,7 +16592,7 @@
         <v>0,</v>
       </c>
       <c r="O43" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.3">
@@ -16562,7 +16605,7 @@
         <v>0,</v>
       </c>
       <c r="O44" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.3">
@@ -16575,7 +16618,7 @@
         <v>0,</v>
       </c>
       <c r="O45" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.3">
@@ -16588,7 +16631,7 @@
         <v>0,</v>
       </c>
       <c r="O46" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.3">
@@ -16601,7 +16644,7 @@
         <v>0,</v>
       </c>
       <c r="O47" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.3">
@@ -16614,7 +16657,7 @@
         <v>0,</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.3">
@@ -16627,7 +16670,7 @@
         <v>0,</v>
       </c>
       <c r="O49" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.3">
@@ -16640,7 +16683,7 @@
         <v>0,</v>
       </c>
       <c r="O50" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.3">
@@ -16652,7 +16695,7 @@
         <v>90</v>
       </c>
       <c r="O51" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
